--- a/2T1617CR/2T1617 - CITCS-ITE3-CITCS 2A.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ITE3-CITCS 2A.xlsx
@@ -3031,126 +3031,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3162,6 +3046,10 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="6" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3225,6 +3113,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3232,12 +3124,222 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="46" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3271,6 +3373,74 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3299,76 +3469,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="15" fontId="46" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3391,186 +3493,55 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="46" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="46" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3586,74 +3557,61 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3676,12 +3634,126 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3712,109 +3784,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="69" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3831,6 +3831,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3857,22 +3873,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="59" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8062,39 +8062,39 @@
   <sheetData>
     <row r="1" spans="2:18" s="24" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:18" ht="13.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="207"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="P2" s="169" t="s">
+      <c r="B2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="179"/>
+      <c r="P2" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
     </row>
     <row r="3" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="210"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="212"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
       <c r="P3" s="27" t="s">
         <v>25</v>
       </c>
@@ -8106,19 +8106,19 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="210"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="212"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="182"/>
       <c r="P4" s="27">
         <v>0</v>
       </c>
@@ -8130,19 +8130,19 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="210"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="212"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="182"/>
       <c r="P5" s="27">
         <v>7</v>
       </c>
@@ -8154,19 +8154,19 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="210"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="212"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="182"/>
       <c r="P6" s="27">
         <v>19</v>
       </c>
@@ -8178,19 +8178,19 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="210"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="212"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="182"/>
       <c r="P7" s="27">
         <v>31</v>
       </c>
@@ -8202,19 +8202,19 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="210"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="182"/>
       <c r="P8" s="27">
         <v>43</v>
       </c>
@@ -8226,19 +8226,19 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="213"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="215"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="185"/>
       <c r="P9" s="27">
         <v>50</v>
       </c>
@@ -8251,19 +8251,19 @@
     </row>
     <row r="10" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="29"/>
-      <c r="C10" s="216" t="s">
+      <c r="C10" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="217"/>
-      <c r="M10" s="218"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="188"/>
       <c r="N10" s="30"/>
       <c r="P10" s="27">
         <v>51.5</v>
@@ -8277,17 +8277,17 @@
     </row>
     <row r="11" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="31"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="202"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="171"/>
       <c r="N11" s="32"/>
       <c r="P11" s="27">
         <v>53</v>
@@ -8302,21 +8302,21 @@
     <row r="12" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="31"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="193" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="223"/>
+      <c r="E12" s="194"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="219" t="s">
+      <c r="G12" s="189" t="s">
         <v>155</v>
       </c>
-      <c r="H12" s="222"/>
+      <c r="H12" s="192"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="219" t="s">
+      <c r="J12" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="K12" s="220"/>
-      <c r="L12" s="221"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
       <c r="M12" s="14"/>
       <c r="N12" s="32"/>
       <c r="P12" s="27">
@@ -8332,21 +8332,21 @@
     <row r="13" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="31"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="173" t="s">
+      <c r="D13" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="174"/>
+      <c r="E13" s="214"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="173" t="s">
+      <c r="G13" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="173"/>
+      <c r="H13" s="174"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="173" t="s">
+      <c r="J13" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="186"/>
-      <c r="L13" s="186"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
       <c r="M13" s="14"/>
       <c r="N13" s="32"/>
       <c r="P13" s="27">
@@ -8362,15 +8362,15 @@
     <row r="14" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="31"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="219" t="s">
+      <c r="D14" s="189" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="222"/>
+      <c r="E14" s="192"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="219" t="s">
+      <c r="G14" s="189" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="222"/>
+      <c r="H14" s="192"/>
       <c r="I14" s="5"/>
       <c r="J14" s="167" t="s">
         <v>161</v>
@@ -8394,21 +8394,21 @@
     <row r="15" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="31"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="173" t="s">
+      <c r="D15" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="185"/>
+      <c r="E15" s="199"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="173" t="s">
+      <c r="G15" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="185"/>
+      <c r="H15" s="199"/>
       <c r="I15" s="5"/>
       <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="224"/>
-      <c r="L15" s="186"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="170"/>
       <c r="M15" s="14"/>
       <c r="N15" s="32"/>
       <c r="P15" s="27">
@@ -8424,21 +8424,21 @@
     <row r="16" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="31"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="187" t="s">
+      <c r="D16" s="193" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="188"/>
+      <c r="E16" s="200"/>
       <c r="F16" s="4"/>
       <c r="G16" s="168">
         <v>2</v>
       </c>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="175" t="s">
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="215" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="176"/>
-      <c r="L16" s="177"/>
+      <c r="K16" s="216"/>
+      <c r="L16" s="217"/>
       <c r="M16" s="14"/>
       <c r="N16" s="32"/>
       <c r="P16" s="27">
@@ -8454,21 +8454,21 @@
     <row r="17" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="31"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="173" t="s">
+      <c r="D17" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="197"/>
+      <c r="E17" s="209"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="173" t="s">
+      <c r="J17" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="186"/>
-      <c r="L17" s="186"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
       <c r="M17" s="14"/>
       <c r="N17" s="32"/>
       <c r="P17" s="27">
@@ -8484,12 +8484,12 @@
     <row r="18" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="31"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -8508,16 +8508,16 @@
     <row r="19" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="31"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="194" t="s">
+      <c r="D19" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="196"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="194" t="s">
+      <c r="G19" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="195"/>
-      <c r="I19" s="195"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
       <c r="J19" s="43" t="str">
         <f>IF(J23="","Prelim","ERROR")</f>
         <v>Prelim</v>
@@ -8545,16 +8545,16 @@
     <row r="20" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="31"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="203">
+      <c r="D20" s="172">
         <v>40575</v>
       </c>
-      <c r="E20" s="204"/>
+      <c r="E20" s="173"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="198" t="s">
+      <c r="G20" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="199"/>
-      <c r="I20" s="200"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
       <c r="J20" s="36">
         <v>0.33</v>
       </c>
@@ -8579,16 +8579,16 @@
     <row r="21" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="31"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="173" t="s">
+      <c r="D21" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="174"/>
+      <c r="E21" s="214"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="198" t="s">
+      <c r="G21" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="199"/>
-      <c r="I21" s="200"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="198"/>
       <c r="J21" s="36">
         <v>0.33</v>
       </c>
@@ -8613,16 +8613,16 @@
     <row r="22" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="31"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="180">
+      <c r="D22" s="220">
         <v>40603</v>
       </c>
-      <c r="E22" s="181"/>
+      <c r="E22" s="221"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="205" t="s">
+      <c r="G22" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="206"/>
-      <c r="I22" s="206"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
       <c r="J22" s="38">
         <v>0.34</v>
       </c>
@@ -8647,14 +8647,14 @@
     <row r="23" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="31"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="173" t="s">
+      <c r="D23" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="174"/>
+      <c r="E23" s="214"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
       <c r="J23" s="10" t="str">
         <f>IF((SUM(J20:J22))=1,"",(SUM(J20:J22))-1)</f>
         <v/>
@@ -8682,16 +8682,16 @@
     <row r="24" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="31"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="180">
+      <c r="D24" s="220">
         <v>40634</v>
       </c>
-      <c r="E24" s="184"/>
+      <c r="E24" s="224"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="194" t="s">
+      <c r="G24" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="195"/>
-      <c r="I24" s="195"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
       <c r="J24" s="44" t="s">
         <v>8</v>
       </c>
@@ -8716,16 +8716,16 @@
     <row r="25" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="31"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="173" t="s">
+      <c r="D25" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="174"/>
+      <c r="E25" s="214"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="189" t="s">
+      <c r="G25" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="190"/>
-      <c r="I25" s="190"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
       <c r="J25" s="40">
         <v>0.5</v>
       </c>
@@ -8748,14 +8748,14 @@
     <row r="26" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="31"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="186"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="170"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="191" t="s">
+      <c r="G26" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="192"/>
-      <c r="I26" s="193"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="205"/>
       <c r="J26" s="41">
         <v>0.25</v>
       </c>
@@ -8779,15 +8779,15 @@
     </row>
     <row r="27" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="31"/>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="211"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -11129,30 +11129,6 @@
   </sheetData>
   <sheetProtection password="D04D" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="40">
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B2:N9"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G21:I21"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="C27:E27"/>
@@ -11169,6 +11145,30 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B2:N9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12167,273 +12167,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="str">
+      <c r="A1" s="253" t="str">
         <f>CONCATENATE('INITIAL INPUT'!D12,"  ",'INITIAL INPUT'!G12)</f>
         <v>CITCS 2A  ITE3</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="233" t="s">
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="259" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="233" t="s">
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="259" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="233" t="s">
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="261"/>
+      <c r="P1" s="259" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="235"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="260"/>
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="261"/>
       <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:24" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="230"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="278" t="str">
+      <c r="A2" s="256"/>
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="250" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="271" t="str">
+      <c r="F2" s="228" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="238" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="275" t="str">
+      <c r="I2" s="247" t="str">
         <f>IF('INITIAL INPUT'!J23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="J2" s="278" t="str">
+      <c r="J2" s="250" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="K2" s="271" t="str">
+      <c r="K2" s="228" t="str">
         <f>F2</f>
         <v>Laboratory</v>
       </c>
-      <c r="L2" s="266" t="str">
+      <c r="L2" s="231" t="str">
         <f>G2</f>
         <v>EXAM</v>
       </c>
-      <c r="M2" s="267" t="s">
+      <c r="M2" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="246" t="s">
+      <c r="N2" s="238" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="275" t="str">
+      <c r="O2" s="247" t="str">
         <f>IF('INITIAL INPUT'!K23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="P2" s="278" t="str">
+      <c r="P2" s="250" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="Q2" s="271" t="str">
+      <c r="Q2" s="228" t="str">
         <f>F2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="266" t="s">
+      <c r="R2" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="267" t="s">
+      <c r="S2" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="T2" s="246" t="s">
+      <c r="T2" s="238" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="275" t="str">
+      <c r="U2" s="247" t="str">
         <f>IF('INITIAL INPUT'!L23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="V2" s="281" t="str">
+      <c r="V2" s="267" t="str">
         <f>IF(U2="INVALID GRADE","INVALID FINAL GRADE","FINAL GRADE (%)")</f>
         <v>FINAL GRADE (%)</v>
       </c>
-      <c r="W2" s="293" t="s">
+      <c r="W2" s="225" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="str">
+      <c r="A3" s="279" t="str">
         <f>'INITIAL INPUT'!J12</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="267"/>
-      <c r="N3" s="274"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="267"/>
-      <c r="T3" s="274"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="294"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="248"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="246"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="268"/>
+      <c r="W3" s="226"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="239" t="str">
+      <c r="A4" s="282" t="str">
         <f>CONCATENATE('INITIAL INPUT'!D14,"  ",'INITIAL INPUT'!G14)</f>
         <v>TTH 10:00AM-11:15AM   MWF 3:00PM-4:15PM</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="241"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="284"/>
       <c r="D4" s="103" t="str">
         <f>'INITIAL INPUT'!J14</f>
         <v>M306</v>
       </c>
-      <c r="E4" s="279"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="279"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="244"/>
-      <c r="M4" s="267"/>
-      <c r="N4" s="274"/>
-      <c r="O4" s="276"/>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="244"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="276"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="294"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="246"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="251"/>
+      <c r="Q4" s="229"/>
+      <c r="R4" s="232"/>
+      <c r="S4" s="264"/>
+      <c r="T4" s="246"/>
+      <c r="U4" s="248"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="226"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="239" t="str">
+      <c r="A5" s="282" t="str">
         <f>CONCATENATE('INITIAL INPUT'!G16," Trimester ","SY ",'INITIAL INPUT'!D16)</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="272"/>
-      <c r="G5" s="284">
+      <c r="B5" s="283"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="237">
         <f>'INITIAL INPUT'!D20</f>
         <v>40575</v>
       </c>
-      <c r="H5" s="274"/>
-      <c r="I5" s="276"/>
-      <c r="J5" s="279"/>
-      <c r="K5" s="272"/>
-      <c r="L5" s="284">
+      <c r="H5" s="246"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="237">
         <f>'INITIAL INPUT'!D22</f>
         <v>40603</v>
       </c>
-      <c r="M5" s="267"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="279"/>
-      <c r="Q5" s="272"/>
-      <c r="R5" s="284">
+      <c r="M5" s="264"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="248"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="229"/>
+      <c r="R5" s="237">
         <f>'INITIAL INPUT'!D24</f>
         <v>40634</v>
       </c>
-      <c r="S5" s="267"/>
-      <c r="T5" s="274"/>
-      <c r="U5" s="276"/>
-      <c r="V5" s="282"/>
-      <c r="W5" s="294"/>
+      <c r="S5" s="264"/>
+      <c r="T5" s="246"/>
+      <c r="U5" s="248"/>
+      <c r="V5" s="268"/>
+      <c r="W5" s="226"/>
     </row>
     <row r="6" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="252" t="str">
+      <c r="A6" s="270" t="str">
         <f>CONCATENATE("Inst/Prof:", 'INITIAL INPUT'!J16)</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="253"/>
-      <c r="C6" s="253"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="272"/>
-      <c r="G6" s="272"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="279"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="272"/>
-      <c r="M6" s="267"/>
-      <c r="N6" s="274"/>
-      <c r="O6" s="276"/>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="272"/>
-      <c r="R6" s="272"/>
-      <c r="S6" s="267"/>
-      <c r="T6" s="274"/>
-      <c r="U6" s="276"/>
-      <c r="V6" s="282"/>
-      <c r="W6" s="294"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="251"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="229"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="246"/>
+      <c r="O6" s="248"/>
+      <c r="P6" s="251"/>
+      <c r="Q6" s="229"/>
+      <c r="R6" s="229"/>
+      <c r="S6" s="264"/>
+      <c r="T6" s="246"/>
+      <c r="U6" s="248"/>
+      <c r="V6" s="268"/>
+      <c r="W6" s="226"/>
     </row>
     <row r="7" spans="1:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="255" t="s">
+      <c r="A7" s="273" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="256"/>
-      <c r="C7" s="259" t="s">
+      <c r="B7" s="274"/>
+      <c r="C7" s="277" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="225" t="s">
+      <c r="D7" s="262" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="274"/>
-      <c r="I7" s="276"/>
-      <c r="J7" s="280"/>
-      <c r="K7" s="273"/>
-      <c r="L7" s="273"/>
-      <c r="M7" s="268"/>
-      <c r="N7" s="274"/>
-      <c r="O7" s="276"/>
-      <c r="P7" s="280"/>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="273"/>
-      <c r="S7" s="268"/>
-      <c r="T7" s="274"/>
-      <c r="U7" s="276"/>
-      <c r="V7" s="282"/>
-      <c r="W7" s="294"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="246"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="252"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="230"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="246"/>
+      <c r="U7" s="248"/>
+      <c r="V7" s="268"/>
+      <c r="W7" s="226"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="257"/>
-      <c r="B8" s="258"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="226"/>
+      <c r="A8" s="275"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="263"/>
       <c r="E8" s="76">
         <f>'INITIAL INPUT'!J20</f>
         <v>0.33</v>
@@ -12446,8 +12446,8 @@
         <f>'INITIAL INPUT'!J22</f>
         <v>0.34</v>
       </c>
-      <c r="H8" s="248"/>
-      <c r="I8" s="277"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="249"/>
       <c r="J8" s="76">
         <f>'INITIAL INPUT'!K20</f>
         <v>0.33</v>
@@ -12460,9 +12460,9 @@
         <f>'INITIAL INPUT'!K22</f>
         <v>0.34</v>
       </c>
-      <c r="M8" s="269"/>
-      <c r="N8" s="248"/>
-      <c r="O8" s="277"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="240"/>
+      <c r="O8" s="249"/>
       <c r="P8" s="76">
         <f>'INITIAL INPUT'!L20</f>
         <v>0.33</v>
@@ -12475,11 +12475,11 @@
         <f>'INITIAL INPUT'!L22</f>
         <v>0.34</v>
       </c>
-      <c r="S8" s="269"/>
-      <c r="T8" s="248"/>
-      <c r="U8" s="277"/>
-      <c r="V8" s="283"/>
-      <c r="W8" s="295"/>
+      <c r="S8" s="266"/>
+      <c r="T8" s="240"/>
+      <c r="U8" s="249"/>
+      <c r="V8" s="269"/>
+      <c r="W8" s="227"/>
     </row>
     <row r="9" spans="1:24" s="89" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -12970,7 +12970,7 @@
       </c>
       <c r="F14" s="83">
         <f>IF(PRELIM!AB14="","",$F$8*PRELIM!AB14)</f>
-        <v>7.6153846153846159</v>
+        <v>33</v>
       </c>
       <c r="G14" s="83">
         <f>IF(PRELIM!AD14="","",$G$8*PRELIM!AD14)</f>
@@ -12978,11 +12978,11 @@
       </c>
       <c r="H14" s="84">
         <f t="shared" si="0"/>
-        <v>68.007384615384609</v>
+        <v>93.391999999999996</v>
       </c>
       <c r="I14" s="85">
         <f>IF(H14="","",VLOOKUP(H14,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J14" s="83" t="str">
         <f>IF(MIDTERM!P14="","",$J$8*MIDTERM!P14)</f>
@@ -13154,7 +13154,7 @@
       </c>
       <c r="E16" s="82">
         <f>IF(PRELIM!P16="","",$E$8*PRELIM!P16)</f>
-        <v>27.192</v>
+        <v>29.040000000000003</v>
       </c>
       <c r="F16" s="83">
         <f>IF(PRELIM!AB16="","",$F$8*PRELIM!AB16)</f>
@@ -13166,11 +13166,11 @@
       </c>
       <c r="H16" s="84">
         <f t="shared" si="0"/>
-        <v>54.998923076923077</v>
+        <v>56.846923076923076</v>
       </c>
       <c r="I16" s="85">
         <f>IF(H16="","",VLOOKUP(H16,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" s="83" t="str">
         <f>IF(MIDTERM!P16="","",$J$8*MIDTERM!P16)</f>
@@ -14168,8 +14168,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X26" s="296"/>
-      <c r="Y26" s="286" t="s">
+      <c r="X26" s="233"/>
+      <c r="Y26" s="235" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14265,8 +14265,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X27" s="297"/>
-      <c r="Y27" s="287"/>
+      <c r="X27" s="234"/>
+      <c r="Y27" s="236"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
@@ -14360,8 +14360,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X28" s="297"/>
-      <c r="Y28" s="287"/>
+      <c r="X28" s="234"/>
+      <c r="Y28" s="236"/>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
@@ -14455,8 +14455,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X29" s="297"/>
-      <c r="Y29" s="287"/>
+      <c r="X29" s="234"/>
+      <c r="Y29" s="236"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
@@ -14550,8 +14550,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X30" s="297"/>
-      <c r="Y30" s="287"/>
+      <c r="X30" s="234"/>
+      <c r="Y30" s="236"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
@@ -14645,8 +14645,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X31" s="297"/>
-      <c r="Y31" s="287"/>
+      <c r="X31" s="234"/>
+      <c r="Y31" s="236"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
@@ -14740,8 +14740,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X32" s="297"/>
-      <c r="Y32" s="287"/>
+      <c r="X32" s="234"/>
+      <c r="Y32" s="236"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
@@ -14835,8 +14835,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X33" s="297"/>
-      <c r="Y33" s="287"/>
+      <c r="X33" s="234"/>
+      <c r="Y33" s="236"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
@@ -14930,8 +14930,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X34" s="297"/>
-      <c r="Y34" s="287"/>
+      <c r="X34" s="234"/>
+      <c r="Y34" s="236"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
@@ -15025,8 +15025,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X35" s="297"/>
-      <c r="Y35" s="287"/>
+      <c r="X35" s="234"/>
+      <c r="Y35" s="236"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
@@ -15120,8 +15120,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X36" s="297"/>
-      <c r="Y36" s="287"/>
+      <c r="X36" s="234"/>
+      <c r="Y36" s="236"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
@@ -15215,8 +15215,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X37" s="297"/>
-      <c r="Y37" s="287"/>
+      <c r="X37" s="234"/>
+      <c r="Y37" s="236"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
@@ -15310,8 +15310,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X38" s="297"/>
-      <c r="Y38" s="287"/>
+      <c r="X38" s="234"/>
+      <c r="Y38" s="236"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
@@ -15405,8 +15405,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X39" s="297"/>
-      <c r="Y39" s="287"/>
+      <c r="X39" s="234"/>
+      <c r="Y39" s="236"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
@@ -15500,8 +15500,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X40" s="297"/>
-      <c r="Y40" s="287"/>
+      <c r="X40" s="234"/>
+      <c r="Y40" s="236"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="92"/>
@@ -15516,301 +15516,301 @@
       <c r="X41" s="91"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="227" t="str">
+      <c r="A42" s="253" t="str">
         <f>A1</f>
         <v>CITCS 2A  ITE3</v>
       </c>
-      <c r="B42" s="228"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="229"/>
-      <c r="E42" s="233" t="s">
+      <c r="B42" s="254"/>
+      <c r="C42" s="254"/>
+      <c r="D42" s="255"/>
+      <c r="E42" s="259" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="234"/>
-      <c r="G42" s="234"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="233" t="s">
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="261"/>
+      <c r="J42" s="259" t="s">
         <v>130</v>
       </c>
-      <c r="K42" s="234"/>
-      <c r="L42" s="234"/>
-      <c r="M42" s="234"/>
-      <c r="N42" s="234"/>
-      <c r="O42" s="235"/>
-      <c r="P42" s="233" t="s">
+      <c r="K42" s="260"/>
+      <c r="L42" s="260"/>
+      <c r="M42" s="260"/>
+      <c r="N42" s="260"/>
+      <c r="O42" s="261"/>
+      <c r="P42" s="259" t="s">
         <v>131</v>
       </c>
-      <c r="Q42" s="234"/>
-      <c r="R42" s="234"/>
-      <c r="S42" s="234"/>
-      <c r="T42" s="234"/>
-      <c r="U42" s="234"/>
-      <c r="V42" s="270"/>
+      <c r="Q42" s="260"/>
+      <c r="R42" s="260"/>
+      <c r="S42" s="260"/>
+      <c r="T42" s="260"/>
+      <c r="U42" s="260"/>
+      <c r="V42" s="286"/>
       <c r="W42" s="72"/>
       <c r="X42" s="91"/>
     </row>
     <row r="43" spans="1:25" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="230"/>
-      <c r="B43" s="231"/>
-      <c r="C43" s="231"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="261" t="str">
+      <c r="A43" s="256"/>
+      <c r="B43" s="257"/>
+      <c r="C43" s="257"/>
+      <c r="D43" s="258"/>
+      <c r="E43" s="287" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="264" t="str">
+      <c r="F43" s="290" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="G43" s="266" t="s">
+      <c r="G43" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="H43" s="246" t="str">
+      <c r="H43" s="238" t="str">
         <f>H2</f>
         <v>SCORE</v>
       </c>
-      <c r="I43" s="249" t="str">
+      <c r="I43" s="294" t="str">
         <f>I2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="J43" s="261" t="str">
+      <c r="J43" s="287" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="K43" s="264" t="str">
+      <c r="K43" s="290" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="L43" s="266" t="s">
+      <c r="L43" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="M43" s="267" t="str">
+      <c r="M43" s="264" t="str">
         <f>M2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="N43" s="246" t="str">
+      <c r="N43" s="238" t="str">
         <f>N2</f>
         <v>SCORE</v>
       </c>
-      <c r="O43" s="249" t="str">
+      <c r="O43" s="294" t="str">
         <f>O2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="P43" s="261" t="str">
+      <c r="P43" s="287" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="Q43" s="264" t="str">
+      <c r="Q43" s="290" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="266" t="s">
+      <c r="R43" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="S43" s="267" t="str">
+      <c r="S43" s="264" t="str">
         <f>S2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="T43" s="246" t="str">
+      <c r="T43" s="238" t="str">
         <f>T2</f>
         <v>SCORE</v>
       </c>
-      <c r="U43" s="288" t="str">
+      <c r="U43" s="241" t="str">
         <f>U2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="V43" s="291" t="str">
+      <c r="V43" s="244" t="str">
         <f>V2</f>
         <v>FINAL GRADE (%)</v>
       </c>
-      <c r="W43" s="293" t="s">
+      <c r="W43" s="225" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="236" t="str">
+      <c r="A44" s="279" t="str">
         <f>A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B44" s="237"/>
-      <c r="C44" s="237"/>
-      <c r="D44" s="238"/>
-      <c r="E44" s="262"/>
-      <c r="F44" s="265"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="262"/>
-      <c r="K44" s="265"/>
-      <c r="L44" s="244"/>
-      <c r="M44" s="267"/>
-      <c r="N44" s="247"/>
-      <c r="O44" s="250"/>
-      <c r="P44" s="262"/>
-      <c r="Q44" s="265"/>
-      <c r="R44" s="244"/>
-      <c r="S44" s="267"/>
-      <c r="T44" s="247"/>
-      <c r="U44" s="289"/>
-      <c r="V44" s="291"/>
-      <c r="W44" s="294"/>
+      <c r="B44" s="280"/>
+      <c r="C44" s="280"/>
+      <c r="D44" s="281"/>
+      <c r="E44" s="288"/>
+      <c r="F44" s="291"/>
+      <c r="G44" s="232"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="295"/>
+      <c r="J44" s="288"/>
+      <c r="K44" s="291"/>
+      <c r="L44" s="232"/>
+      <c r="M44" s="264"/>
+      <c r="N44" s="239"/>
+      <c r="O44" s="295"/>
+      <c r="P44" s="288"/>
+      <c r="Q44" s="291"/>
+      <c r="R44" s="232"/>
+      <c r="S44" s="264"/>
+      <c r="T44" s="239"/>
+      <c r="U44" s="242"/>
+      <c r="V44" s="244"/>
+      <c r="W44" s="226"/>
     </row>
     <row r="45" spans="1:25" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="239" t="str">
+      <c r="A45" s="282" t="str">
         <f>A4</f>
         <v>TTH 10:00AM-11:15AM   MWF 3:00PM-4:15PM</v>
       </c>
-      <c r="B45" s="240"/>
-      <c r="C45" s="241"/>
+      <c r="B45" s="283"/>
+      <c r="C45" s="284"/>
       <c r="D45" s="75" t="str">
         <f>D4</f>
         <v>M306</v>
       </c>
-      <c r="E45" s="262"/>
-      <c r="F45" s="265"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="247"/>
-      <c r="I45" s="250"/>
-      <c r="J45" s="262"/>
-      <c r="K45" s="265"/>
-      <c r="L45" s="244"/>
-      <c r="M45" s="267"/>
-      <c r="N45" s="247"/>
-      <c r="O45" s="250"/>
-      <c r="P45" s="262"/>
-      <c r="Q45" s="265"/>
-      <c r="R45" s="244"/>
-      <c r="S45" s="267"/>
-      <c r="T45" s="247"/>
-      <c r="U45" s="289"/>
-      <c r="V45" s="291"/>
-      <c r="W45" s="294"/>
+      <c r="E45" s="288"/>
+      <c r="F45" s="291"/>
+      <c r="G45" s="232"/>
+      <c r="H45" s="239"/>
+      <c r="I45" s="295"/>
+      <c r="J45" s="288"/>
+      <c r="K45" s="291"/>
+      <c r="L45" s="232"/>
+      <c r="M45" s="264"/>
+      <c r="N45" s="239"/>
+      <c r="O45" s="295"/>
+      <c r="P45" s="288"/>
+      <c r="Q45" s="291"/>
+      <c r="R45" s="232"/>
+      <c r="S45" s="264"/>
+      <c r="T45" s="239"/>
+      <c r="U45" s="242"/>
+      <c r="V45" s="244"/>
+      <c r="W45" s="226"/>
     </row>
     <row r="46" spans="1:25" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="239" t="str">
+      <c r="A46" s="282" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="240"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="242"/>
-      <c r="E46" s="262"/>
-      <c r="F46" s="265"/>
-      <c r="G46" s="243">
+      <c r="B46" s="283"/>
+      <c r="C46" s="284"/>
+      <c r="D46" s="285"/>
+      <c r="E46" s="288"/>
+      <c r="F46" s="291"/>
+      <c r="G46" s="293">
         <f>G5</f>
         <v>40575</v>
       </c>
-      <c r="H46" s="247"/>
-      <c r="I46" s="250"/>
-      <c r="J46" s="262"/>
-      <c r="K46" s="265"/>
-      <c r="L46" s="243">
+      <c r="H46" s="239"/>
+      <c r="I46" s="295"/>
+      <c r="J46" s="288"/>
+      <c r="K46" s="291"/>
+      <c r="L46" s="293">
         <f>L5</f>
         <v>40603</v>
       </c>
-      <c r="M46" s="267"/>
-      <c r="N46" s="247"/>
-      <c r="O46" s="250"/>
-      <c r="P46" s="262"/>
-      <c r="Q46" s="265"/>
-      <c r="R46" s="243">
+      <c r="M46" s="264"/>
+      <c r="N46" s="239"/>
+      <c r="O46" s="295"/>
+      <c r="P46" s="288"/>
+      <c r="Q46" s="291"/>
+      <c r="R46" s="293">
         <f>R5</f>
         <v>40634</v>
       </c>
-      <c r="S46" s="267"/>
-      <c r="T46" s="247"/>
-      <c r="U46" s="289"/>
-      <c r="V46" s="291"/>
-      <c r="W46" s="294"/>
+      <c r="S46" s="264"/>
+      <c r="T46" s="239"/>
+      <c r="U46" s="242"/>
+      <c r="V46" s="244"/>
+      <c r="W46" s="226"/>
     </row>
     <row r="47" spans="1:25" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="252" t="str">
+      <c r="A47" s="270" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="253"/>
-      <c r="C47" s="244"/>
-      <c r="D47" s="254"/>
-      <c r="E47" s="262"/>
-      <c r="F47" s="265"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="247"/>
-      <c r="I47" s="250"/>
-      <c r="J47" s="262"/>
-      <c r="K47" s="265"/>
-      <c r="L47" s="244"/>
-      <c r="M47" s="267"/>
-      <c r="N47" s="247"/>
-      <c r="O47" s="250"/>
-      <c r="P47" s="262"/>
-      <c r="Q47" s="265"/>
-      <c r="R47" s="244"/>
-      <c r="S47" s="267"/>
-      <c r="T47" s="247"/>
-      <c r="U47" s="289"/>
-      <c r="V47" s="291"/>
-      <c r="W47" s="294"/>
+      <c r="B47" s="271"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="297"/>
+      <c r="E47" s="288"/>
+      <c r="F47" s="291"/>
+      <c r="G47" s="232"/>
+      <c r="H47" s="239"/>
+      <c r="I47" s="295"/>
+      <c r="J47" s="288"/>
+      <c r="K47" s="291"/>
+      <c r="L47" s="232"/>
+      <c r="M47" s="264"/>
+      <c r="N47" s="239"/>
+      <c r="O47" s="295"/>
+      <c r="P47" s="288"/>
+      <c r="Q47" s="291"/>
+      <c r="R47" s="232"/>
+      <c r="S47" s="264"/>
+      <c r="T47" s="239"/>
+      <c r="U47" s="242"/>
+      <c r="V47" s="244"/>
+      <c r="W47" s="226"/>
     </row>
     <row r="48" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="255" t="str">
+      <c r="A48" s="273" t="str">
         <f>A7</f>
         <v>CLASS LIST</v>
       </c>
-      <c r="B48" s="256"/>
-      <c r="C48" s="259" t="str">
+      <c r="B48" s="274"/>
+      <c r="C48" s="277" t="str">
         <f>C7</f>
         <v>SEX</v>
       </c>
-      <c r="D48" s="225" t="str">
+      <c r="D48" s="262" t="str">
         <f>D7</f>
         <v>Course</v>
       </c>
-      <c r="E48" s="262"/>
-      <c r="F48" s="265"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="247"/>
-      <c r="I48" s="250"/>
-      <c r="J48" s="262"/>
-      <c r="K48" s="265"/>
-      <c r="L48" s="244"/>
-      <c r="M48" s="268"/>
-      <c r="N48" s="247"/>
-      <c r="O48" s="250"/>
-      <c r="P48" s="262"/>
-      <c r="Q48" s="265"/>
-      <c r="R48" s="244"/>
-      <c r="S48" s="268"/>
-      <c r="T48" s="247"/>
-      <c r="U48" s="289"/>
-      <c r="V48" s="291"/>
-      <c r="W48" s="294"/>
+      <c r="E48" s="288"/>
+      <c r="F48" s="291"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="239"/>
+      <c r="I48" s="295"/>
+      <c r="J48" s="288"/>
+      <c r="K48" s="291"/>
+      <c r="L48" s="232"/>
+      <c r="M48" s="265"/>
+      <c r="N48" s="239"/>
+      <c r="O48" s="295"/>
+      <c r="P48" s="288"/>
+      <c r="Q48" s="291"/>
+      <c r="R48" s="232"/>
+      <c r="S48" s="265"/>
+      <c r="T48" s="239"/>
+      <c r="U48" s="242"/>
+      <c r="V48" s="244"/>
+      <c r="W48" s="226"/>
       <c r="X48" s="91"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="257"/>
-      <c r="B49" s="258"/>
-      <c r="C49" s="260"/>
-      <c r="D49" s="226"/>
-      <c r="E49" s="263"/>
-      <c r="F49" s="245"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="248"/>
-      <c r="I49" s="251"/>
-      <c r="J49" s="263"/>
-      <c r="K49" s="245"/>
-      <c r="L49" s="245"/>
-      <c r="M49" s="269"/>
-      <c r="N49" s="248"/>
-      <c r="O49" s="251"/>
-      <c r="P49" s="263"/>
-      <c r="Q49" s="245"/>
-      <c r="R49" s="245"/>
-      <c r="S49" s="269"/>
-      <c r="T49" s="248"/>
-      <c r="U49" s="290"/>
-      <c r="V49" s="292"/>
-      <c r="W49" s="295"/>
+      <c r="A49" s="275"/>
+      <c r="B49" s="276"/>
+      <c r="C49" s="278"/>
+      <c r="D49" s="263"/>
+      <c r="E49" s="289"/>
+      <c r="F49" s="292"/>
+      <c r="G49" s="292"/>
+      <c r="H49" s="240"/>
+      <c r="I49" s="296"/>
+      <c r="J49" s="289"/>
+      <c r="K49" s="292"/>
+      <c r="L49" s="292"/>
+      <c r="M49" s="266"/>
+      <c r="N49" s="240"/>
+      <c r="O49" s="296"/>
+      <c r="P49" s="289"/>
+      <c r="Q49" s="292"/>
+      <c r="R49" s="292"/>
+      <c r="S49" s="266"/>
+      <c r="T49" s="240"/>
+      <c r="U49" s="243"/>
+      <c r="V49" s="245"/>
+      <c r="W49" s="227"/>
       <c r="X49" s="91"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -15925,11 +15925,11 @@
       </c>
       <c r="E51" s="82">
         <f>IF(PRELIM!P51="","",$E$8*PRELIM!P51)</f>
-        <v>27.192</v>
+        <v>29.040000000000003</v>
       </c>
       <c r="F51" s="83">
         <f>IF(PRELIM!AB51="","",$F$8*PRELIM!AB51)</f>
-        <v>5.0769230769230775</v>
+        <v>30.461538461538463</v>
       </c>
       <c r="G51" s="83">
         <f>IF(PRELIM!AD51="","",$G$8*PRELIM!AD51)</f>
@@ -15937,11 +15937,11 @@
       </c>
       <c r="H51" s="84">
         <f t="shared" si="6"/>
-        <v>49.26892307692308</v>
+        <v>76.501538461538473</v>
       </c>
       <c r="I51" s="85">
         <f>IF(H51="","",VLOOKUP(H51,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J51" s="83" t="str">
         <f>IF(MIDTERM!P51="","",$J$8*MIDTERM!P51)</f>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="F56" s="83">
         <f>IF(PRELIM!AB56="","",$F$8*PRELIM!AB56)</f>
-        <v>18.150000000000002</v>
+        <v>28.684615384615384</v>
       </c>
       <c r="G56" s="83">
         <f>IF(PRELIM!AD56="","",$G$8*PRELIM!AD56)</f>
@@ -16407,11 +16407,11 @@
       </c>
       <c r="H56" s="84">
         <f t="shared" si="6"/>
-        <v>41.862000000000002</v>
+        <v>52.396615384615387</v>
       </c>
       <c r="I56" s="85">
         <f>IF(H56="","",VLOOKUP(H56,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J56" s="83" t="str">
         <f>IF(MIDTERM!P56="","",$J$8*MIDTERM!P56)</f>
@@ -17409,8 +17409,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X66" s="296"/>
-      <c r="Y66" s="286" t="s">
+      <c r="X66" s="233"/>
+      <c r="Y66" s="235" t="s">
         <v>127</v>
       </c>
     </row>
@@ -17506,8 +17506,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X67" s="297"/>
-      <c r="Y67" s="287"/>
+      <c r="X67" s="234"/>
+      <c r="Y67" s="236"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="90" t="s">
@@ -17601,8 +17601,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X68" s="297"/>
-      <c r="Y68" s="287"/>
+      <c r="X68" s="234"/>
+      <c r="Y68" s="236"/>
     </row>
     <row r="69" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
@@ -17696,8 +17696,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X69" s="297"/>
-      <c r="Y69" s="287"/>
+      <c r="X69" s="234"/>
+      <c r="Y69" s="236"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="90" t="s">
@@ -17791,8 +17791,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X70" s="297"/>
-      <c r="Y70" s="287"/>
+      <c r="X70" s="234"/>
+      <c r="Y70" s="236"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="90" t="s">
@@ -17886,8 +17886,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X71" s="297"/>
-      <c r="Y71" s="287"/>
+      <c r="X71" s="234"/>
+      <c r="Y71" s="236"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="90" t="s">
@@ -17981,8 +17981,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X72" s="297"/>
-      <c r="Y72" s="287"/>
+      <c r="X72" s="234"/>
+      <c r="Y72" s="236"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="90" t="s">
@@ -18076,8 +18076,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X73" s="297"/>
-      <c r="Y73" s="287"/>
+      <c r="X73" s="234"/>
+      <c r="Y73" s="236"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="90" t="s">
@@ -18171,8 +18171,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X74" s="297"/>
-      <c r="Y74" s="287"/>
+      <c r="X74" s="234"/>
+      <c r="Y74" s="236"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="90" t="s">
@@ -18266,8 +18266,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X75" s="297"/>
-      <c r="Y75" s="287"/>
+      <c r="X75" s="234"/>
+      <c r="Y75" s="236"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="90" t="s">
@@ -18361,8 +18361,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X76" s="297"/>
-      <c r="Y76" s="287"/>
+      <c r="X76" s="234"/>
+      <c r="Y76" s="236"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
@@ -18456,8 +18456,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X77" s="297"/>
-      <c r="Y77" s="287"/>
+      <c r="X77" s="234"/>
+      <c r="Y77" s="236"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="90" t="s">
@@ -18551,8 +18551,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X78" s="297"/>
-      <c r="Y78" s="287"/>
+      <c r="X78" s="234"/>
+      <c r="Y78" s="236"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="90" t="s">
@@ -18646,8 +18646,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X79" s="297"/>
-      <c r="Y79" s="287"/>
+      <c r="X79" s="234"/>
+      <c r="Y79" s="236"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="90" t="s">
@@ -18741,8 +18741,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X80" s="297"/>
-      <c r="Y80" s="287"/>
+      <c r="X80" s="234"/>
+      <c r="Y80" s="236"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="99"/>
@@ -19432,23 +19432,43 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GZ2E3Q8WEFdjxloU03lKdfoTfFNevSEi4w4kRAAFLmLZBlPJPvR9jNl5/+XN/MDnESBW2fUaxEwTzg6XJj6vHA==" saltValue="O98nYpKCTff7QIvFUliSrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="70">
-    <mergeCell ref="W2:W8"/>
-    <mergeCell ref="Q2:Q7"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="X26:X40"/>
-    <mergeCell ref="Y26:Y40"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="Y66:Y80"/>
-    <mergeCell ref="T43:T49"/>
-    <mergeCell ref="U43:U49"/>
-    <mergeCell ref="V43:V49"/>
-    <mergeCell ref="W43:W49"/>
-    <mergeCell ref="X66:X80"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="I43:I49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="J43:J49"/>
+    <mergeCell ref="K43:K49"/>
+    <mergeCell ref="P43:P49"/>
+    <mergeCell ref="Q43:Q49"/>
+    <mergeCell ref="R43:R45"/>
+    <mergeCell ref="S43:S49"/>
+    <mergeCell ref="M43:M49"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="P42:V42"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="N43:N49"/>
+    <mergeCell ref="O43:O49"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="O2:O8"/>
     <mergeCell ref="P2:P7"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:I1"/>
@@ -19465,43 +19485,23 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="P42:V42"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="N43:N49"/>
-    <mergeCell ref="O43:O49"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="N2:N8"/>
-    <mergeCell ref="O2:O8"/>
-    <mergeCell ref="P43:P49"/>
-    <mergeCell ref="Q43:Q49"/>
-    <mergeCell ref="R43:R45"/>
-    <mergeCell ref="S43:S49"/>
-    <mergeCell ref="M43:M49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="I43:I49"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="J43:J49"/>
-    <mergeCell ref="K43:K49"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="Y66:Y80"/>
+    <mergeCell ref="T43:T49"/>
+    <mergeCell ref="U43:U49"/>
+    <mergeCell ref="V43:V49"/>
+    <mergeCell ref="W43:W49"/>
+    <mergeCell ref="X66:X80"/>
+    <mergeCell ref="W2:W8"/>
+    <mergeCell ref="Q2:Q7"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="X26:X40"/>
+    <mergeCell ref="Y26:Y40"/>
+    <mergeCell ref="R5:R7"/>
   </mergeCells>
   <conditionalFormatting sqref="U9:U40 U50:U80">
     <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="between">
@@ -19585,8 +19585,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19606,43 +19606,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="350" t="str">
+      <c r="A1" s="319" t="str">
         <f>CRS!A1</f>
         <v>CITCS 2A  ITE3</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="325" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
-      <c r="Z1" s="326"/>
-      <c r="AA1" s="326"/>
-      <c r="AB1" s="326"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="329"/>
+      <c r="S1" s="329"/>
+      <c r="T1" s="329"/>
+      <c r="U1" s="329"/>
+      <c r="V1" s="329"/>
+      <c r="W1" s="329"/>
+      <c r="X1" s="329"/>
+      <c r="Y1" s="329"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="329"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="331"/>
       <c r="AG1" s="63"/>
       <c r="AH1" s="55"/>
       <c r="AI1" s="55"/>
@@ -19650,48 +19650,48 @@
       <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="352"/>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="368" t="str">
+      <c r="A2" s="321"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="300" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="309" t="str">
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="315" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="310"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="318" t="s">
+      <c r="R2" s="316"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="319"/>
-      <c r="AE2" s="361" t="s">
+      <c r="AD2" s="353"/>
+      <c r="AE2" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AF2" s="363" t="s">
+      <c r="AF2" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AG2" s="62"/>
@@ -19701,89 +19701,89 @@
       <c r="AK2" s="62"/>
     </row>
     <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="339" t="str">
+      <c r="A3" s="345" t="str">
         <f>CRS!A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="312" t="s">
+      <c r="G3" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="312" t="s">
+      <c r="I3" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="312" t="s">
+      <c r="K3" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="312" t="s">
+      <c r="L3" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="312" t="s">
+      <c r="M3" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="312" t="s">
+      <c r="N3" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="329" t="s">
+      <c r="O3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="306" t="s">
+      <c r="P3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="312" t="s">
+      <c r="Q3" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="312" t="s">
+      <c r="S3" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="312" t="s">
+      <c r="T3" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="312" t="s">
+      <c r="U3" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="312" t="s">
+      <c r="V3" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="312" t="s">
+      <c r="W3" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="312" t="s">
+      <c r="X3" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="312" t="s">
+      <c r="Y3" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="312" t="s">
+      <c r="Z3" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="329" t="s">
+      <c r="AA3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="320"/>
-      <c r="AD3" s="321"/>
-      <c r="AE3" s="361"/>
-      <c r="AF3" s="363"/>
+      <c r="AC3" s="354"/>
+      <c r="AD3" s="355"/>
+      <c r="AE3" s="347"/>
+      <c r="AF3" s="298"/>
       <c r="AG3" s="62"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
@@ -19791,48 +19791,48 @@
       <c r="AK3" s="62"/>
     </row>
     <row r="4" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="334" t="str">
+      <c r="A4" s="323" t="str">
         <f>CRS!A4</f>
         <v>TTH 10:00AM-11:15AM   MWF 3:00PM-4:15PM</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="325"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M306</v>
       </c>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="311"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="311"/>
-      <c r="V4" s="311"/>
-      <c r="W4" s="311"/>
-      <c r="X4" s="311"/>
-      <c r="Y4" s="311"/>
-      <c r="Z4" s="311"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="307"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="312"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="304"/>
+      <c r="T4" s="304"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="304"/>
+      <c r="W4" s="304"/>
+      <c r="X4" s="304"/>
+      <c r="Y4" s="304"/>
+      <c r="Z4" s="304"/>
+      <c r="AA4" s="341"/>
+      <c r="AB4" s="312"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
       <c r="AD4" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AE4" s="361"/>
-      <c r="AF4" s="363"/>
+      <c r="AE4" s="347"/>
+      <c r="AF4" s="298"/>
       <c r="AG4" s="62"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
@@ -19840,13 +19840,13 @@
       <c r="AK4" s="62"/>
     </row>
     <row r="5" spans="1:37" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="334" t="str">
+      <c r="A5" s="323" t="str">
         <f>CRS!A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="335"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="108">
         <v>20</v>
       </c>
@@ -19865,8 +19865,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="307"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="108">
         <v>100</v>
       </c>
@@ -19887,14 +19887,14 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="307"/>
+      <c r="AA5" s="341"/>
+      <c r="AB5" s="312"/>
       <c r="AC5" s="110">
         <v>100</v>
       </c>
-      <c r="AD5" s="322"/>
-      <c r="AE5" s="361"/>
-      <c r="AF5" s="363"/>
+      <c r="AD5" s="349"/>
+      <c r="AE5" s="347"/>
+      <c r="AF5" s="298"/>
       <c r="AG5" s="62"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
@@ -19902,68 +19902,68 @@
       <c r="AK5" s="62"/>
     </row>
     <row r="6" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="341" t="str">
+      <c r="A6" s="359" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="313" t="s">
+      <c r="B6" s="316"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="305" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="313" t="s">
+      <c r="F6" s="305" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="313" t="s">
+      <c r="G6" s="305" t="s">
         <v>257</v>
       </c>
-      <c r="H6" s="313">
+      <c r="H6" s="305">
         <v>43070</v>
       </c>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="331">
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="366">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v>125</v>
       </c>
-      <c r="P6" s="307"/>
-      <c r="Q6" s="313" t="s">
+      <c r="P6" s="312"/>
+      <c r="Q6" s="305" t="s">
         <v>250</v>
       </c>
-      <c r="R6" s="313" t="s">
+      <c r="R6" s="305" t="s">
         <v>251</v>
       </c>
-      <c r="S6" s="313" t="s">
+      <c r="S6" s="305" t="s">
         <v>252</v>
       </c>
-      <c r="T6" s="313" t="s">
+      <c r="T6" s="305" t="s">
         <v>253</v>
       </c>
-      <c r="U6" s="313" t="s">
+      <c r="U6" s="305" t="s">
         <v>254</v>
       </c>
-      <c r="V6" s="313"/>
-      <c r="W6" s="313"/>
-      <c r="X6" s="313"/>
-      <c r="Y6" s="313"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="358">
+      <c r="V6" s="305"/>
+      <c r="W6" s="305"/>
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="342">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v>260</v>
       </c>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="365">
+      <c r="AB6" s="312"/>
+      <c r="AC6" s="356">
         <f>'INITIAL INPUT'!D20</f>
         <v>40575</v>
       </c>
-      <c r="AD6" s="323"/>
-      <c r="AE6" s="361"/>
-      <c r="AF6" s="363"/>
+      <c r="AD6" s="350"/>
+      <c r="AE6" s="347"/>
+      <c r="AF6" s="298"/>
       <c r="AG6" s="62"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
@@ -19971,44 +19971,44 @@
       <c r="AK6" s="62"/>
     </row>
     <row r="7" spans="1:37" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="341" t="s">
+      <c r="A7" s="359" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="348" t="s">
+      <c r="B7" s="315"/>
+      <c r="C7" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="314"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="332"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="314"/>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
-      <c r="AA7" s="359"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="366"/>
-      <c r="AD7" s="323"/>
-      <c r="AE7" s="361"/>
-      <c r="AF7" s="363"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="312"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="343"/>
+      <c r="AB7" s="312"/>
+      <c r="AC7" s="357"/>
+      <c r="AD7" s="350"/>
+      <c r="AE7" s="347"/>
+      <c r="AF7" s="298"/>
       <c r="AG7" s="55"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
@@ -20016,38 +20016,38 @@
       <c r="AK7" s="55"/>
     </row>
     <row r="8" spans="1:37" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="342"/>
-      <c r="B8" s="343"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="315"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="367"/>
-      <c r="AD8" s="324"/>
-      <c r="AE8" s="362"/>
-      <c r="AF8" s="364"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="339"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="339"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="307"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="313"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="351"/>
+      <c r="AE8" s="348"/>
+      <c r="AF8" s="299"/>
       <c r="AG8" s="55"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
@@ -20541,8 +20541,12 @@
         <f t="shared" si="1"/>
         <v>94.399999999999991</v>
       </c>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
+      <c r="Q14" s="109">
+        <v>100</v>
+      </c>
+      <c r="R14" s="109">
+        <v>100</v>
+      </c>
       <c r="S14" s="109">
         <v>20</v>
       </c>
@@ -20559,11 +20563,11 @@
       <c r="Z14" s="109"/>
       <c r="AA14" s="60">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AB14" s="67">
         <f t="shared" si="3"/>
-        <v>23.076923076923077</v>
+        <v>100</v>
       </c>
       <c r="AC14" s="111">
         <v>86</v>
@@ -20574,11 +20578,11 @@
       </c>
       <c r="AE14" s="66">
         <f>CRS!H14</f>
-        <v>68.007384615384609</v>
+        <v>93.391999999999996</v>
       </c>
       <c r="AF14" s="64">
         <f>CRS!I14</f>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="AG14" s="55"/>
       <c r="AH14" s="55"/>
@@ -20700,7 +20704,9 @@
       <c r="G16" s="109">
         <v>35</v>
       </c>
-      <c r="H16" s="109"/>
+      <c r="H16" s="109">
+        <v>7</v>
+      </c>
       <c r="I16" s="109"/>
       <c r="J16" s="109"/>
       <c r="K16" s="109"/>
@@ -20709,11 +20715,11 @@
       <c r="N16" s="109"/>
       <c r="O16" s="60">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P16" s="67">
         <f t="shared" si="1"/>
-        <v>82.399999999999991</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="109"/>
       <c r="R16" s="109"/>
@@ -20748,11 +20754,11 @@
       </c>
       <c r="AE16" s="66">
         <f>CRS!H16</f>
-        <v>54.998923076923077</v>
+        <v>56.846923076923076</v>
       </c>
       <c r="AF16" s="64">
         <f>CRS!I16</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" s="55"/>
       <c r="AH16" s="55"/>
@@ -21607,8 +21613,8 @@
         <f>CRS!I26</f>
         <v>72</v>
       </c>
-      <c r="AG26" s="300"/>
-      <c r="AH26" s="298" t="s">
+      <c r="AG26" s="373"/>
+      <c r="AH26" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -21695,8 +21701,8 @@
         <f>CRS!I27</f>
         <v>83</v>
       </c>
-      <c r="AG27" s="301"/>
-      <c r="AH27" s="299"/>
+      <c r="AG27" s="374"/>
+      <c r="AH27" s="372"/>
     </row>
     <row r="28" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -21783,8 +21789,8 @@
         <f>CRS!I28</f>
         <v>89</v>
       </c>
-      <c r="AG28" s="301"/>
-      <c r="AH28" s="299"/>
+      <c r="AG28" s="374"/>
+      <c r="AH28" s="372"/>
     </row>
     <row r="29" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -21867,8 +21873,8 @@
         <f>CRS!I29</f>
         <v>73</v>
       </c>
-      <c r="AG29" s="301"/>
-      <c r="AH29" s="299"/>
+      <c r="AG29" s="374"/>
+      <c r="AH29" s="372"/>
     </row>
     <row r="30" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -21951,8 +21957,8 @@
         <f>CRS!I30</f>
         <v>82</v>
       </c>
-      <c r="AG30" s="301"/>
-      <c r="AH30" s="299"/>
+      <c r="AG30" s="374"/>
+      <c r="AH30" s="372"/>
     </row>
     <row r="31" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -22039,8 +22045,8 @@
         <f>CRS!I31</f>
         <v>79</v>
       </c>
-      <c r="AG31" s="301"/>
-      <c r="AH31" s="299"/>
+      <c r="AG31" s="374"/>
+      <c r="AH31" s="372"/>
     </row>
     <row r="32" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -22125,8 +22131,8 @@
         <f>CRS!I32</f>
         <v>78</v>
       </c>
-      <c r="AG32" s="301"/>
-      <c r="AH32" s="299"/>
+      <c r="AG32" s="374"/>
+      <c r="AH32" s="372"/>
     </row>
     <row r="33" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -22211,8 +22217,8 @@
         <f>CRS!I33</f>
         <v>75</v>
       </c>
-      <c r="AG33" s="301"/>
-      <c r="AH33" s="299"/>
+      <c r="AG33" s="374"/>
+      <c r="AH33" s="372"/>
       <c r="AI33" s="55"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
@@ -22302,8 +22308,8 @@
         <f>CRS!I34</f>
         <v>97</v>
       </c>
-      <c r="AG34" s="301"/>
-      <c r="AH34" s="299"/>
+      <c r="AG34" s="374"/>
+      <c r="AH34" s="372"/>
       <c r="AI34" s="55"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
@@ -22391,8 +22397,8 @@
         <f>CRS!I35</f>
         <v>75</v>
       </c>
-      <c r="AG35" s="301"/>
-      <c r="AH35" s="299"/>
+      <c r="AG35" s="374"/>
+      <c r="AH35" s="372"/>
       <c r="AI35" s="55"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
@@ -22478,8 +22484,8 @@
         <f>CRS!I36</f>
         <v>73</v>
       </c>
-      <c r="AG36" s="301"/>
-      <c r="AH36" s="299"/>
+      <c r="AG36" s="374"/>
+      <c r="AH36" s="372"/>
       <c r="AI36" s="55"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
@@ -22567,8 +22573,8 @@
         <f>CRS!I37</f>
         <v>80</v>
       </c>
-      <c r="AG37" s="301"/>
-      <c r="AH37" s="299"/>
+      <c r="AG37" s="374"/>
+      <c r="AH37" s="372"/>
       <c r="AI37" s="55"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
@@ -22658,8 +22664,8 @@
         <f>CRS!I38</f>
         <v>93</v>
       </c>
-      <c r="AG38" s="301"/>
-      <c r="AH38" s="299"/>
+      <c r="AG38" s="374"/>
+      <c r="AH38" s="372"/>
       <c r="AI38" s="55"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
@@ -22745,8 +22751,8 @@
         <f>CRS!I39</f>
         <v>75</v>
       </c>
-      <c r="AG39" s="301"/>
-      <c r="AH39" s="299"/>
+      <c r="AG39" s="374"/>
+      <c r="AH39" s="372"/>
       <c r="AI39" s="55"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
@@ -22830,8 +22836,8 @@
         <f>CRS!I40</f>
         <v>73</v>
       </c>
-      <c r="AG40" s="301"/>
-      <c r="AH40" s="299"/>
+      <c r="AG40" s="374"/>
+      <c r="AH40" s="372"/>
       <c r="AI40" s="55"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
@@ -22876,43 +22882,43 @@
       <c r="AK41" s="55"/>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="354" t="str">
+      <c r="A42" s="332" t="str">
         <f>A1</f>
         <v>CITCS 2A  ITE3</v>
       </c>
-      <c r="B42" s="355"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="325" t="s">
+      <c r="B42" s="333"/>
+      <c r="C42" s="333"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="325"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="325"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="326"/>
-      <c r="O42" s="326"/>
-      <c r="P42" s="326"/>
-      <c r="Q42" s="326"/>
-      <c r="R42" s="326"/>
-      <c r="S42" s="326"/>
-      <c r="T42" s="326"/>
-      <c r="U42" s="326"/>
-      <c r="V42" s="326"/>
-      <c r="W42" s="326"/>
-      <c r="X42" s="326"/>
-      <c r="Y42" s="326"/>
-      <c r="Z42" s="326"/>
-      <c r="AA42" s="326"/>
-      <c r="AB42" s="326"/>
-      <c r="AC42" s="327"/>
-      <c r="AD42" s="327"/>
-      <c r="AE42" s="327"/>
-      <c r="AF42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="329"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="329"/>
+      <c r="O42" s="329"/>
+      <c r="P42" s="329"/>
+      <c r="Q42" s="329"/>
+      <c r="R42" s="329"/>
+      <c r="S42" s="329"/>
+      <c r="T42" s="329"/>
+      <c r="U42" s="329"/>
+      <c r="V42" s="329"/>
+      <c r="W42" s="329"/>
+      <c r="X42" s="329"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="329"/>
+      <c r="AA42" s="329"/>
+      <c r="AB42" s="329"/>
+      <c r="AC42" s="330"/>
+      <c r="AD42" s="330"/>
+      <c r="AE42" s="330"/>
+      <c r="AF42" s="331"/>
       <c r="AG42" s="55"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
@@ -22920,48 +22926,48 @@
       <c r="AK42" s="55"/>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="356"/>
-      <c r="B43" s="357"/>
-      <c r="C43" s="357"/>
-      <c r="D43" s="357"/>
-      <c r="E43" s="309" t="str">
+      <c r="A43" s="334"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="315" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="309"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="310"/>
-      <c r="P43" s="311"/>
-      <c r="Q43" s="309" t="str">
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="315"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="315" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="310"/>
-      <c r="S43" s="310"/>
-      <c r="T43" s="310"/>
-      <c r="U43" s="310"/>
-      <c r="V43" s="310"/>
-      <c r="W43" s="310"/>
-      <c r="X43" s="310"/>
-      <c r="Y43" s="310"/>
-      <c r="Z43" s="310"/>
-      <c r="AA43" s="310"/>
-      <c r="AB43" s="311"/>
-      <c r="AC43" s="318" t="s">
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="316"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="316"/>
+      <c r="X43" s="316"/>
+      <c r="Y43" s="316"/>
+      <c r="Z43" s="316"/>
+      <c r="AA43" s="316"/>
+      <c r="AB43" s="304"/>
+      <c r="AC43" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="319"/>
-      <c r="AE43" s="361" t="s">
+      <c r="AD43" s="353"/>
+      <c r="AE43" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AF43" s="363" t="s">
+      <c r="AF43" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AG43" s="62"/>
@@ -22971,89 +22977,89 @@
       <c r="AK43" s="62"/>
     </row>
     <row r="44" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="339" t="str">
+      <c r="A44" s="345" t="str">
         <f>A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B44" s="340"/>
-      <c r="C44" s="340"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="312" t="s">
+      <c r="B44" s="346"/>
+      <c r="C44" s="346"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="312" t="s">
+      <c r="F44" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="312" t="s">
+      <c r="G44" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="312" t="s">
+      <c r="H44" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="312" t="s">
+      <c r="I44" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="312" t="s">
+      <c r="J44" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="312" t="s">
+      <c r="K44" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="312" t="s">
+      <c r="L44" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="312" t="s">
+      <c r="M44" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="312" t="s">
+      <c r="N44" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="329" t="s">
+      <c r="O44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="306" t="s">
+      <c r="P44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="312" t="s">
+      <c r="Q44" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="312" t="s">
+      <c r="R44" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="312" t="s">
+      <c r="S44" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="312" t="s">
+      <c r="T44" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="312" t="s">
+      <c r="U44" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="312" t="s">
+      <c r="V44" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="312" t="s">
+      <c r="W44" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="312" t="s">
+      <c r="X44" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="312" t="s">
+      <c r="Y44" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="312" t="s">
+      <c r="Z44" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="329" t="s">
+      <c r="AA44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="306" t="s">
+      <c r="AB44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="320"/>
-      <c r="AD44" s="321"/>
-      <c r="AE44" s="361"/>
-      <c r="AF44" s="363"/>
+      <c r="AC44" s="354"/>
+      <c r="AD44" s="355"/>
+      <c r="AE44" s="347"/>
+      <c r="AF44" s="298"/>
       <c r="AG44" s="62"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
@@ -23061,48 +23067,48 @@
       <c r="AK44" s="62"/>
     </row>
     <row r="45" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="334" t="str">
+      <c r="A45" s="323" t="str">
         <f>A4</f>
         <v>TTH 10:00AM-11:15AM   MWF 3:00PM-4:15PM</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="336"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="325"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M306</v>
       </c>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="312"/>
-      <c r="K45" s="312"/>
-      <c r="L45" s="312"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="329"/>
-      <c r="P45" s="306"/>
-      <c r="Q45" s="311"/>
-      <c r="R45" s="311"/>
-      <c r="S45" s="311"/>
-      <c r="T45" s="311"/>
-      <c r="U45" s="312"/>
-      <c r="V45" s="312"/>
-      <c r="W45" s="311"/>
-      <c r="X45" s="311"/>
-      <c r="Y45" s="311"/>
-      <c r="Z45" s="311"/>
-      <c r="AA45" s="330"/>
-      <c r="AB45" s="307"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
+      <c r="K45" s="303"/>
+      <c r="L45" s="303"/>
+      <c r="M45" s="303"/>
+      <c r="N45" s="303"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="311"/>
+      <c r="Q45" s="304"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="304"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="303"/>
+      <c r="V45" s="303"/>
+      <c r="W45" s="304"/>
+      <c r="X45" s="304"/>
+      <c r="Y45" s="304"/>
+      <c r="Z45" s="304"/>
+      <c r="AA45" s="341"/>
+      <c r="AB45" s="312"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
       <c r="AD45" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AE45" s="361"/>
-      <c r="AF45" s="363"/>
+      <c r="AE45" s="347"/>
+      <c r="AF45" s="298"/>
       <c r="AG45" s="62"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
@@ -23110,13 +23116,13 @@
       <c r="AK45" s="62"/>
     </row>
     <row r="46" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="334" t="str">
+      <c r="A46" s="323" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="335"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="336"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
       <c r="E46" s="57">
         <f t="shared" ref="E46:N46" si="5">IF(E5="","",E5)</f>
         <v>20</v>
@@ -23157,8 +23163,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="329"/>
-      <c r="P46" s="306"/>
+      <c r="O46" s="340"/>
+      <c r="P46" s="311"/>
       <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
         <v>100</v>
@@ -23199,15 +23205,15 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="330"/>
-      <c r="AB46" s="307"/>
+      <c r="AA46" s="341"/>
+      <c r="AB46" s="312"/>
       <c r="AC46" s="57">
         <f>IF(AC5="","",AC5)</f>
         <v>100</v>
       </c>
-      <c r="AD46" s="322"/>
-      <c r="AE46" s="361"/>
-      <c r="AF46" s="363"/>
+      <c r="AD46" s="349"/>
+      <c r="AE46" s="347"/>
+      <c r="AF46" s="298"/>
       <c r="AG46" s="62"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
@@ -23215,110 +23221,110 @@
       <c r="AK46" s="62"/>
     </row>
     <row r="47" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="359" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="310"/>
-      <c r="C47" s="311"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="302" t="str">
+      <c r="B47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
         <v>SW CH01</v>
       </c>
-      <c r="F47" s="302" t="str">
+      <c r="F47" s="317" t="str">
         <f t="shared" ref="F47:N47" si="7">IF(F6="","",F6)</f>
         <v>RPT</v>
       </c>
-      <c r="G47" s="302" t="str">
+      <c r="G47" s="317" t="str">
         <f t="shared" si="7"/>
         <v>1-24-2017</v>
       </c>
-      <c r="H47" s="302">
+      <c r="H47" s="317">
         <f t="shared" si="7"/>
         <v>43070</v>
       </c>
-      <c r="I47" s="302" t="str">
+      <c r="I47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J47" s="302" t="str">
+      <c r="J47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K47" s="302" t="str">
+      <c r="K47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L47" s="302" t="str">
+      <c r="L47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M47" s="302" t="str">
+      <c r="M47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N47" s="302" t="str">
+      <c r="N47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O47" s="304">
+      <c r="O47" s="369">
         <f>O6</f>
         <v>125</v>
       </c>
-      <c r="P47" s="306"/>
-      <c r="Q47" s="302" t="str">
+      <c r="P47" s="311"/>
+      <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="8">IF(Q6="","",Q6)</f>
         <v>HTML CSS</v>
       </c>
-      <c r="R47" s="302" t="str">
+      <c r="R47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>MAW</v>
       </c>
-      <c r="S47" s="302" t="str">
+      <c r="S47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Exer01</v>
       </c>
-      <c r="T47" s="302" t="str">
+      <c r="T47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Exer02</v>
       </c>
-      <c r="U47" s="302" t="str">
+      <c r="U47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Exer03</v>
       </c>
-      <c r="V47" s="302" t="str">
+      <c r="V47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="W47" s="302" t="str">
+      <c r="W47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X47" s="302" t="str">
+      <c r="X47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y47" s="302" t="str">
+      <c r="Y47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Z47" s="302" t="str">
+      <c r="Z47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA47" s="304">
+      <c r="AA47" s="369">
         <f>AA6</f>
         <v>260</v>
       </c>
-      <c r="AB47" s="307"/>
-      <c r="AC47" s="371">
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="308">
         <f>AC6</f>
         <v>40575</v>
       </c>
-      <c r="AD47" s="323"/>
-      <c r="AE47" s="361"/>
-      <c r="AF47" s="363"/>
+      <c r="AD47" s="350"/>
+      <c r="AE47" s="347"/>
+      <c r="AF47" s="298"/>
       <c r="AG47" s="62"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
@@ -23326,44 +23332,44 @@
       <c r="AK47" s="62"/>
     </row>
     <row r="48" spans="1:37" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="345"/>
-      <c r="C48" s="348" t="s">
+      <c r="B48" s="363"/>
+      <c r="C48" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="337" t="s">
+      <c r="D48" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="302"/>
-      <c r="H48" s="302"/>
-      <c r="I48" s="302"/>
-      <c r="J48" s="302"/>
-      <c r="K48" s="302"/>
-      <c r="L48" s="302"/>
-      <c r="M48" s="302"/>
-      <c r="N48" s="302"/>
-      <c r="O48" s="304"/>
-      <c r="P48" s="306"/>
-      <c r="Q48" s="302"/>
-      <c r="R48" s="302"/>
-      <c r="S48" s="302"/>
-      <c r="T48" s="302"/>
-      <c r="U48" s="302"/>
-      <c r="V48" s="302"/>
-      <c r="W48" s="302"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="302"/>
-      <c r="Z48" s="302"/>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="307"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="323"/>
-      <c r="AE48" s="361"/>
-      <c r="AF48" s="363"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="317"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="369"/>
+      <c r="P48" s="311"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="317"/>
+      <c r="U48" s="317"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="317"/>
+      <c r="X48" s="317"/>
+      <c r="Y48" s="317"/>
+      <c r="Z48" s="317"/>
+      <c r="AA48" s="369"/>
+      <c r="AB48" s="312"/>
+      <c r="AC48" s="309"/>
+      <c r="AD48" s="350"/>
+      <c r="AE48" s="347"/>
+      <c r="AF48" s="298"/>
       <c r="AG48" s="55"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
@@ -23371,38 +23377,38 @@
       <c r="AK48" s="55"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="346"/>
-      <c r="B49" s="347"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="338"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
-      <c r="J49" s="303"/>
-      <c r="K49" s="303"/>
-      <c r="L49" s="303"/>
-      <c r="M49" s="303"/>
-      <c r="N49" s="303"/>
-      <c r="O49" s="305"/>
-      <c r="P49" s="374"/>
-      <c r="Q49" s="303"/>
-      <c r="R49" s="303"/>
-      <c r="S49" s="303"/>
-      <c r="T49" s="303"/>
-      <c r="U49" s="303"/>
-      <c r="V49" s="303"/>
-      <c r="W49" s="303"/>
-      <c r="X49" s="303"/>
-      <c r="Y49" s="303"/>
-      <c r="Z49" s="303"/>
-      <c r="AA49" s="305"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="373"/>
-      <c r="AD49" s="324"/>
-      <c r="AE49" s="362"/>
-      <c r="AF49" s="364"/>
+      <c r="A49" s="364"/>
+      <c r="B49" s="365"/>
+      <c r="C49" s="337"/>
+      <c r="D49" s="327"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="318"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="318"/>
+      <c r="K49" s="318"/>
+      <c r="L49" s="318"/>
+      <c r="M49" s="318"/>
+      <c r="N49" s="318"/>
+      <c r="O49" s="370"/>
+      <c r="P49" s="314"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="318"/>
+      <c r="S49" s="318"/>
+      <c r="T49" s="318"/>
+      <c r="U49" s="318"/>
+      <c r="V49" s="318"/>
+      <c r="W49" s="318"/>
+      <c r="X49" s="318"/>
+      <c r="Y49" s="318"/>
+      <c r="Z49" s="318"/>
+      <c r="AA49" s="370"/>
+      <c r="AB49" s="313"/>
+      <c r="AC49" s="310"/>
+      <c r="AD49" s="351"/>
+      <c r="AE49" s="348"/>
+      <c r="AF49" s="299"/>
     </row>
     <row r="50" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -23515,7 +23521,9 @@
       <c r="G51" s="109">
         <v>35</v>
       </c>
-      <c r="H51" s="109"/>
+      <c r="H51" s="109">
+        <v>7</v>
+      </c>
       <c r="I51" s="109"/>
       <c r="J51" s="109"/>
       <c r="K51" s="109"/>
@@ -23524,14 +23532,18 @@
       <c r="N51" s="109"/>
       <c r="O51" s="60">
         <f t="shared" si="9"/>
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P51" s="67">
         <f t="shared" si="10"/>
-        <v>82.399999999999991</v>
-      </c>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
+        <v>88</v>
+      </c>
+      <c r="Q51" s="109">
+        <v>100</v>
+      </c>
+      <c r="R51" s="109">
+        <v>100</v>
+      </c>
       <c r="S51" s="109" t="s">
         <v>256</v>
       </c>
@@ -23548,11 +23560,11 @@
       <c r="Z51" s="109"/>
       <c r="AA51" s="60">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AB51" s="67">
         <f t="shared" si="12"/>
-        <v>15.384615384615385</v>
+        <v>92.307692307692307</v>
       </c>
       <c r="AC51" s="111">
         <v>50</v>
@@ -23563,11 +23575,11 @@
       </c>
       <c r="AE51" s="66">
         <f>CRS!H51</f>
-        <v>49.26892307692308</v>
+        <v>76.501538461538473</v>
       </c>
       <c r="AF51" s="64">
         <f>CRS!I51</f>
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23953,7 +23965,9 @@
       <c r="Q56" s="109">
         <v>83</v>
       </c>
-      <c r="R56" s="109"/>
+      <c r="R56" s="109">
+        <v>83</v>
+      </c>
       <c r="S56" s="109">
         <v>20</v>
       </c>
@@ -23970,11 +23984,11 @@
       <c r="Z56" s="109"/>
       <c r="AA56" s="60">
         <f t="shared" si="11"/>
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="AB56" s="67">
         <f t="shared" si="12"/>
-        <v>55.000000000000007</v>
+        <v>86.92307692307692</v>
       </c>
       <c r="AC56" s="111">
         <v>48</v>
@@ -23985,11 +23999,11 @@
       </c>
       <c r="AE56" s="66">
         <f>CRS!H56</f>
-        <v>41.862000000000002</v>
+        <v>52.396615384615387</v>
       </c>
       <c r="AF56" s="64">
         <f>CRS!I56</f>
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24653,8 +24667,8 @@
         <f>CRS!I66</f>
         <v/>
       </c>
-      <c r="AG66" s="300"/>
-      <c r="AH66" s="298" t="s">
+      <c r="AG66" s="373"/>
+      <c r="AH66" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -24723,8 +24737,8 @@
         <f>CRS!I67</f>
         <v/>
       </c>
-      <c r="AG67" s="301"/>
-      <c r="AH67" s="299"/>
+      <c r="AG67" s="374"/>
+      <c r="AH67" s="372"/>
     </row>
     <row r="68" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -24791,8 +24805,8 @@
         <f>CRS!I68</f>
         <v/>
       </c>
-      <c r="AG68" s="301"/>
-      <c r="AH68" s="299"/>
+      <c r="AG68" s="374"/>
+      <c r="AH68" s="372"/>
     </row>
     <row r="69" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -24859,8 +24873,8 @@
         <f>CRS!I69</f>
         <v/>
       </c>
-      <c r="AG69" s="301"/>
-      <c r="AH69" s="299"/>
+      <c r="AG69" s="374"/>
+      <c r="AH69" s="372"/>
     </row>
     <row r="70" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -24927,8 +24941,8 @@
         <f>CRS!I70</f>
         <v/>
       </c>
-      <c r="AG70" s="301"/>
-      <c r="AH70" s="299"/>
+      <c r="AG70" s="374"/>
+      <c r="AH70" s="372"/>
     </row>
     <row r="71" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -24995,8 +25009,8 @@
         <f>CRS!I71</f>
         <v/>
       </c>
-      <c r="AG71" s="301"/>
-      <c r="AH71" s="299"/>
+      <c r="AG71" s="374"/>
+      <c r="AH71" s="372"/>
     </row>
     <row r="72" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -25063,8 +25077,8 @@
         <f>CRS!I72</f>
         <v/>
       </c>
-      <c r="AG72" s="301"/>
-      <c r="AH72" s="299"/>
+      <c r="AG72" s="374"/>
+      <c r="AH72" s="372"/>
     </row>
     <row r="73" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -25131,8 +25145,8 @@
         <f>CRS!I73</f>
         <v/>
       </c>
-      <c r="AG73" s="301"/>
-      <c r="AH73" s="299"/>
+      <c r="AG73" s="374"/>
+      <c r="AH73" s="372"/>
     </row>
     <row r="74" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -25199,8 +25213,8 @@
         <f>CRS!I74</f>
         <v/>
       </c>
-      <c r="AG74" s="301"/>
-      <c r="AH74" s="299"/>
+      <c r="AG74" s="374"/>
+      <c r="AH74" s="372"/>
     </row>
     <row r="75" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -25267,8 +25281,8 @@
         <f>CRS!I75</f>
         <v/>
       </c>
-      <c r="AG75" s="301"/>
-      <c r="AH75" s="299"/>
+      <c r="AG75" s="374"/>
+      <c r="AH75" s="372"/>
     </row>
     <row r="76" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -25335,8 +25349,8 @@
         <f>CRS!I76</f>
         <v/>
       </c>
-      <c r="AG76" s="301"/>
-      <c r="AH76" s="299"/>
+      <c r="AG76" s="374"/>
+      <c r="AH76" s="372"/>
     </row>
     <row r="77" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -25403,8 +25417,8 @@
         <f>CRS!I77</f>
         <v/>
       </c>
-      <c r="AG77" s="301"/>
-      <c r="AH77" s="299"/>
+      <c r="AG77" s="374"/>
+      <c r="AH77" s="372"/>
     </row>
     <row r="78" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -25471,8 +25485,8 @@
         <f>CRS!I78</f>
         <v/>
       </c>
-      <c r="AG78" s="301"/>
-      <c r="AH78" s="299"/>
+      <c r="AG78" s="374"/>
+      <c r="AH78" s="372"/>
     </row>
     <row r="79" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -25539,8 +25553,8 @@
         <f>CRS!I79</f>
         <v/>
       </c>
-      <c r="AG79" s="301"/>
-      <c r="AH79" s="299"/>
+      <c r="AG79" s="374"/>
+      <c r="AH79" s="372"/>
     </row>
     <row r="80" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -25607,8 +25621,8 @@
         <f>CRS!I80</f>
         <v/>
       </c>
-      <c r="AG80" s="301"/>
-      <c r="AH80" s="299"/>
+      <c r="AG80" s="374"/>
+      <c r="AH80" s="372"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -25888,6 +25902,110 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sq5jNjiBvRhnKHfivcv63PIil4qKS/9mQiV4aFr69nDzINu+0ecn8NT3diVZT68S0si8O2smy0x5/onhwU/zA==" saltValue="Xa18L1vVZidTgwLONF3CHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="AG66:AG80"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AG26:AG40"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="E42:AF42"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="E1:AF1"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="AE43:AE49"/>
     <mergeCell ref="AF43:AF49"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="Z44:Z45"/>
@@ -25912,110 +26030,6 @@
     <mergeCell ref="Y6:Y8"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="E1:AF1"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AD46:AD49"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="AG66:AG80"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AG26:AG40"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="E42:AF42"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="E47:E49"/>
   </mergeCells>
   <dataValidations xWindow="307" yWindow="360" count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
@@ -26119,44 +26133,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="350" t="str">
+      <c r="A1" s="319" t="str">
         <f>CRS!A1</f>
         <v>CITCS 2A  ITE3</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="325" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="328" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
-      <c r="Z1" s="326"/>
-      <c r="AA1" s="326"/>
-      <c r="AB1" s="326"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="327"/>
-      <c r="AG1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="329"/>
+      <c r="S1" s="329"/>
+      <c r="T1" s="329"/>
+      <c r="U1" s="329"/>
+      <c r="V1" s="329"/>
+      <c r="W1" s="329"/>
+      <c r="X1" s="329"/>
+      <c r="Y1" s="329"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="329"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="330"/>
+      <c r="AG1" s="331"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
@@ -26164,51 +26178,51 @@
       <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="352"/>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="368" t="str">
+      <c r="A2" s="321"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="300" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="309" t="str">
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="315" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="310"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="318" t="s">
+      <c r="R2" s="316"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="319"/>
+      <c r="AD2" s="353"/>
       <c r="AE2" s="375" t="s">
         <v>132</v>
       </c>
-      <c r="AF2" s="361" t="s">
+      <c r="AF2" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="363" t="s">
+      <c r="AG2" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="62"/>
@@ -26218,90 +26232,90 @@
       <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="339" t="str">
+      <c r="A3" s="345" t="str">
         <f>CRS!A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="312" t="s">
+      <c r="G3" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="312" t="s">
+      <c r="I3" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="312" t="s">
+      <c r="K3" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="312" t="s">
+      <c r="L3" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="312" t="s">
+      <c r="M3" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="312" t="s">
+      <c r="N3" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="329" t="s">
+      <c r="O3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="306" t="s">
+      <c r="P3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="312" t="s">
+      <c r="Q3" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="312" t="s">
+      <c r="S3" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="312" t="s">
+      <c r="T3" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="312" t="s">
+      <c r="U3" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="312" t="s">
+      <c r="V3" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="312" t="s">
+      <c r="W3" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="312" t="s">
+      <c r="X3" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="312" t="s">
+      <c r="Y3" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="312" t="s">
+      <c r="Z3" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="329" t="s">
+      <c r="AA3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="320"/>
-      <c r="AD3" s="321"/>
+      <c r="AC3" s="354"/>
+      <c r="AD3" s="355"/>
       <c r="AE3" s="375"/>
-      <c r="AF3" s="361"/>
-      <c r="AG3" s="363"/>
+      <c r="AF3" s="347"/>
+      <c r="AG3" s="298"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="62"/>
@@ -26309,40 +26323,40 @@
       <c r="AL3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="334" t="str">
+      <c r="A4" s="323" t="str">
         <f>CRS!A4</f>
         <v>TTH 10:00AM-11:15AM   MWF 3:00PM-4:15PM</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="325"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M306</v>
       </c>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="311"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="311"/>
-      <c r="V4" s="311"/>
-      <c r="W4" s="311"/>
-      <c r="X4" s="311"/>
-      <c r="Y4" s="311"/>
-      <c r="Z4" s="311"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="307"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="312"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="304"/>
+      <c r="T4" s="304"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="304"/>
+      <c r="W4" s="304"/>
+      <c r="X4" s="304"/>
+      <c r="Y4" s="304"/>
+      <c r="Z4" s="304"/>
+      <c r="AA4" s="341"/>
+      <c r="AB4" s="312"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
@@ -26350,8 +26364,8 @@
         <v>123</v>
       </c>
       <c r="AE4" s="375"/>
-      <c r="AF4" s="361"/>
-      <c r="AG4" s="363"/>
+      <c r="AF4" s="347"/>
+      <c r="AG4" s="298"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="62"/>
@@ -26359,13 +26373,13 @@
       <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="334" t="str">
+      <c r="A5" s="323" t="str">
         <f>CRS!A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="335"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -26376,8 +26390,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="307"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="108"/>
       <c r="R5" s="108"/>
       <c r="S5" s="108"/>
@@ -26388,13 +26402,13 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="307"/>
+      <c r="AA5" s="341"/>
+      <c r="AB5" s="312"/>
       <c r="AC5" s="110"/>
-      <c r="AD5" s="322"/>
+      <c r="AD5" s="349"/>
       <c r="AE5" s="375"/>
-      <c r="AF5" s="361"/>
-      <c r="AG5" s="363"/>
+      <c r="AF5" s="347"/>
+      <c r="AG5" s="298"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="62"/>
@@ -26402,51 +26416,51 @@
       <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="341" t="str">
+      <c r="A6" s="359" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="313"/>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="331" t="str">
+      <c r="B6" s="316"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="366" t="str">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v/>
       </c>
-      <c r="P6" s="307"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="313"/>
-      <c r="T6" s="313"/>
-      <c r="U6" s="313"/>
-      <c r="V6" s="313"/>
-      <c r="W6" s="313"/>
-      <c r="X6" s="313"/>
-      <c r="Y6" s="313"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="358" t="str">
+      <c r="P6" s="312"/>
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="305"/>
+      <c r="V6" s="305"/>
+      <c r="W6" s="305"/>
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="342" t="str">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v/>
       </c>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="365">
+      <c r="AB6" s="312"/>
+      <c r="AC6" s="356">
         <f>'INITIAL INPUT'!D22</f>
         <v>40603</v>
       </c>
-      <c r="AD6" s="323"/>
+      <c r="AD6" s="350"/>
       <c r="AE6" s="375"/>
-      <c r="AF6" s="361"/>
-      <c r="AG6" s="363"/>
+      <c r="AF6" s="347"/>
+      <c r="AG6" s="298"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -26454,45 +26468,45 @@
       <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="341" t="s">
+      <c r="A7" s="359" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="348" t="s">
+      <c r="B7" s="315"/>
+      <c r="C7" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="314"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="332"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="314"/>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
-      <c r="AA7" s="359"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="366"/>
-      <c r="AD7" s="323"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="312"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="343"/>
+      <c r="AB7" s="312"/>
+      <c r="AC7" s="357"/>
+      <c r="AD7" s="350"/>
       <c r="AE7" s="375"/>
-      <c r="AF7" s="361"/>
-      <c r="AG7" s="363"/>
+      <c r="AF7" s="347"/>
+      <c r="AG7" s="298"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
@@ -26500,39 +26514,39 @@
       <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="342"/>
-      <c r="B8" s="343"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="315"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="367"/>
-      <c r="AD8" s="324"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="339"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="339"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="307"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="313"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="351"/>
       <c r="AE8" s="376"/>
-      <c r="AF8" s="362"/>
-      <c r="AG8" s="364"/>
+      <c r="AF8" s="348"/>
+      <c r="AG8" s="299"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
@@ -27856,8 +27870,8 @@
         <f>CRS!O26</f>
         <v/>
       </c>
-      <c r="AH26" s="300"/>
-      <c r="AI26" s="298" t="s">
+      <c r="AH26" s="373"/>
+      <c r="AI26" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -27930,8 +27944,8 @@
         <f>CRS!O27</f>
         <v/>
       </c>
-      <c r="AH27" s="301"/>
-      <c r="AI27" s="299"/>
+      <c r="AH27" s="374"/>
+      <c r="AI27" s="372"/>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -28002,8 +28016,8 @@
         <f>CRS!O28</f>
         <v/>
       </c>
-      <c r="AH28" s="301"/>
-      <c r="AI28" s="299"/>
+      <c r="AH28" s="374"/>
+      <c r="AI28" s="372"/>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -28074,8 +28088,8 @@
         <f>CRS!O29</f>
         <v/>
       </c>
-      <c r="AH29" s="301"/>
-      <c r="AI29" s="299"/>
+      <c r="AH29" s="374"/>
+      <c r="AI29" s="372"/>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -28146,8 +28160,8 @@
         <f>CRS!O30</f>
         <v/>
       </c>
-      <c r="AH30" s="301"/>
-      <c r="AI30" s="299"/>
+      <c r="AH30" s="374"/>
+      <c r="AI30" s="372"/>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -28218,8 +28232,8 @@
         <f>CRS!O31</f>
         <v/>
       </c>
-      <c r="AH31" s="301"/>
-      <c r="AI31" s="299"/>
+      <c r="AH31" s="374"/>
+      <c r="AI31" s="372"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -28290,8 +28304,8 @@
         <f>CRS!O32</f>
         <v/>
       </c>
-      <c r="AH32" s="301"/>
-      <c r="AI32" s="299"/>
+      <c r="AH32" s="374"/>
+      <c r="AI32" s="372"/>
     </row>
     <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -28362,8 +28376,8 @@
         <f>CRS!O33</f>
         <v/>
       </c>
-      <c r="AH33" s="301"/>
-      <c r="AI33" s="299"/>
+      <c r="AH33" s="374"/>
+      <c r="AI33" s="372"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
       <c r="AL33" s="55"/>
@@ -28437,8 +28451,8 @@
         <f>CRS!O34</f>
         <v/>
       </c>
-      <c r="AH34" s="301"/>
-      <c r="AI34" s="299"/>
+      <c r="AH34" s="374"/>
+      <c r="AI34" s="372"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -28512,8 +28526,8 @@
         <f>CRS!O35</f>
         <v/>
       </c>
-      <c r="AH35" s="301"/>
-      <c r="AI35" s="299"/>
+      <c r="AH35" s="374"/>
+      <c r="AI35" s="372"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
       <c r="AL35" s="55"/>
@@ -28587,8 +28601,8 @@
         <f>CRS!O36</f>
         <v/>
       </c>
-      <c r="AH36" s="301"/>
-      <c r="AI36" s="299"/>
+      <c r="AH36" s="374"/>
+      <c r="AI36" s="372"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -28662,8 +28676,8 @@
         <f>CRS!O37</f>
         <v/>
       </c>
-      <c r="AH37" s="301"/>
-      <c r="AI37" s="299"/>
+      <c r="AH37" s="374"/>
+      <c r="AI37" s="372"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
@@ -28737,8 +28751,8 @@
         <f>CRS!O38</f>
         <v/>
       </c>
-      <c r="AH38" s="301"/>
-      <c r="AI38" s="299"/>
+      <c r="AH38" s="374"/>
+      <c r="AI38" s="372"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
       <c r="AL38" s="55"/>
@@ -28812,8 +28826,8 @@
         <f>CRS!O39</f>
         <v/>
       </c>
-      <c r="AH39" s="301"/>
-      <c r="AI39" s="299"/>
+      <c r="AH39" s="374"/>
+      <c r="AI39" s="372"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
       <c r="AL39" s="55"/>
@@ -28887,8 +28901,8 @@
         <f>CRS!O40</f>
         <v/>
       </c>
-      <c r="AH40" s="301"/>
-      <c r="AI40" s="299"/>
+      <c r="AH40" s="374"/>
+      <c r="AI40" s="372"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
       <c r="AL40" s="55"/>
@@ -28934,44 +28948,44 @@
       <c r="AL41" s="55"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="354" t="str">
+      <c r="A42" s="332" t="str">
         <f>A1</f>
         <v>CITCS 2A  ITE3</v>
       </c>
-      <c r="B42" s="355"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="325" t="s">
+      <c r="B42" s="333"/>
+      <c r="C42" s="333"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="328" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="325"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="325"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="326"/>
-      <c r="O42" s="326"/>
-      <c r="P42" s="326"/>
-      <c r="Q42" s="326"/>
-      <c r="R42" s="326"/>
-      <c r="S42" s="326"/>
-      <c r="T42" s="326"/>
-      <c r="U42" s="326"/>
-      <c r="V42" s="326"/>
-      <c r="W42" s="326"/>
-      <c r="X42" s="326"/>
-      <c r="Y42" s="326"/>
-      <c r="Z42" s="326"/>
-      <c r="AA42" s="326"/>
-      <c r="AB42" s="326"/>
-      <c r="AC42" s="327"/>
-      <c r="AD42" s="327"/>
-      <c r="AE42" s="327"/>
-      <c r="AF42" s="327"/>
-      <c r="AG42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="329"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="329"/>
+      <c r="O42" s="329"/>
+      <c r="P42" s="329"/>
+      <c r="Q42" s="329"/>
+      <c r="R42" s="329"/>
+      <c r="S42" s="329"/>
+      <c r="T42" s="329"/>
+      <c r="U42" s="329"/>
+      <c r="V42" s="329"/>
+      <c r="W42" s="329"/>
+      <c r="X42" s="329"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="329"/>
+      <c r="AA42" s="329"/>
+      <c r="AB42" s="329"/>
+      <c r="AC42" s="330"/>
+      <c r="AD42" s="330"/>
+      <c r="AE42" s="330"/>
+      <c r="AF42" s="330"/>
+      <c r="AG42" s="331"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
       <c r="AJ42" s="55"/>
@@ -28979,52 +28993,52 @@
       <c r="AL42" s="55"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="356"/>
-      <c r="B43" s="357"/>
-      <c r="C43" s="357"/>
-      <c r="D43" s="357"/>
-      <c r="E43" s="309" t="str">
+      <c r="A43" s="334"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="315" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="309"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="310"/>
-      <c r="P43" s="311"/>
-      <c r="Q43" s="309" t="str">
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="315"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="315" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="310"/>
-      <c r="S43" s="310"/>
-      <c r="T43" s="310"/>
-      <c r="U43" s="310"/>
-      <c r="V43" s="310"/>
-      <c r="W43" s="310"/>
-      <c r="X43" s="310"/>
-      <c r="Y43" s="310"/>
-      <c r="Z43" s="310"/>
-      <c r="AA43" s="310"/>
-      <c r="AB43" s="311"/>
-      <c r="AC43" s="318" t="s">
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="316"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="316"/>
+      <c r="X43" s="316"/>
+      <c r="Y43" s="316"/>
+      <c r="Z43" s="316"/>
+      <c r="AA43" s="316"/>
+      <c r="AB43" s="304"/>
+      <c r="AC43" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="319"/>
+      <c r="AD43" s="353"/>
       <c r="AE43" s="375" t="str">
         <f>AE2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="AF43" s="361" t="s">
+      <c r="AF43" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG43" s="363" t="s">
+      <c r="AG43" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH43" s="62"/>
@@ -29034,90 +29048,90 @@
       <c r="AL43" s="62"/>
     </row>
     <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="339" t="str">
+      <c r="A44" s="345" t="str">
         <f>A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B44" s="340"/>
-      <c r="C44" s="340"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="312" t="s">
+      <c r="B44" s="346"/>
+      <c r="C44" s="346"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="312" t="s">
+      <c r="F44" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="312" t="s">
+      <c r="G44" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="312" t="s">
+      <c r="H44" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="312" t="s">
+      <c r="I44" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="312" t="s">
+      <c r="J44" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="312" t="s">
+      <c r="K44" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="312" t="s">
+      <c r="L44" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="312" t="s">
+      <c r="M44" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="312" t="s">
+      <c r="N44" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="329" t="s">
+      <c r="O44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="306" t="s">
+      <c r="P44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="312" t="s">
+      <c r="Q44" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="312" t="s">
+      <c r="R44" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="312" t="s">
+      <c r="S44" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="312" t="s">
+      <c r="T44" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="312" t="s">
+      <c r="U44" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="312" t="s">
+      <c r="V44" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="312" t="s">
+      <c r="W44" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="312" t="s">
+      <c r="X44" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="312" t="s">
+      <c r="Y44" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="312" t="s">
+      <c r="Z44" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="329" t="s">
+      <c r="AA44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="306" t="s">
+      <c r="AB44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="320"/>
-      <c r="AD44" s="321"/>
+      <c r="AC44" s="354"/>
+      <c r="AD44" s="355"/>
       <c r="AE44" s="375"/>
-      <c r="AF44" s="361"/>
-      <c r="AG44" s="363"/>
+      <c r="AF44" s="347"/>
+      <c r="AG44" s="298"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="62"/>
@@ -29125,40 +29139,40 @@
       <c r="AL44" s="62"/>
     </row>
     <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="334" t="str">
+      <c r="A45" s="323" t="str">
         <f>A4</f>
         <v>TTH 10:00AM-11:15AM   MWF 3:00PM-4:15PM</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="336"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="325"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M306</v>
       </c>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="312"/>
-      <c r="K45" s="312"/>
-      <c r="L45" s="312"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="329"/>
-      <c r="P45" s="306"/>
-      <c r="Q45" s="311"/>
-      <c r="R45" s="311"/>
-      <c r="S45" s="311"/>
-      <c r="T45" s="311"/>
-      <c r="U45" s="312"/>
-      <c r="V45" s="312"/>
-      <c r="W45" s="311"/>
-      <c r="X45" s="311"/>
-      <c r="Y45" s="311"/>
-      <c r="Z45" s="311"/>
-      <c r="AA45" s="330"/>
-      <c r="AB45" s="307"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
+      <c r="K45" s="303"/>
+      <c r="L45" s="303"/>
+      <c r="M45" s="303"/>
+      <c r="N45" s="303"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="311"/>
+      <c r="Q45" s="304"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="304"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="303"/>
+      <c r="V45" s="303"/>
+      <c r="W45" s="304"/>
+      <c r="X45" s="304"/>
+      <c r="Y45" s="304"/>
+      <c r="Z45" s="304"/>
+      <c r="AA45" s="341"/>
+      <c r="AB45" s="312"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
@@ -29166,8 +29180,8 @@
         <v>123</v>
       </c>
       <c r="AE45" s="375"/>
-      <c r="AF45" s="361"/>
-      <c r="AG45" s="363"/>
+      <c r="AF45" s="347"/>
+      <c r="AG45" s="298"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="62"/>
@@ -29175,13 +29189,13 @@
       <c r="AL45" s="62"/>
     </row>
     <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="334" t="str">
+      <c r="A46" s="323" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="335"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="336"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
       <c r="E46" s="57" t="str">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
         <v/>
@@ -29222,8 +29236,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="329"/>
-      <c r="P46" s="306"/>
+      <c r="O46" s="340"/>
+      <c r="P46" s="311"/>
       <c r="Q46" s="57" t="str">
         <f>IF(Q5="","",Q5)</f>
         <v/>
@@ -29264,16 +29278,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="330"/>
-      <c r="AB46" s="307"/>
+      <c r="AA46" s="341"/>
+      <c r="AB46" s="312"/>
       <c r="AC46" s="57" t="str">
         <f>IF(AC5="","",AC5)</f>
         <v/>
       </c>
-      <c r="AD46" s="322"/>
+      <c r="AD46" s="349"/>
       <c r="AE46" s="375"/>
-      <c r="AF46" s="361"/>
-      <c r="AG46" s="363"/>
+      <c r="AF46" s="347"/>
+      <c r="AG46" s="298"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="62"/>
@@ -29281,111 +29295,111 @@
       <c r="AL46" s="62"/>
     </row>
     <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="359" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="310"/>
-      <c r="C47" s="311"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="302" t="str">
+      <c r="B47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="302" t="str">
+      <c r="F47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G47" s="302" t="str">
+      <c r="G47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H47" s="302" t="str">
+      <c r="H47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="302" t="str">
+      <c r="I47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J47" s="302" t="str">
+      <c r="J47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K47" s="302" t="str">
+      <c r="K47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" s="302" t="str">
+      <c r="L47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M47" s="302" t="str">
+      <c r="M47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N47" s="302" t="str">
+      <c r="N47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="304" t="str">
+      <c r="O47" s="369" t="str">
         <f>O6</f>
         <v/>
       </c>
-      <c r="P47" s="306"/>
-      <c r="Q47" s="302" t="str">
+      <c r="P47" s="311"/>
+      <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
         <v/>
       </c>
-      <c r="R47" s="302" t="str">
+      <c r="R47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S47" s="302" t="str">
+      <c r="S47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T47" s="302" t="str">
+      <c r="T47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U47" s="302" t="str">
+      <c r="U47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V47" s="302" t="str">
+      <c r="V47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W47" s="302" t="str">
+      <c r="W47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X47" s="302" t="str">
+      <c r="X47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y47" s="302" t="str">
+      <c r="Y47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z47" s="302" t="str">
+      <c r="Z47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="304" t="str">
+      <c r="AA47" s="369" t="str">
         <f>AA6</f>
         <v/>
       </c>
-      <c r="AB47" s="307"/>
-      <c r="AC47" s="371">
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="308">
         <f>AC6</f>
         <v>40603</v>
       </c>
-      <c r="AD47" s="323"/>
+      <c r="AD47" s="350"/>
       <c r="AE47" s="375"/>
-      <c r="AF47" s="361"/>
-      <c r="AG47" s="363"/>
+      <c r="AF47" s="347"/>
+      <c r="AG47" s="298"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
@@ -29393,45 +29407,45 @@
       <c r="AL47" s="62"/>
     </row>
     <row r="48" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="345"/>
-      <c r="C48" s="348" t="s">
+      <c r="B48" s="363"/>
+      <c r="C48" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="337" t="s">
+      <c r="D48" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="302"/>
-      <c r="H48" s="302"/>
-      <c r="I48" s="302"/>
-      <c r="J48" s="302"/>
-      <c r="K48" s="302"/>
-      <c r="L48" s="302"/>
-      <c r="M48" s="302"/>
-      <c r="N48" s="302"/>
-      <c r="O48" s="304"/>
-      <c r="P48" s="306"/>
-      <c r="Q48" s="302"/>
-      <c r="R48" s="302"/>
-      <c r="S48" s="302"/>
-      <c r="T48" s="302"/>
-      <c r="U48" s="302"/>
-      <c r="V48" s="302"/>
-      <c r="W48" s="302"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="302"/>
-      <c r="Z48" s="302"/>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="307"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="323"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="317"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="369"/>
+      <c r="P48" s="311"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="317"/>
+      <c r="U48" s="317"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="317"/>
+      <c r="X48" s="317"/>
+      <c r="Y48" s="317"/>
+      <c r="Z48" s="317"/>
+      <c r="AA48" s="369"/>
+      <c r="AB48" s="312"/>
+      <c r="AC48" s="309"/>
+      <c r="AD48" s="350"/>
       <c r="AE48" s="375"/>
-      <c r="AF48" s="361"/>
-      <c r="AG48" s="363"/>
+      <c r="AF48" s="347"/>
+      <c r="AG48" s="298"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
@@ -29439,39 +29453,39 @@
       <c r="AL48" s="55"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="346"/>
-      <c r="B49" s="347"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="338"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
-      <c r="J49" s="303"/>
-      <c r="K49" s="303"/>
-      <c r="L49" s="303"/>
-      <c r="M49" s="303"/>
-      <c r="N49" s="303"/>
-      <c r="O49" s="305"/>
-      <c r="P49" s="374"/>
-      <c r="Q49" s="303"/>
-      <c r="R49" s="303"/>
-      <c r="S49" s="303"/>
-      <c r="T49" s="303"/>
-      <c r="U49" s="303"/>
-      <c r="V49" s="303"/>
-      <c r="W49" s="303"/>
-      <c r="X49" s="303"/>
-      <c r="Y49" s="303"/>
-      <c r="Z49" s="303"/>
-      <c r="AA49" s="305"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="373"/>
-      <c r="AD49" s="324"/>
+      <c r="A49" s="364"/>
+      <c r="B49" s="365"/>
+      <c r="C49" s="337"/>
+      <c r="D49" s="327"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="318"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="318"/>
+      <c r="K49" s="318"/>
+      <c r="L49" s="318"/>
+      <c r="M49" s="318"/>
+      <c r="N49" s="318"/>
+      <c r="O49" s="370"/>
+      <c r="P49" s="314"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="318"/>
+      <c r="S49" s="318"/>
+      <c r="T49" s="318"/>
+      <c r="U49" s="318"/>
+      <c r="V49" s="318"/>
+      <c r="W49" s="318"/>
+      <c r="X49" s="318"/>
+      <c r="Y49" s="318"/>
+      <c r="Z49" s="318"/>
+      <c r="AA49" s="370"/>
+      <c r="AB49" s="313"/>
+      <c r="AC49" s="310"/>
+      <c r="AD49" s="351"/>
       <c r="AE49" s="376"/>
-      <c r="AF49" s="362"/>
-      <c r="AG49" s="364"/>
+      <c r="AF49" s="348"/>
+      <c r="AG49" s="299"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -30664,8 +30678,8 @@
         <f>CRS!O66</f>
         <v/>
       </c>
-      <c r="AH66" s="300"/>
-      <c r="AI66" s="298" t="s">
+      <c r="AH66" s="373"/>
+      <c r="AI66" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -30738,8 +30752,8 @@
         <f>CRS!O67</f>
         <v/>
       </c>
-      <c r="AH67" s="301"/>
-      <c r="AI67" s="299"/>
+      <c r="AH67" s="374"/>
+      <c r="AI67" s="372"/>
     </row>
     <row r="68" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -30810,8 +30824,8 @@
         <f>CRS!O68</f>
         <v/>
       </c>
-      <c r="AH68" s="301"/>
-      <c r="AI68" s="299"/>
+      <c r="AH68" s="374"/>
+      <c r="AI68" s="372"/>
     </row>
     <row r="69" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -30882,8 +30896,8 @@
         <f>CRS!O69</f>
         <v/>
       </c>
-      <c r="AH69" s="301"/>
-      <c r="AI69" s="299"/>
+      <c r="AH69" s="374"/>
+      <c r="AI69" s="372"/>
     </row>
     <row r="70" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -30954,8 +30968,8 @@
         <f>CRS!O70</f>
         <v/>
       </c>
-      <c r="AH70" s="301"/>
-      <c r="AI70" s="299"/>
+      <c r="AH70" s="374"/>
+      <c r="AI70" s="372"/>
     </row>
     <row r="71" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -31026,8 +31040,8 @@
         <f>CRS!O71</f>
         <v/>
       </c>
-      <c r="AH71" s="301"/>
-      <c r="AI71" s="299"/>
+      <c r="AH71" s="374"/>
+      <c r="AI71" s="372"/>
     </row>
     <row r="72" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -31098,8 +31112,8 @@
         <f>CRS!O72</f>
         <v/>
       </c>
-      <c r="AH72" s="301"/>
-      <c r="AI72" s="299"/>
+      <c r="AH72" s="374"/>
+      <c r="AI72" s="372"/>
     </row>
     <row r="73" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -31170,8 +31184,8 @@
         <f>CRS!O73</f>
         <v/>
       </c>
-      <c r="AH73" s="301"/>
-      <c r="AI73" s="299"/>
+      <c r="AH73" s="374"/>
+      <c r="AI73" s="372"/>
     </row>
     <row r="74" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -31242,8 +31256,8 @@
         <f>CRS!O74</f>
         <v/>
       </c>
-      <c r="AH74" s="301"/>
-      <c r="AI74" s="299"/>
+      <c r="AH74" s="374"/>
+      <c r="AI74" s="372"/>
     </row>
     <row r="75" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -31314,8 +31328,8 @@
         <f>CRS!O75</f>
         <v/>
       </c>
-      <c r="AH75" s="301"/>
-      <c r="AI75" s="299"/>
+      <c r="AH75" s="374"/>
+      <c r="AI75" s="372"/>
     </row>
     <row r="76" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -31386,8 +31400,8 @@
         <f>CRS!O76</f>
         <v/>
       </c>
-      <c r="AH76" s="301"/>
-      <c r="AI76" s="299"/>
+      <c r="AH76" s="374"/>
+      <c r="AI76" s="372"/>
     </row>
     <row r="77" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -31458,8 +31472,8 @@
         <f>CRS!O77</f>
         <v/>
       </c>
-      <c r="AH77" s="301"/>
-      <c r="AI77" s="299"/>
+      <c r="AH77" s="374"/>
+      <c r="AI77" s="372"/>
     </row>
     <row r="78" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -31530,8 +31544,8 @@
         <f>CRS!O78</f>
         <v/>
       </c>
-      <c r="AH78" s="301"/>
-      <c r="AI78" s="299"/>
+      <c r="AH78" s="374"/>
+      <c r="AI78" s="372"/>
     </row>
     <row r="79" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -31602,8 +31616,8 @@
         <f>CRS!O79</f>
         <v/>
       </c>
-      <c r="AH79" s="301"/>
-      <c r="AI79" s="299"/>
+      <c r="AH79" s="374"/>
+      <c r="AI79" s="372"/>
     </row>
     <row r="80" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -31674,8 +31688,8 @@
         <f>CRS!O80</f>
         <v/>
       </c>
-      <c r="AH80" s="301"/>
-      <c r="AI80" s="299"/>
+      <c r="AH80" s="374"/>
+      <c r="AI80" s="372"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -31955,15 +31969,103 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="T2d19Gm7punEibsNJBgdh3ZzUcufk8+PQOuJQC1tA+RpVS+cs4H5fTH4F9aOQxwJS4PY4SJQO4kn/oJxgTi2mQ==" saltValue="yl0eVcUIiysAylQWPtO/Lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="130">
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="AI66:AI80"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AG1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AG2:AG8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AI26:AI40"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="AB44:AB49"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB8"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:AG42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="AG43:AG49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="I47:I49"/>
     <mergeCell ref="O47:O49"/>
@@ -31988,103 +32090,15 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:AG42"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="AG43:AG49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AI26:AI40"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="AB44:AB49"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB8"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AG1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AG2:AG8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="AI66:AI80"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AD46:AD49"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="AC9:AC40 AC50:AC80">
@@ -32188,44 +32202,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="350" t="str">
+      <c r="A1" s="319" t="str">
         <f>CRS!A1</f>
         <v>CITCS 2A  ITE3</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="325" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="328" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
-      <c r="Z1" s="326"/>
-      <c r="AA1" s="326"/>
-      <c r="AB1" s="326"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="327"/>
-      <c r="AG1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="329"/>
+      <c r="S1" s="329"/>
+      <c r="T1" s="329"/>
+      <c r="U1" s="329"/>
+      <c r="V1" s="329"/>
+      <c r="W1" s="329"/>
+      <c r="X1" s="329"/>
+      <c r="Y1" s="329"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="329"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="330"/>
+      <c r="AG1" s="331"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
@@ -32233,51 +32247,51 @@
       <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="352"/>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="368" t="str">
+      <c r="A2" s="321"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="300" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="309" t="str">
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="315" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="310"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="318" t="s">
+      <c r="R2" s="316"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="319"/>
+      <c r="AD2" s="353"/>
       <c r="AE2" s="375" t="s">
         <v>132</v>
       </c>
-      <c r="AF2" s="361" t="s">
+      <c r="AF2" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="363" t="s">
+      <c r="AG2" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="62"/>
@@ -32287,90 +32301,90 @@
       <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="339" t="str">
+      <c r="A3" s="345" t="str">
         <f>CRS!A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="312" t="s">
+      <c r="G3" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="312" t="s">
+      <c r="I3" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="312" t="s">
+      <c r="K3" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="312" t="s">
+      <c r="L3" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="312" t="s">
+      <c r="M3" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="312" t="s">
+      <c r="N3" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="329" t="s">
+      <c r="O3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="306" t="s">
+      <c r="P3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="312" t="s">
+      <c r="Q3" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="312" t="s">
+      <c r="S3" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="312" t="s">
+      <c r="T3" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="312" t="s">
+      <c r="U3" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="312" t="s">
+      <c r="V3" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="312" t="s">
+      <c r="W3" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="312" t="s">
+      <c r="X3" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="312" t="s">
+      <c r="Y3" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="312" t="s">
+      <c r="Z3" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="329" t="s">
+      <c r="AA3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="320"/>
-      <c r="AD3" s="321"/>
+      <c r="AC3" s="354"/>
+      <c r="AD3" s="355"/>
       <c r="AE3" s="375"/>
-      <c r="AF3" s="361"/>
-      <c r="AG3" s="363"/>
+      <c r="AF3" s="347"/>
+      <c r="AG3" s="298"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="62"/>
@@ -32378,40 +32392,40 @@
       <c r="AL3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="334" t="str">
+      <c r="A4" s="323" t="str">
         <f>CRS!A4</f>
         <v>TTH 10:00AM-11:15AM   MWF 3:00PM-4:15PM</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="325"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M306</v>
       </c>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="311"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="311"/>
-      <c r="V4" s="311"/>
-      <c r="W4" s="311"/>
-      <c r="X4" s="311"/>
-      <c r="Y4" s="311"/>
-      <c r="Z4" s="311"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="307"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="312"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="304"/>
+      <c r="T4" s="304"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="304"/>
+      <c r="W4" s="304"/>
+      <c r="X4" s="304"/>
+      <c r="Y4" s="304"/>
+      <c r="Z4" s="304"/>
+      <c r="AA4" s="341"/>
+      <c r="AB4" s="312"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
@@ -32419,8 +32433,8 @@
         <v>123</v>
       </c>
       <c r="AE4" s="375"/>
-      <c r="AF4" s="361"/>
-      <c r="AG4" s="363"/>
+      <c r="AF4" s="347"/>
+      <c r="AG4" s="298"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="62"/>
@@ -32428,13 +32442,13 @@
       <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="334" t="str">
+      <c r="A5" s="323" t="str">
         <f>CRS!A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="335"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -32445,8 +32459,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="307"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="108"/>
       <c r="R5" s="108"/>
       <c r="S5" s="108"/>
@@ -32457,13 +32471,13 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="307"/>
+      <c r="AA5" s="341"/>
+      <c r="AB5" s="312"/>
       <c r="AC5" s="110"/>
-      <c r="AD5" s="322"/>
+      <c r="AD5" s="349"/>
       <c r="AE5" s="375"/>
-      <c r="AF5" s="361"/>
-      <c r="AG5" s="363"/>
+      <c r="AF5" s="347"/>
+      <c r="AG5" s="298"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="62"/>
@@ -32471,51 +32485,51 @@
       <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="341" t="str">
+      <c r="A6" s="359" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="313"/>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="331" t="str">
+      <c r="B6" s="316"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="366" t="str">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v/>
       </c>
-      <c r="P6" s="307"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="313"/>
-      <c r="T6" s="313"/>
-      <c r="U6" s="313"/>
-      <c r="V6" s="313"/>
-      <c r="W6" s="313"/>
-      <c r="X6" s="313"/>
-      <c r="Y6" s="313"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="358" t="str">
+      <c r="P6" s="312"/>
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="305"/>
+      <c r="V6" s="305"/>
+      <c r="W6" s="305"/>
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="342" t="str">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v/>
       </c>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="365">
+      <c r="AB6" s="312"/>
+      <c r="AC6" s="356">
         <f>'INITIAL INPUT'!D24</f>
         <v>40634</v>
       </c>
-      <c r="AD6" s="323"/>
+      <c r="AD6" s="350"/>
       <c r="AE6" s="375"/>
-      <c r="AF6" s="361"/>
-      <c r="AG6" s="363"/>
+      <c r="AF6" s="347"/>
+      <c r="AG6" s="298"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -32523,45 +32537,45 @@
       <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="341" t="s">
+      <c r="A7" s="359" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="348" t="s">
+      <c r="B7" s="315"/>
+      <c r="C7" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="314"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="332"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="314"/>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
-      <c r="AA7" s="359"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="366"/>
-      <c r="AD7" s="323"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="312"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="343"/>
+      <c r="AB7" s="312"/>
+      <c r="AC7" s="357"/>
+      <c r="AD7" s="350"/>
       <c r="AE7" s="375"/>
-      <c r="AF7" s="361"/>
-      <c r="AG7" s="363"/>
+      <c r="AF7" s="347"/>
+      <c r="AG7" s="298"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
@@ -32569,39 +32583,39 @@
       <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="342"/>
-      <c r="B8" s="343"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="315"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="367"/>
-      <c r="AD8" s="324"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="339"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="339"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="307"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="313"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="351"/>
       <c r="AE8" s="376"/>
-      <c r="AF8" s="362"/>
-      <c r="AG8" s="364"/>
+      <c r="AF8" s="348"/>
+      <c r="AG8" s="299"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
@@ -33925,8 +33939,8 @@
         <f>CRS!U26</f>
         <v/>
       </c>
-      <c r="AH26" s="300"/>
-      <c r="AI26" s="298" t="s">
+      <c r="AH26" s="373"/>
+      <c r="AI26" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -33999,8 +34013,8 @@
         <f>CRS!U27</f>
         <v/>
       </c>
-      <c r="AH27" s="301"/>
-      <c r="AI27" s="299"/>
+      <c r="AH27" s="374"/>
+      <c r="AI27" s="372"/>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -34071,8 +34085,8 @@
         <f>CRS!U28</f>
         <v/>
       </c>
-      <c r="AH28" s="301"/>
-      <c r="AI28" s="299"/>
+      <c r="AH28" s="374"/>
+      <c r="AI28" s="372"/>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -34143,8 +34157,8 @@
         <f>CRS!U29</f>
         <v/>
       </c>
-      <c r="AH29" s="301"/>
-      <c r="AI29" s="299"/>
+      <c r="AH29" s="374"/>
+      <c r="AI29" s="372"/>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -34215,8 +34229,8 @@
         <f>CRS!U30</f>
         <v/>
       </c>
-      <c r="AH30" s="301"/>
-      <c r="AI30" s="299"/>
+      <c r="AH30" s="374"/>
+      <c r="AI30" s="372"/>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -34287,8 +34301,8 @@
         <f>CRS!U31</f>
         <v/>
       </c>
-      <c r="AH31" s="301"/>
-      <c r="AI31" s="299"/>
+      <c r="AH31" s="374"/>
+      <c r="AI31" s="372"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -34359,8 +34373,8 @@
         <f>CRS!U32</f>
         <v/>
       </c>
-      <c r="AH32" s="301"/>
-      <c r="AI32" s="299"/>
+      <c r="AH32" s="374"/>
+      <c r="AI32" s="372"/>
     </row>
     <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -34431,8 +34445,8 @@
         <f>CRS!U33</f>
         <v/>
       </c>
-      <c r="AH33" s="301"/>
-      <c r="AI33" s="299"/>
+      <c r="AH33" s="374"/>
+      <c r="AI33" s="372"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
       <c r="AL33" s="55"/>
@@ -34506,8 +34520,8 @@
         <f>CRS!U34</f>
         <v/>
       </c>
-      <c r="AH34" s="301"/>
-      <c r="AI34" s="299"/>
+      <c r="AH34" s="374"/>
+      <c r="AI34" s="372"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -34581,8 +34595,8 @@
         <f>CRS!U35</f>
         <v/>
       </c>
-      <c r="AH35" s="301"/>
-      <c r="AI35" s="299"/>
+      <c r="AH35" s="374"/>
+      <c r="AI35" s="372"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
       <c r="AL35" s="55"/>
@@ -34656,8 +34670,8 @@
         <f>CRS!U36</f>
         <v/>
       </c>
-      <c r="AH36" s="301"/>
-      <c r="AI36" s="299"/>
+      <c r="AH36" s="374"/>
+      <c r="AI36" s="372"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -34731,8 +34745,8 @@
         <f>CRS!U37</f>
         <v/>
       </c>
-      <c r="AH37" s="301"/>
-      <c r="AI37" s="299"/>
+      <c r="AH37" s="374"/>
+      <c r="AI37" s="372"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
@@ -34806,8 +34820,8 @@
         <f>CRS!U38</f>
         <v/>
       </c>
-      <c r="AH38" s="301"/>
-      <c r="AI38" s="299"/>
+      <c r="AH38" s="374"/>
+      <c r="AI38" s="372"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
       <c r="AL38" s="55"/>
@@ -34881,8 +34895,8 @@
         <f>CRS!U39</f>
         <v/>
       </c>
-      <c r="AH39" s="301"/>
-      <c r="AI39" s="299"/>
+      <c r="AH39" s="374"/>
+      <c r="AI39" s="372"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
       <c r="AL39" s="55"/>
@@ -34956,8 +34970,8 @@
         <f>CRS!U40</f>
         <v/>
       </c>
-      <c r="AH40" s="301"/>
-      <c r="AI40" s="299"/>
+      <c r="AH40" s="374"/>
+      <c r="AI40" s="372"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
       <c r="AL40" s="55"/>
@@ -35003,44 +35017,44 @@
       <c r="AL41" s="55"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="354" t="str">
+      <c r="A42" s="332" t="str">
         <f>A1</f>
         <v>CITCS 2A  ITE3</v>
       </c>
-      <c r="B42" s="355"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="325" t="s">
+      <c r="B42" s="333"/>
+      <c r="C42" s="333"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="328" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="325"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="325"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="326"/>
-      <c r="O42" s="326"/>
-      <c r="P42" s="326"/>
-      <c r="Q42" s="326"/>
-      <c r="R42" s="326"/>
-      <c r="S42" s="326"/>
-      <c r="T42" s="326"/>
-      <c r="U42" s="326"/>
-      <c r="V42" s="326"/>
-      <c r="W42" s="326"/>
-      <c r="X42" s="326"/>
-      <c r="Y42" s="326"/>
-      <c r="Z42" s="326"/>
-      <c r="AA42" s="326"/>
-      <c r="AB42" s="326"/>
-      <c r="AC42" s="327"/>
-      <c r="AD42" s="327"/>
-      <c r="AE42" s="327"/>
-      <c r="AF42" s="327"/>
-      <c r="AG42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="329"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="329"/>
+      <c r="O42" s="329"/>
+      <c r="P42" s="329"/>
+      <c r="Q42" s="329"/>
+      <c r="R42" s="329"/>
+      <c r="S42" s="329"/>
+      <c r="T42" s="329"/>
+      <c r="U42" s="329"/>
+      <c r="V42" s="329"/>
+      <c r="W42" s="329"/>
+      <c r="X42" s="329"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="329"/>
+      <c r="AA42" s="329"/>
+      <c r="AB42" s="329"/>
+      <c r="AC42" s="330"/>
+      <c r="AD42" s="330"/>
+      <c r="AE42" s="330"/>
+      <c r="AF42" s="330"/>
+      <c r="AG42" s="331"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
       <c r="AJ42" s="55"/>
@@ -35048,52 +35062,52 @@
       <c r="AL42" s="55"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="356"/>
-      <c r="B43" s="357"/>
-      <c r="C43" s="357"/>
-      <c r="D43" s="357"/>
-      <c r="E43" s="309" t="str">
+      <c r="A43" s="334"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="315" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="309"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="310"/>
-      <c r="P43" s="311"/>
-      <c r="Q43" s="309" t="str">
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="315"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="315" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="310"/>
-      <c r="S43" s="310"/>
-      <c r="T43" s="310"/>
-      <c r="U43" s="310"/>
-      <c r="V43" s="310"/>
-      <c r="W43" s="310"/>
-      <c r="X43" s="310"/>
-      <c r="Y43" s="310"/>
-      <c r="Z43" s="310"/>
-      <c r="AA43" s="310"/>
-      <c r="AB43" s="311"/>
-      <c r="AC43" s="318" t="s">
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="316"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="316"/>
+      <c r="X43" s="316"/>
+      <c r="Y43" s="316"/>
+      <c r="Z43" s="316"/>
+      <c r="AA43" s="316"/>
+      <c r="AB43" s="304"/>
+      <c r="AC43" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="319"/>
+      <c r="AD43" s="353"/>
       <c r="AE43" s="375" t="str">
         <f>AE2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="AF43" s="361" t="s">
+      <c r="AF43" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG43" s="363" t="s">
+      <c r="AG43" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH43" s="62"/>
@@ -35103,90 +35117,90 @@
       <c r="AL43" s="62"/>
     </row>
     <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="339" t="str">
+      <c r="A44" s="345" t="str">
         <f>A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B44" s="340"/>
-      <c r="C44" s="340"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="312" t="s">
+      <c r="B44" s="346"/>
+      <c r="C44" s="346"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="312" t="s">
+      <c r="F44" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="312" t="s">
+      <c r="G44" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="312" t="s">
+      <c r="H44" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="312" t="s">
+      <c r="I44" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="312" t="s">
+      <c r="J44" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="312" t="s">
+      <c r="K44" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="312" t="s">
+      <c r="L44" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="312" t="s">
+      <c r="M44" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="312" t="s">
+      <c r="N44" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="329" t="s">
+      <c r="O44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="306" t="s">
+      <c r="P44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="312" t="s">
+      <c r="Q44" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="312" t="s">
+      <c r="R44" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="312" t="s">
+      <c r="S44" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="312" t="s">
+      <c r="T44" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="312" t="s">
+      <c r="U44" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="312" t="s">
+      <c r="V44" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="312" t="s">
+      <c r="W44" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="312" t="s">
+      <c r="X44" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="312" t="s">
+      <c r="Y44" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="312" t="s">
+      <c r="Z44" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="329" t="s">
+      <c r="AA44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="306" t="s">
+      <c r="AB44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="320"/>
-      <c r="AD44" s="321"/>
+      <c r="AC44" s="354"/>
+      <c r="AD44" s="355"/>
       <c r="AE44" s="375"/>
-      <c r="AF44" s="361"/>
-      <c r="AG44" s="363"/>
+      <c r="AF44" s="347"/>
+      <c r="AG44" s="298"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="62"/>
@@ -35194,40 +35208,40 @@
       <c r="AL44" s="62"/>
     </row>
     <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="334" t="str">
+      <c r="A45" s="323" t="str">
         <f>A4</f>
         <v>TTH 10:00AM-11:15AM   MWF 3:00PM-4:15PM</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="336"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="325"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M306</v>
       </c>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="312"/>
-      <c r="K45" s="312"/>
-      <c r="L45" s="312"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="329"/>
-      <c r="P45" s="306"/>
-      <c r="Q45" s="311"/>
-      <c r="R45" s="311"/>
-      <c r="S45" s="311"/>
-      <c r="T45" s="311"/>
-      <c r="U45" s="312"/>
-      <c r="V45" s="312"/>
-      <c r="W45" s="311"/>
-      <c r="X45" s="311"/>
-      <c r="Y45" s="311"/>
-      <c r="Z45" s="311"/>
-      <c r="AA45" s="330"/>
-      <c r="AB45" s="307"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
+      <c r="K45" s="303"/>
+      <c r="L45" s="303"/>
+      <c r="M45" s="303"/>
+      <c r="N45" s="303"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="311"/>
+      <c r="Q45" s="304"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="304"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="303"/>
+      <c r="V45" s="303"/>
+      <c r="W45" s="304"/>
+      <c r="X45" s="304"/>
+      <c r="Y45" s="304"/>
+      <c r="Z45" s="304"/>
+      <c r="AA45" s="341"/>
+      <c r="AB45" s="312"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
@@ -35235,8 +35249,8 @@
         <v>123</v>
       </c>
       <c r="AE45" s="375"/>
-      <c r="AF45" s="361"/>
-      <c r="AG45" s="363"/>
+      <c r="AF45" s="347"/>
+      <c r="AG45" s="298"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="62"/>
@@ -35244,13 +35258,13 @@
       <c r="AL45" s="62"/>
     </row>
     <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="334" t="str">
+      <c r="A46" s="323" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="335"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="336"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
       <c r="E46" s="57" t="str">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
         <v/>
@@ -35291,8 +35305,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="329"/>
-      <c r="P46" s="306"/>
+      <c r="O46" s="340"/>
+      <c r="P46" s="311"/>
       <c r="Q46" s="57" t="str">
         <f>IF(Q5="","",Q5)</f>
         <v/>
@@ -35333,16 +35347,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="330"/>
-      <c r="AB46" s="307"/>
+      <c r="AA46" s="341"/>
+      <c r="AB46" s="312"/>
       <c r="AC46" s="57" t="str">
         <f>IF(AC5="","",AC5)</f>
         <v/>
       </c>
-      <c r="AD46" s="322"/>
+      <c r="AD46" s="349"/>
       <c r="AE46" s="375"/>
-      <c r="AF46" s="361"/>
-      <c r="AG46" s="363"/>
+      <c r="AF46" s="347"/>
+      <c r="AG46" s="298"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="62"/>
@@ -35350,111 +35364,111 @@
       <c r="AL46" s="62"/>
     </row>
     <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="359" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="310"/>
-      <c r="C47" s="311"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="302" t="str">
+      <c r="B47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="302" t="str">
+      <c r="F47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G47" s="302" t="str">
+      <c r="G47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H47" s="302" t="str">
+      <c r="H47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="302" t="str">
+      <c r="I47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J47" s="302" t="str">
+      <c r="J47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K47" s="302" t="str">
+      <c r="K47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" s="302" t="str">
+      <c r="L47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M47" s="302" t="str">
+      <c r="M47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N47" s="302" t="str">
+      <c r="N47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="304" t="str">
+      <c r="O47" s="369" t="str">
         <f>O6</f>
         <v/>
       </c>
-      <c r="P47" s="306"/>
-      <c r="Q47" s="302" t="str">
+      <c r="P47" s="311"/>
+      <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
         <v/>
       </c>
-      <c r="R47" s="302" t="str">
+      <c r="R47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S47" s="302" t="str">
+      <c r="S47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T47" s="302" t="str">
+      <c r="T47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U47" s="302" t="str">
+      <c r="U47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V47" s="302" t="str">
+      <c r="V47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W47" s="302" t="str">
+      <c r="W47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X47" s="302" t="str">
+      <c r="X47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y47" s="302" t="str">
+      <c r="Y47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z47" s="302" t="str">
+      <c r="Z47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="304" t="str">
+      <c r="AA47" s="369" t="str">
         <f>AA6</f>
         <v/>
       </c>
-      <c r="AB47" s="307"/>
-      <c r="AC47" s="371">
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="308">
         <f>AC6</f>
         <v>40634</v>
       </c>
-      <c r="AD47" s="323"/>
+      <c r="AD47" s="350"/>
       <c r="AE47" s="375"/>
-      <c r="AF47" s="361"/>
-      <c r="AG47" s="363"/>
+      <c r="AF47" s="347"/>
+      <c r="AG47" s="298"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
@@ -35462,45 +35476,45 @@
       <c r="AL47" s="62"/>
     </row>
     <row r="48" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="345"/>
-      <c r="C48" s="348" t="s">
+      <c r="B48" s="363"/>
+      <c r="C48" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="337" t="s">
+      <c r="D48" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="302"/>
-      <c r="H48" s="302"/>
-      <c r="I48" s="302"/>
-      <c r="J48" s="302"/>
-      <c r="K48" s="302"/>
-      <c r="L48" s="302"/>
-      <c r="M48" s="302"/>
-      <c r="N48" s="302"/>
-      <c r="O48" s="304"/>
-      <c r="P48" s="306"/>
-      <c r="Q48" s="302"/>
-      <c r="R48" s="302"/>
-      <c r="S48" s="302"/>
-      <c r="T48" s="302"/>
-      <c r="U48" s="302"/>
-      <c r="V48" s="302"/>
-      <c r="W48" s="302"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="302"/>
-      <c r="Z48" s="302"/>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="307"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="323"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="317"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="369"/>
+      <c r="P48" s="311"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="317"/>
+      <c r="U48" s="317"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="317"/>
+      <c r="X48" s="317"/>
+      <c r="Y48" s="317"/>
+      <c r="Z48" s="317"/>
+      <c r="AA48" s="369"/>
+      <c r="AB48" s="312"/>
+      <c r="AC48" s="309"/>
+      <c r="AD48" s="350"/>
       <c r="AE48" s="375"/>
-      <c r="AF48" s="361"/>
-      <c r="AG48" s="363"/>
+      <c r="AF48" s="347"/>
+      <c r="AG48" s="298"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
@@ -35508,39 +35522,39 @@
       <c r="AL48" s="55"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="346"/>
-      <c r="B49" s="347"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="338"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
-      <c r="J49" s="303"/>
-      <c r="K49" s="303"/>
-      <c r="L49" s="303"/>
-      <c r="M49" s="303"/>
-      <c r="N49" s="303"/>
-      <c r="O49" s="305"/>
-      <c r="P49" s="374"/>
-      <c r="Q49" s="303"/>
-      <c r="R49" s="303"/>
-      <c r="S49" s="303"/>
-      <c r="T49" s="303"/>
-      <c r="U49" s="303"/>
-      <c r="V49" s="303"/>
-      <c r="W49" s="303"/>
-      <c r="X49" s="303"/>
-      <c r="Y49" s="303"/>
-      <c r="Z49" s="303"/>
-      <c r="AA49" s="305"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="373"/>
-      <c r="AD49" s="324"/>
+      <c r="A49" s="364"/>
+      <c r="B49" s="365"/>
+      <c r="C49" s="337"/>
+      <c r="D49" s="327"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="318"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="318"/>
+      <c r="K49" s="318"/>
+      <c r="L49" s="318"/>
+      <c r="M49" s="318"/>
+      <c r="N49" s="318"/>
+      <c r="O49" s="370"/>
+      <c r="P49" s="314"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="318"/>
+      <c r="S49" s="318"/>
+      <c r="T49" s="318"/>
+      <c r="U49" s="318"/>
+      <c r="V49" s="318"/>
+      <c r="W49" s="318"/>
+      <c r="X49" s="318"/>
+      <c r="Y49" s="318"/>
+      <c r="Z49" s="318"/>
+      <c r="AA49" s="370"/>
+      <c r="AB49" s="313"/>
+      <c r="AC49" s="310"/>
+      <c r="AD49" s="351"/>
       <c r="AE49" s="376"/>
-      <c r="AF49" s="362"/>
-      <c r="AG49" s="364"/>
+      <c r="AF49" s="348"/>
+      <c r="AG49" s="299"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -36733,8 +36747,8 @@
         <f>CRS!U66</f>
         <v/>
       </c>
-      <c r="AH66" s="300"/>
-      <c r="AI66" s="298" t="s">
+      <c r="AH66" s="373"/>
+      <c r="AI66" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -36807,8 +36821,8 @@
         <f>CRS!U67</f>
         <v/>
       </c>
-      <c r="AH67" s="301"/>
-      <c r="AI67" s="299"/>
+      <c r="AH67" s="374"/>
+      <c r="AI67" s="372"/>
     </row>
     <row r="68" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -36879,8 +36893,8 @@
         <f>CRS!U68</f>
         <v/>
       </c>
-      <c r="AH68" s="301"/>
-      <c r="AI68" s="299"/>
+      <c r="AH68" s="374"/>
+      <c r="AI68" s="372"/>
     </row>
     <row r="69" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -36951,8 +36965,8 @@
         <f>CRS!U69</f>
         <v/>
       </c>
-      <c r="AH69" s="301"/>
-      <c r="AI69" s="299"/>
+      <c r="AH69" s="374"/>
+      <c r="AI69" s="372"/>
     </row>
     <row r="70" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -37023,8 +37037,8 @@
         <f>CRS!U70</f>
         <v/>
       </c>
-      <c r="AH70" s="301"/>
-      <c r="AI70" s="299"/>
+      <c r="AH70" s="374"/>
+      <c r="AI70" s="372"/>
     </row>
     <row r="71" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -37095,8 +37109,8 @@
         <f>CRS!U71</f>
         <v/>
       </c>
-      <c r="AH71" s="301"/>
-      <c r="AI71" s="299"/>
+      <c r="AH71" s="374"/>
+      <c r="AI71" s="372"/>
     </row>
     <row r="72" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -37167,8 +37181,8 @@
         <f>CRS!U72</f>
         <v/>
       </c>
-      <c r="AH72" s="301"/>
-      <c r="AI72" s="299"/>
+      <c r="AH72" s="374"/>
+      <c r="AI72" s="372"/>
     </row>
     <row r="73" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -37239,8 +37253,8 @@
         <f>CRS!U73</f>
         <v/>
       </c>
-      <c r="AH73" s="301"/>
-      <c r="AI73" s="299"/>
+      <c r="AH73" s="374"/>
+      <c r="AI73" s="372"/>
     </row>
     <row r="74" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -37311,8 +37325,8 @@
         <f>CRS!U74</f>
         <v/>
       </c>
-      <c r="AH74" s="301"/>
-      <c r="AI74" s="299"/>
+      <c r="AH74" s="374"/>
+      <c r="AI74" s="372"/>
     </row>
     <row r="75" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -37383,8 +37397,8 @@
         <f>CRS!U75</f>
         <v/>
       </c>
-      <c r="AH75" s="301"/>
-      <c r="AI75" s="299"/>
+      <c r="AH75" s="374"/>
+      <c r="AI75" s="372"/>
     </row>
     <row r="76" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -37455,8 +37469,8 @@
         <f>CRS!U76</f>
         <v/>
       </c>
-      <c r="AH76" s="301"/>
-      <c r="AI76" s="299"/>
+      <c r="AH76" s="374"/>
+      <c r="AI76" s="372"/>
     </row>
     <row r="77" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -37527,8 +37541,8 @@
         <f>CRS!U77</f>
         <v/>
       </c>
-      <c r="AH77" s="301"/>
-      <c r="AI77" s="299"/>
+      <c r="AH77" s="374"/>
+      <c r="AI77" s="372"/>
     </row>
     <row r="78" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -37599,8 +37613,8 @@
         <f>CRS!U78</f>
         <v/>
       </c>
-      <c r="AH78" s="301"/>
-      <c r="AI78" s="299"/>
+      <c r="AH78" s="374"/>
+      <c r="AI78" s="372"/>
     </row>
     <row r="79" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -37671,8 +37685,8 @@
         <f>CRS!U79</f>
         <v/>
       </c>
-      <c r="AH79" s="301"/>
-      <c r="AI79" s="299"/>
+      <c r="AH79" s="374"/>
+      <c r="AI79" s="372"/>
     </row>
     <row r="80" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -37743,8 +37757,8 @@
         <f>CRS!U80</f>
         <v/>
       </c>
-      <c r="AH80" s="301"/>
-      <c r="AI80" s="299"/>
+      <c r="AH80" s="374"/>
+      <c r="AI80" s="372"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -38024,16 +38038,102 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="r9GU55Q6M2zTlwa014WpkfKiky8Sb8v4KLpKizRfX9cdBMIz1ysRsotcKQrpvBSarNV9EJ4HGzIGqk6p3/Mr3A==" saltValue="54XUZU5JGZ6/eLh4J4iIXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="130">
-    <mergeCell ref="AI66:AI80"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AG2:AG8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB8"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AG1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AI26:AI40"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:AG42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="AG43:AG49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
     <mergeCell ref="M44:M45"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="O44:O46"/>
@@ -38058,102 +38158,16 @@
     <mergeCell ref="N47:N49"/>
     <mergeCell ref="O47:O49"/>
     <mergeCell ref="R47:R49"/>
-    <mergeCell ref="AI26:AI40"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:AG42"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="AG43:AG49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AG2:AG8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB8"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AG1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AI66:AI80"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
@@ -38313,55 +38327,55 @@
         <f>'INITIAL INPUT'!D12</f>
         <v>CITCS 2A</v>
       </c>
-      <c r="C11" s="381" t="str">
+      <c r="C11" s="385" t="str">
         <f>'INITIAL INPUT'!G12</f>
         <v>ITE3</v>
       </c>
-      <c r="D11" s="382"/>
-      <c r="E11" s="382"/>
+      <c r="D11" s="386"/>
+      <c r="E11" s="386"/>
       <c r="F11" s="163"/>
-      <c r="G11" s="383" t="str">
+      <c r="G11" s="387" t="str">
         <f>CRS!A4</f>
         <v>TTH 10:00AM-11:15AM   MWF 3:00PM-4:15PM</v>
       </c>
-      <c r="H11" s="384"/>
-      <c r="I11" s="384"/>
-      <c r="J11" s="384"/>
-      <c r="K11" s="384"/>
-      <c r="L11" s="384"/>
-      <c r="M11" s="384"/>
+      <c r="H11" s="388"/>
+      <c r="I11" s="388"/>
+      <c r="J11" s="388"/>
+      <c r="K11" s="388"/>
+      <c r="L11" s="388"/>
+      <c r="M11" s="388"/>
       <c r="N11" s="164"/>
-      <c r="O11" s="385" t="str">
+      <c r="O11" s="389" t="str">
         <f>CONCATENATE('INITIAL INPUT'!G16," Trimester")</f>
         <v>2 Trimester</v>
       </c>
-      <c r="P11" s="382"/>
+      <c r="P11" s="386"/>
     </row>
     <row r="12" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="386" t="s">
+      <c r="C12" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
+      <c r="D12" s="372"/>
+      <c r="E12" s="372"/>
       <c r="F12" s="163"/>
-      <c r="G12" s="387" t="s">
+      <c r="G12" s="380" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="299"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="299"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
+      <c r="H12" s="372"/>
+      <c r="I12" s="372"/>
+      <c r="J12" s="372"/>
+      <c r="K12" s="372"/>
+      <c r="L12" s="372"/>
+      <c r="M12" s="372"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="388" t="str">
+      <c r="O12" s="381" t="str">
         <f>CONCATENATE("SY ",'INITIAL INPUT'!D16)</f>
         <v>SY 2016-2017</v>
       </c>
-      <c r="P12" s="389"/>
+      <c r="P12" s="382"/>
       <c r="Q12" s="128"/>
       <c r="R12" s="128"/>
       <c r="S12" s="128"/>
@@ -38439,10 +38453,10 @@
         <v>145</v>
       </c>
       <c r="N14" s="136"/>
-      <c r="O14" s="379" t="s">
+      <c r="O14" s="383" t="s">
         <v>133</v>
       </c>
-      <c r="P14" s="380"/>
+      <c r="P14" s="384"/>
       <c r="Q14" s="137"/>
       <c r="R14" s="137"/>
       <c r="S14" s="137"/>
@@ -38779,7 +38793,7 @@
       <c r="H20" s="133"/>
       <c r="I20" s="144">
         <f>IF(CRS!I14="","",CRS!I14)</f>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J20" s="145"/>
       <c r="K20" s="144" t="str">
@@ -38897,7 +38911,7 @@
       <c r="H22" s="133"/>
       <c r="I22" s="144">
         <f>IF(CRS!I16="","",CRS!I16)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" s="145"/>
       <c r="K22" s="144" t="str">
@@ -40714,55 +40728,55 @@
         <f>A11</f>
         <v>CITCS 2A</v>
       </c>
-      <c r="C72" s="381" t="str">
+      <c r="C72" s="385" t="str">
         <f>C11</f>
         <v>ITE3</v>
       </c>
-      <c r="D72" s="382"/>
-      <c r="E72" s="382"/>
+      <c r="D72" s="386"/>
+      <c r="E72" s="386"/>
       <c r="F72" s="163"/>
-      <c r="G72" s="383" t="str">
+      <c r="G72" s="387" t="str">
         <f>G11</f>
         <v>TTH 10:00AM-11:15AM   MWF 3:00PM-4:15PM</v>
       </c>
-      <c r="H72" s="384"/>
-      <c r="I72" s="384"/>
-      <c r="J72" s="384"/>
-      <c r="K72" s="384"/>
-      <c r="L72" s="384"/>
-      <c r="M72" s="384"/>
+      <c r="H72" s="388"/>
+      <c r="I72" s="388"/>
+      <c r="J72" s="388"/>
+      <c r="K72" s="388"/>
+      <c r="L72" s="388"/>
+      <c r="M72" s="388"/>
       <c r="N72" s="164"/>
-      <c r="O72" s="385" t="str">
+      <c r="O72" s="389" t="str">
         <f>O11</f>
         <v>2 Trimester</v>
       </c>
-      <c r="P72" s="382"/>
+      <c r="P72" s="386"/>
     </row>
     <row r="73" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="386" t="s">
+      <c r="C73" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="299"/>
-      <c r="E73" s="299"/>
+      <c r="D73" s="372"/>
+      <c r="E73" s="372"/>
       <c r="F73" s="163"/>
-      <c r="G73" s="387" t="s">
+      <c r="G73" s="380" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="299"/>
-      <c r="I73" s="299"/>
-      <c r="J73" s="299"/>
-      <c r="K73" s="299"/>
-      <c r="L73" s="299"/>
-      <c r="M73" s="299"/>
+      <c r="H73" s="372"/>
+      <c r="I73" s="372"/>
+      <c r="J73" s="372"/>
+      <c r="K73" s="372"/>
+      <c r="L73" s="372"/>
+      <c r="M73" s="372"/>
       <c r="N73" s="106"/>
-      <c r="O73" s="388" t="str">
+      <c r="O73" s="381" t="str">
         <f>O12</f>
         <v>SY 2016-2017</v>
       </c>
-      <c r="P73" s="389"/>
+      <c r="P73" s="382"/>
       <c r="Q73" s="128"/>
       <c r="R73" s="128"/>
       <c r="S73" s="128"/>
@@ -40840,10 +40854,10 @@
         <v>145</v>
       </c>
       <c r="N75" s="136"/>
-      <c r="O75" s="379" t="s">
+      <c r="O75" s="383" t="s">
         <v>133</v>
       </c>
-      <c r="P75" s="380"/>
+      <c r="P75" s="384"/>
       <c r="Q75" s="137"/>
       <c r="R75" s="137"/>
       <c r="S75" s="137"/>
@@ -40944,7 +40958,7 @@
       <c r="H77" s="133"/>
       <c r="I77" s="144">
         <f>IF(CRS!I51="","",CRS!I51)</f>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J77" s="145"/>
       <c r="K77" s="144" t="str">
@@ -41239,7 +41253,7 @@
       <c r="H82" s="133"/>
       <c r="I82" s="144">
         <f>IF(CRS!I56="","",CRS!I56)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J82" s="145"/>
       <c r="K82" s="144" t="str">
@@ -43201,6 +43215,72 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rr4KBu2AEFa/KySpnCO0Ck38T/nOom3i2FxuhAYlP4JgnWP0E17tEsMn8PpgA+OHXpLmFfOJ659NttGsaGyyCQ==" saltValue="bJvSSGehZYl6UeN9dD1Evw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="78">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="O90:P90"/>
     <mergeCell ref="O107:P107"/>
     <mergeCell ref="O96:P96"/>
     <mergeCell ref="O97:P97"/>
@@ -43213,72 +43293,6 @@
     <mergeCell ref="O104:P104"/>
     <mergeCell ref="O105:P105"/>
     <mergeCell ref="O106:P106"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <conditionalFormatting sqref="N15:N46 N76:N107">
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="notBetween">

--- a/2T1617CR/2T1617 - CITCS-ITE3-CITCS 2A.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ITE3-CITCS 2A.xlsx
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="258">
   <si>
     <t>J</t>
   </si>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="F12" s="83">
         <f>IF(PRELIM!AB12="","",$F$8*PRELIM!AB12)</f>
-        <v>18.150000000000002</v>
+        <v>20.053846153846155</v>
       </c>
       <c r="G12" s="83">
         <f>IF(PRELIM!AD12="","",$G$8*PRELIM!AD12)</f>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="H12" s="84">
         <f t="shared" si="0"/>
-        <v>38.606000000000002</v>
+        <v>40.509846153846155</v>
       </c>
       <c r="I12" s="85">
         <f>IF(H12="","",VLOOKUP(H12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -13158,7 +13158,7 @@
       </c>
       <c r="F16" s="83">
         <f>IF(PRELIM!AB16="","",$F$8*PRELIM!AB16)</f>
-        <v>6.726923076923077</v>
+        <v>19.419230769230769</v>
       </c>
       <c r="G16" s="83">
         <f>IF(PRELIM!AD16="","",$G$8*PRELIM!AD16)</f>
@@ -13166,11 +13166,11 @@
       </c>
       <c r="H16" s="84">
         <f t="shared" si="0"/>
-        <v>56.846923076923076</v>
+        <v>69.53923076923077</v>
       </c>
       <c r="I16" s="85">
         <f>IF(H16="","",VLOOKUP(H16,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J16" s="83" t="str">
         <f>IF(MIDTERM!P16="","",$J$8*MIDTERM!P16)</f>
@@ -13252,7 +13252,7 @@
       </c>
       <c r="F17" s="83">
         <f>IF(PRELIM!AB17="","",$F$8*PRELIM!AB17)</f>
-        <v>5.0769230769230775</v>
+        <v>17.76923076923077</v>
       </c>
       <c r="G17" s="83">
         <f>IF(PRELIM!AD17="","",$G$8*PRELIM!AD17)</f>
@@ -13260,11 +13260,11 @@
       </c>
       <c r="H17" s="84">
         <f t="shared" si="0"/>
-        <v>37.476923076923079</v>
+        <v>50.169230769230765</v>
       </c>
       <c r="I17" s="85">
         <f>IF(H17="","",VLOOKUP(H17,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J17" s="83" t="str">
         <f>IF(MIDTERM!P17="","",$J$8*MIDTERM!P17)</f>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="F21" s="83">
         <f>IF(PRELIM!AB21="","",$F$8*PRELIM!AB21)</f>
-        <v>19.038461538461537</v>
+        <v>31.730769230769234</v>
       </c>
       <c r="G21" s="83">
         <f>IF(PRELIM!AD21="","",$G$8*PRELIM!AD21)</f>
@@ -13636,11 +13636,11 @@
       </c>
       <c r="H21" s="84">
         <f t="shared" si="0"/>
-        <v>61.270461538461539</v>
+        <v>73.962769230769226</v>
       </c>
       <c r="I21" s="85">
         <f>IF(H21="","",VLOOKUP(H21,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J21" s="83" t="str">
         <f>IF(MIDTERM!P21="","",$J$8*MIDTERM!P21)</f>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="F23" s="83">
         <f>IF(PRELIM!AB23="","",$F$8*PRELIM!AB23)</f>
-        <v>9.2653846153846153</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="G23" s="83">
         <f>IF(PRELIM!AD23="","",$G$8*PRELIM!AD23)</f>
@@ -13824,11 +13824,11 @@
       </c>
       <c r="H23" s="84">
         <f t="shared" si="0"/>
-        <v>44.665384615384617</v>
+        <v>53.550000000000004</v>
       </c>
       <c r="I23" s="85">
         <f>IF(H23="","",VLOOKUP(H23,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J23" s="83" t="str">
         <f>IF(MIDTERM!P23="","",$J$8*MIDTERM!P23)</f>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="E25" s="82">
         <f>IF(PRELIM!P25="","",$E$8*PRELIM!P25)</f>
-        <v>6.3360000000000003</v>
+        <v>11.616</v>
       </c>
       <c r="F25" s="83">
         <f>IF(PRELIM!AB25="","",$F$8*PRELIM!AB25)</f>
@@ -14012,11 +14012,11 @@
       </c>
       <c r="H25" s="84">
         <f t="shared" si="0"/>
-        <v>44.731384615384613</v>
+        <v>50.011384615384614</v>
       </c>
       <c r="I25" s="85">
         <f>IF(H25="","",VLOOKUP(H25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J25" s="83" t="str">
         <f>IF(MIDTERM!P25="","",$J$8*MIDTERM!P25)</f>
@@ -14098,7 +14098,7 @@
       </c>
       <c r="F26" s="83">
         <f>IF(PRELIM!AB26="","",$F$8*PRELIM!AB26)</f>
-        <v>5.0769230769230775</v>
+        <v>30.461538461538463</v>
       </c>
       <c r="G26" s="83">
         <f>IF(PRELIM!AD26="","",$G$8*PRELIM!AD26)</f>
@@ -14106,11 +14106,11 @@
       </c>
       <c r="H26" s="84">
         <f t="shared" si="0"/>
-        <v>27.996923076923078</v>
+        <v>53.381538461538462</v>
       </c>
       <c r="I26" s="85">
         <f>IF(H26="","",VLOOKUP(H26,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J26" s="83" t="str">
         <f>IF(MIDTERM!P26="","",$J$8*MIDTERM!P26)</f>
@@ -14955,7 +14955,7 @@
       </c>
       <c r="F35" s="83">
         <f>IF(PRELIM!AB35="","",$F$8*PRELIM!AB35)</f>
-        <v>14.723076923076926</v>
+        <v>27.415384615384617</v>
       </c>
       <c r="G35" s="83">
         <f>IF(PRELIM!AD35="","",$G$8*PRELIM!AD35)</f>
@@ -14963,11 +14963,11 @@
       </c>
       <c r="H35" s="84">
         <f t="shared" si="0"/>
-        <v>50.043076923076931</v>
+        <v>62.735384615384618</v>
       </c>
       <c r="I35" s="85">
         <f>IF(H35="","",VLOOKUP(H35,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J35" s="83" t="str">
         <f>IF(MIDTERM!P35="","",$J$8*MIDTERM!P35)</f>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="F40" s="83">
         <f>IF(PRELIM!AB40="","",$F$8*PRELIM!AB40)</f>
-        <v>6.3461538461538476</v>
+        <v>31.730769230769234</v>
       </c>
       <c r="G40" s="83">
         <f>IF(PRELIM!AD40="","",$G$8*PRELIM!AD40)</f>
@@ -15438,11 +15438,11 @@
       </c>
       <c r="H40" s="84">
         <f t="shared" si="0"/>
-        <v>42.586153846153849</v>
+        <v>67.970769230769235</v>
       </c>
       <c r="I40" s="85">
         <f>IF(H40="","",VLOOKUP(H40,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J40" s="83" t="str">
         <f>IF(MIDTERM!P40="","",$J$8*MIDTERM!P40)</f>
@@ -19585,8 +19585,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20376,7 +20376,7 @@
         <v>20</v>
       </c>
       <c r="U12" s="109">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V12" s="109"/>
       <c r="W12" s="109"/>
@@ -20385,11 +20385,11 @@
       <c r="Z12" s="109"/>
       <c r="AA12" s="60">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="AB12" s="67">
         <f t="shared" si="3"/>
-        <v>55.000000000000007</v>
+        <v>60.769230769230766</v>
       </c>
       <c r="AC12" s="111">
         <v>26</v>
@@ -20400,7 +20400,7 @@
       </c>
       <c r="AE12" s="66">
         <f>CRS!H12</f>
-        <v>38.606000000000002</v>
+        <v>40.509846153846155</v>
       </c>
       <c r="AF12" s="64">
         <f>CRS!I12</f>
@@ -20721,8 +20721,12 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
+      <c r="Q16" s="109">
+        <v>75</v>
+      </c>
+      <c r="R16" s="109">
+        <v>25</v>
+      </c>
       <c r="S16" s="109">
         <v>15</v>
       </c>
@@ -20739,11 +20743,11 @@
       <c r="Z16" s="109"/>
       <c r="AA16" s="60">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="AB16" s="67">
         <f t="shared" si="3"/>
-        <v>20.384615384615383</v>
+        <v>58.846153846153847</v>
       </c>
       <c r="AC16" s="111">
         <v>62</v>
@@ -20754,11 +20758,11 @@
       </c>
       <c r="AE16" s="66">
         <f>CRS!H16</f>
-        <v>56.846923076923076</v>
+        <v>69.53923076923077</v>
       </c>
       <c r="AF16" s="64">
         <f>CRS!I16</f>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AG16" s="55"/>
       <c r="AH16" s="55"/>
@@ -20804,7 +20808,9 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="Q17" s="109"/>
+      <c r="Q17" s="109">
+        <v>100</v>
+      </c>
       <c r="R17" s="109"/>
       <c r="S17" s="109" t="s">
         <v>256</v>
@@ -20822,11 +20828,11 @@
       <c r="Z17" s="109"/>
       <c r="AA17" s="60">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AB17" s="67">
         <f t="shared" si="3"/>
-        <v>15.384615384615385</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="AC17" s="111">
         <v>72</v>
@@ -20837,11 +20843,11 @@
       </c>
       <c r="AE17" s="66">
         <f>CRS!H17</f>
-        <v>37.476923076923079</v>
+        <v>50.169230769230765</v>
       </c>
       <c r="AF17" s="64">
         <f>CRS!I17</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG17" s="55"/>
       <c r="AH17" s="55"/>
@@ -21153,7 +21159,9 @@
       <c r="Q21" s="109">
         <v>100</v>
       </c>
-      <c r="R21" s="109"/>
+      <c r="R21" s="109">
+        <v>100</v>
+      </c>
       <c r="S21" s="109">
         <v>15</v>
       </c>
@@ -21170,11 +21178,11 @@
       <c r="Z21" s="109"/>
       <c r="AA21" s="60">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AB21" s="67">
         <f t="shared" si="3"/>
-        <v>57.692307692307686</v>
+        <v>96.15384615384616</v>
       </c>
       <c r="AC21" s="111">
         <v>52</v>
@@ -21185,11 +21193,11 @@
       </c>
       <c r="AE21" s="66">
         <f>CRS!H21</f>
-        <v>61.270461538461539</v>
+        <v>73.962769230769226</v>
       </c>
       <c r="AF21" s="64">
         <f>CRS!I21</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AG21" s="55"/>
       <c r="AH21" s="55"/>
@@ -21327,9 +21335,11 @@
       <c r="Q23" s="109">
         <v>33</v>
       </c>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109" t="s">
-        <v>256</v>
+      <c r="R23" s="109">
+        <v>50</v>
+      </c>
+      <c r="S23" s="109">
+        <v>20</v>
       </c>
       <c r="T23" s="109">
         <v>20</v>
@@ -21344,11 +21354,11 @@
       <c r="Z23" s="109"/>
       <c r="AA23" s="60">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AB23" s="67">
         <f t="shared" si="3"/>
-        <v>28.076923076923077</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="AC23" s="111">
         <v>42</v>
@@ -21359,11 +21369,11 @@
       </c>
       <c r="AE23" s="66">
         <f>CRS!H23</f>
-        <v>44.665384615384617</v>
+        <v>53.550000000000004</v>
       </c>
       <c r="AF23" s="64">
         <f>CRS!I23</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AG23" s="55"/>
       <c r="AH23" s="55"/>
@@ -21469,7 +21479,7 @@
         <v>BSCS-MOBILE TECH TRACK-1</v>
       </c>
       <c r="E25" s="109">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F25" s="109">
         <v>24</v>
@@ -21484,11 +21494,11 @@
       <c r="N25" s="109"/>
       <c r="O25" s="60">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="P25" s="67">
         <f t="shared" si="1"/>
-        <v>19.2</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="Q25" s="109">
         <v>75</v>
@@ -21527,11 +21537,11 @@
       </c>
       <c r="AE25" s="66">
         <f>CRS!H25</f>
-        <v>44.731384615384613</v>
+        <v>50.011384615384614</v>
       </c>
       <c r="AF25" s="64">
         <f>CRS!I25</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="55"/>
@@ -21574,8 +21584,12 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
+      <c r="Q26" s="109">
+        <v>100</v>
+      </c>
+      <c r="R26" s="109">
+        <v>100</v>
+      </c>
       <c r="S26" s="109">
         <v>10</v>
       </c>
@@ -21592,11 +21606,11 @@
       <c r="Z26" s="109"/>
       <c r="AA26" s="60">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AB26" s="67">
         <f t="shared" si="3"/>
-        <v>15.384615384615385</v>
+        <v>92.307692307692307</v>
       </c>
       <c r="AC26" s="111">
         <v>48</v>
@@ -21607,11 +21621,11 @@
       </c>
       <c r="AE26" s="66">
         <f>CRS!H26</f>
-        <v>27.996923076923078</v>
+        <v>53.381538461538462</v>
       </c>
       <c r="AF26" s="64">
         <f>CRS!I26</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG26" s="373"/>
       <c r="AH26" s="371" t="s">
@@ -22359,7 +22373,9 @@
       <c r="Q35" s="109">
         <v>56</v>
       </c>
-      <c r="R35" s="109"/>
+      <c r="R35" s="109">
+        <v>100</v>
+      </c>
       <c r="S35" s="109">
         <v>20</v>
       </c>
@@ -22376,11 +22392,11 @@
       <c r="Z35" s="109"/>
       <c r="AA35" s="60">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="AB35" s="67">
         <f t="shared" si="3"/>
-        <v>44.61538461538462</v>
+        <v>83.07692307692308</v>
       </c>
       <c r="AC35" s="111">
         <v>34</v>
@@ -22391,11 +22407,11 @@
       </c>
       <c r="AE35" s="66">
         <f>CRS!H35</f>
-        <v>50.043076923076931</v>
+        <v>62.735384615384618</v>
       </c>
       <c r="AF35" s="64">
         <f>CRS!I35</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AG35" s="374"/>
       <c r="AH35" s="372"/>
@@ -22797,8 +22813,12 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
+      <c r="Q40" s="109">
+        <v>100</v>
+      </c>
+      <c r="R40" s="109">
+        <v>100</v>
+      </c>
       <c r="S40" s="109">
         <v>15</v>
       </c>
@@ -22815,11 +22835,11 @@
       <c r="Z40" s="109"/>
       <c r="AA40" s="60">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AB40" s="67">
         <f t="shared" si="3"/>
-        <v>19.230769230769234</v>
+        <v>96.15384615384616</v>
       </c>
       <c r="AC40" s="111">
         <v>60</v>
@@ -22830,11 +22850,11 @@
       </c>
       <c r="AE40" s="66">
         <f>CRS!H40</f>
-        <v>42.586153846153849</v>
+        <v>67.970769230769235</v>
       </c>
       <c r="AF40" s="64">
         <f>CRS!I40</f>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AG40" s="374"/>
       <c r="AH40" s="372"/>
@@ -38911,7 +38931,7 @@
       <c r="H22" s="133"/>
       <c r="I22" s="144">
         <f>IF(CRS!I16="","",CRS!I16)</f>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J22" s="145"/>
       <c r="K22" s="144" t="str">
@@ -38970,7 +38990,7 @@
       <c r="H23" s="133"/>
       <c r="I23" s="144">
         <f>IF(CRS!I17="","",CRS!I17)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J23" s="145"/>
       <c r="K23" s="144" t="str">
@@ -39206,7 +39226,7 @@
       <c r="H27" s="133"/>
       <c r="I27" s="144">
         <f>IF(CRS!I21="","",CRS!I21)</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J27" s="145"/>
       <c r="K27" s="144" t="str">
@@ -39324,7 +39344,7 @@
       <c r="H29" s="133"/>
       <c r="I29" s="144">
         <f>IF(CRS!I23="","",CRS!I23)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J29" s="145"/>
       <c r="K29" s="144" t="str">
@@ -39442,7 +39462,7 @@
       <c r="H31" s="133"/>
       <c r="I31" s="144">
         <f>IF(CRS!I25="","",CRS!I25)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" s="145"/>
       <c r="K31" s="144" t="str">
@@ -39501,7 +39521,7 @@
       <c r="H32" s="133"/>
       <c r="I32" s="144">
         <f>IF(CRS!I26="","",CRS!I26)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J32" s="145"/>
       <c r="K32" s="144" t="str">
@@ -40032,7 +40052,7 @@
       <c r="H41" s="133"/>
       <c r="I41" s="144">
         <f>IF(CRS!I35="","",CRS!I35)</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J41" s="145"/>
       <c r="K41" s="144" t="str">
@@ -40327,7 +40347,7 @@
       <c r="H46" s="133"/>
       <c r="I46" s="144">
         <f>IF(CRS!I40="","",CRS!I40)</f>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J46" s="145"/>
       <c r="K46" s="144" t="str">

--- a/2T1617CR/2T1617 - CITCS-ITE3-CITCS 2A.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ITE3-CITCS 2A.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12627,9 +12627,9 @@
         <f>IF(MIDTERM!P10="","",$J$8*MIDTERM!P10)</f>
         <v/>
       </c>
-      <c r="K10" s="83" t="str">
+      <c r="K10" s="83">
         <f>IF(MIDTERM!AB10="","",$K$8*MIDTERM!AB10)</f>
-        <v/>
+        <v>5.94</v>
       </c>
       <c r="L10" s="83">
         <f>IF(MIDTERM!AD10="","",$L$8*MIDTERM!AD10)</f>
@@ -12637,11 +12637,11 @@
       </c>
       <c r="M10" s="86">
         <f t="shared" ref="M10:M40" si="2">IF(SUM(J10:L10)=0,"",SUM(J10:L10))</f>
-        <v>18.8</v>
+        <v>24.740000000000002</v>
       </c>
       <c r="N10" s="87">
         <f>IF(M10="","",('INITIAL INPUT'!$J$25*CRS!H10+'INITIAL INPUT'!$K$25*CRS!M10))</f>
-        <v>43.005538461538457</v>
+        <v>45.975538461538463</v>
       </c>
       <c r="O10" s="85">
         <f>IF(N10="","",VLOOKUP(N10,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -12815,9 +12815,9 @@
         <f>IF(MIDTERM!P12="","",$J$8*MIDTERM!P12)</f>
         <v/>
       </c>
-      <c r="K12" s="83" t="str">
+      <c r="K12" s="83">
         <f>IF(MIDTERM!AB12="","",$K$8*MIDTERM!AB12)</f>
-        <v/>
+        <v>5.94</v>
       </c>
       <c r="L12" s="83">
         <f>IF(MIDTERM!AD12="","",$L$8*MIDTERM!AD12)</f>
@@ -12825,11 +12825,11 @@
       </c>
       <c r="M12" s="86">
         <f t="shared" si="2"/>
-        <v>13.200000000000003</v>
+        <v>19.140000000000004</v>
       </c>
       <c r="N12" s="87">
         <f>IF(M12="","",('INITIAL INPUT'!$J$25*CRS!H12+'INITIAL INPUT'!$K$25*CRS!M12))</f>
-        <v>26.854923076923079</v>
+        <v>29.824923076923078</v>
       </c>
       <c r="O12" s="85">
         <f>IF(N12="","",VLOOKUP(N12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -12909,9 +12909,9 @@
         <f>IF(MIDTERM!P13="","",$J$8*MIDTERM!P13)</f>
         <v/>
       </c>
-      <c r="K13" s="83" t="str">
+      <c r="K13" s="83">
         <f>IF(MIDTERM!AB13="","",$K$8*MIDTERM!AB13)</f>
-        <v/>
+        <v>5.28</v>
       </c>
       <c r="L13" s="83">
         <f>IF(MIDTERM!AD13="","",$L$8*MIDTERM!AD13)</f>
@@ -12919,11 +12919,11 @@
       </c>
       <c r="M13" s="86">
         <f t="shared" si="2"/>
-        <v>21.200000000000003</v>
+        <v>26.480000000000004</v>
       </c>
       <c r="N13" s="87">
         <f>IF(M13="","",('INITIAL INPUT'!$J$25*CRS!H13+'INITIAL INPUT'!$K$25*CRS!M13))</f>
-        <v>36.417538461538463</v>
+        <v>39.057538461538464</v>
       </c>
       <c r="O13" s="85">
         <f>IF(N13="","",VLOOKUP(N13,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -13097,9 +13097,9 @@
         <f>IF(MIDTERM!P15="","",$J$8*MIDTERM!P15)</f>
         <v/>
       </c>
-      <c r="K15" s="83" t="str">
+      <c r="K15" s="83">
         <f>IF(MIDTERM!AB15="","",$K$8*MIDTERM!AB15)</f>
-        <v/>
+        <v>6.8640000000000008</v>
       </c>
       <c r="L15" s="83">
         <f>IF(MIDTERM!AD15="","",$L$8*MIDTERM!AD15)</f>
@@ -13107,11 +13107,11 @@
       </c>
       <c r="M15" s="86">
         <f t="shared" si="2"/>
-        <v>17.2</v>
+        <v>24.064</v>
       </c>
       <c r="N15" s="87">
         <f>IF(M15="","",('INITIAL INPUT'!$J$25*CRS!H15+'INITIAL INPUT'!$K$25*CRS!M15))</f>
-        <v>39.20269230769231</v>
+        <v>42.634692307692305</v>
       </c>
       <c r="O15" s="85">
         <f>IF(N15="","",VLOOKUP(N15,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -13473,9 +13473,9 @@
         <f>IF(MIDTERM!P19="","",$J$8*MIDTERM!P19)</f>
         <v/>
       </c>
-      <c r="K19" s="83" t="str">
+      <c r="K19" s="83">
         <f>IF(MIDTERM!AB19="","",$K$8*MIDTERM!AB19)</f>
-        <v/>
+        <v>7.92</v>
       </c>
       <c r="L19" s="83">
         <f>IF(MIDTERM!AD19="","",$L$8*MIDTERM!AD19)</f>
@@ -13483,15 +13483,15 @@
       </c>
       <c r="M19" s="86">
         <f t="shared" si="2"/>
-        <v>21.200000000000003</v>
+        <v>29.120000000000005</v>
       </c>
       <c r="N19" s="87">
         <f>IF(M19="","",('INITIAL INPUT'!$J$25*CRS!H19+'INITIAL INPUT'!$K$25*CRS!M19))</f>
-        <v>42.84284615384616</v>
+        <v>46.802846153846161</v>
       </c>
       <c r="O19" s="85">
         <f>IF(N19="","",VLOOKUP(N19,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="83" t="str">
         <f>IF(FINAL!P19="","",CRS!$P$8*FINAL!P19)</f>
@@ -13567,9 +13567,9 @@
         <f>IF(MIDTERM!P20="","",$J$8*MIDTERM!P20)</f>
         <v/>
       </c>
-      <c r="K20" s="83" t="str">
+      <c r="K20" s="83">
         <f>IF(MIDTERM!AB20="","",$K$8*MIDTERM!AB20)</f>
-        <v/>
+        <v>5.28</v>
       </c>
       <c r="L20" s="83">
         <f>IF(MIDTERM!AD20="","",$L$8*MIDTERM!AD20)</f>
@@ -13577,11 +13577,11 @@
       </c>
       <c r="M20" s="86">
         <f t="shared" si="2"/>
-        <v>24.8</v>
+        <v>30.080000000000002</v>
       </c>
       <c r="N20" s="87">
         <f>IF(M20="","",('INITIAL INPUT'!$J$25*CRS!H20+'INITIAL INPUT'!$K$25*CRS!M20))</f>
-        <v>43.512</v>
+        <v>46.152000000000001</v>
       </c>
       <c r="O20" s="85">
         <f>IF(N20="","",VLOOKUP(N20,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -13849,9 +13849,9 @@
         <f>IF(MIDTERM!P23="","",$J$8*MIDTERM!P23)</f>
         <v/>
       </c>
-      <c r="K23" s="83" t="str">
+      <c r="K23" s="83">
         <f>IF(MIDTERM!AB23="","",$K$8*MIDTERM!AB23)</f>
-        <v/>
+        <v>7.92</v>
       </c>
       <c r="L23" s="83">
         <f>IF(MIDTERM!AD23="","",$L$8*MIDTERM!AD23)</f>
@@ -13859,11 +13859,11 @@
       </c>
       <c r="M23" s="86">
         <f t="shared" si="2"/>
-        <v>20.400000000000002</v>
+        <v>28.32</v>
       </c>
       <c r="N23" s="87">
         <f>IF(M23="","",('INITIAL INPUT'!$J$25*CRS!H23+'INITIAL INPUT'!$K$25*CRS!M23))</f>
-        <v>36.975000000000001</v>
+        <v>40.935000000000002</v>
       </c>
       <c r="O23" s="85">
         <f>IF(N23="","",VLOOKUP(N23,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -13943,9 +13943,9 @@
         <f>IF(MIDTERM!P24="","",$J$8*MIDTERM!P24)</f>
         <v/>
       </c>
-      <c r="K24" s="83" t="str">
+      <c r="K24" s="83">
         <f>IF(MIDTERM!AB24="","",$K$8*MIDTERM!AB24)</f>
-        <v/>
+        <v>8.3160000000000007</v>
       </c>
       <c r="L24" s="83">
         <f>IF(MIDTERM!AD24="","",$L$8*MIDTERM!AD24)</f>
@@ -13953,15 +13953,15 @@
       </c>
       <c r="M24" s="86">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>30.316000000000003</v>
       </c>
       <c r="N24" s="87">
         <f>IF(M24="","",('INITIAL INPUT'!$J$25*CRS!H24+'INITIAL INPUT'!$K$25*CRS!M24))</f>
-        <v>30.181692307692305</v>
+        <v>34.339692307692303</v>
       </c>
       <c r="O24" s="85">
         <f>IF(N24="","",VLOOKUP(N24,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" s="83" t="str">
         <f>IF(FINAL!P24="","",CRS!$P$8*FINAL!P24)</f>
@@ -14037,25 +14037,25 @@
         <f>IF(MIDTERM!P25="","",$J$8*MIDTERM!P25)</f>
         <v/>
       </c>
-      <c r="K25" s="83" t="str">
+      <c r="K25" s="83">
         <f>IF(MIDTERM!AB25="","",$K$8*MIDTERM!AB25)</f>
-        <v/>
+        <v>5.94</v>
       </c>
       <c r="L25" s="83" t="str">
         <f>IF(MIDTERM!AD25="","",$L$8*MIDTERM!AD25)</f>
         <v/>
       </c>
-      <c r="M25" s="86" t="str">
+      <c r="M25" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N25" s="87" t="str">
+        <v>5.94</v>
+      </c>
+      <c r="N25" s="87">
         <f>IF(M25="","",('INITIAL INPUT'!$J$25*CRS!H25+'INITIAL INPUT'!$K$25*CRS!M25))</f>
-        <v/>
-      </c>
-      <c r="O25" s="85" t="str">
+        <v>27.975692307692306</v>
+      </c>
+      <c r="O25" s="85">
         <f>IF(N25="","",VLOOKUP(N25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="P25" s="83" t="str">
         <f>IF(FINAL!P25="","",CRS!$P$8*FINAL!P25)</f>
@@ -14131,25 +14131,25 @@
         <f>IF(MIDTERM!P26="","",$J$8*MIDTERM!P26)</f>
         <v/>
       </c>
-      <c r="K26" s="83" t="str">
+      <c r="K26" s="83">
         <f>IF(MIDTERM!AB26="","",$K$8*MIDTERM!AB26)</f>
-        <v/>
+        <v>2.3759999999999999</v>
       </c>
       <c r="L26" s="83" t="str">
         <f>IF(MIDTERM!AD26="","",$L$8*MIDTERM!AD26)</f>
         <v/>
       </c>
-      <c r="M26" s="86" t="str">
+      <c r="M26" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N26" s="87" t="str">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="N26" s="87">
         <f>IF(M26="","",('INITIAL INPUT'!$J$25*CRS!H26+'INITIAL INPUT'!$K$25*CRS!M26))</f>
-        <v/>
-      </c>
-      <c r="O26" s="85" t="str">
+        <v>27.87876923076923</v>
+      </c>
+      <c r="O26" s="85">
         <f>IF(N26="","",VLOOKUP(N26,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="P26" s="83" t="str">
         <f>IF(FINAL!P26="","",CRS!$P$8*FINAL!P26)</f>
@@ -14228,9 +14228,9 @@
         <f>IF(MIDTERM!P27="","",$J$8*MIDTERM!P27)</f>
         <v/>
       </c>
-      <c r="K27" s="83" t="str">
+      <c r="K27" s="83">
         <f>IF(MIDTERM!AB27="","",$K$8*MIDTERM!AB27)</f>
-        <v/>
+        <v>7.2600000000000007</v>
       </c>
       <c r="L27" s="83">
         <f>IF(MIDTERM!AD27="","",$L$8*MIDTERM!AD27)</f>
@@ -14238,11 +14238,11 @@
       </c>
       <c r="M27" s="86">
         <f t="shared" si="2"/>
-        <v>26.400000000000006</v>
+        <v>33.660000000000004</v>
       </c>
       <c r="N27" s="87">
         <f>IF(M27="","",('INITIAL INPUT'!$J$25*CRS!H27+'INITIAL INPUT'!$K$25*CRS!M27))</f>
-        <v>45.961384615384617</v>
+        <v>49.591384615384612</v>
       </c>
       <c r="O27" s="85">
         <f>IF(N27="","",VLOOKUP(N27,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -14323,9 +14323,9 @@
         <f>IF(MIDTERM!P28="","",$J$8*MIDTERM!P28)</f>
         <v/>
       </c>
-      <c r="K28" s="83" t="str">
+      <c r="K28" s="83">
         <f>IF(MIDTERM!AB28="","",$K$8*MIDTERM!AB28)</f>
-        <v/>
+        <v>7.2600000000000007</v>
       </c>
       <c r="L28" s="83">
         <f>IF(MIDTERM!AD28="","",$L$8*MIDTERM!AD28)</f>
@@ -14333,15 +14333,15 @@
       </c>
       <c r="M28" s="86">
         <f t="shared" si="2"/>
-        <v>23.6</v>
+        <v>30.860000000000003</v>
       </c>
       <c r="N28" s="87">
         <f>IF(M28="","",('INITIAL INPUT'!$J$25*CRS!H28+'INITIAL INPUT'!$K$25*CRS!M28))</f>
-        <v>51.257384615384623</v>
+        <v>54.887384615384619</v>
       </c>
       <c r="O28" s="85">
         <f>IF(N28="","",VLOOKUP(N28,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P28" s="83" t="str">
         <f>IF(FINAL!P28="","",CRS!$P$8*FINAL!P28)</f>
@@ -14608,9 +14608,9 @@
         <f>IF(MIDTERM!P31="","",$J$8*MIDTERM!P31)</f>
         <v/>
       </c>
-      <c r="K31" s="83" t="str">
+      <c r="K31" s="83">
         <f>IF(MIDTERM!AB31="","",$K$8*MIDTERM!AB31)</f>
-        <v/>
+        <v>5.94</v>
       </c>
       <c r="L31" s="83">
         <f>IF(MIDTERM!AD31="","",$L$8*MIDTERM!AD31)</f>
@@ -14618,11 +14618,11 @@
       </c>
       <c r="M31" s="86">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>27.94</v>
       </c>
       <c r="N31" s="87">
         <f>IF(M31="","",('INITIAL INPUT'!$J$25*CRS!H31+'INITIAL INPUT'!$K$25*CRS!M31))</f>
-        <v>39.752307692307696</v>
+        <v>42.722307692307695</v>
       </c>
       <c r="O31" s="85">
         <f>IF(N31="","",VLOOKUP(N31,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -14703,9 +14703,9 @@
         <f>IF(MIDTERM!P32="","",$J$8*MIDTERM!P32)</f>
         <v/>
       </c>
-      <c r="K32" s="83" t="str">
+      <c r="K32" s="83">
         <f>IF(MIDTERM!AB32="","",$K$8*MIDTERM!AB32)</f>
-        <v/>
+        <v>5.28</v>
       </c>
       <c r="L32" s="83">
         <f>IF(MIDTERM!AD32="","",$L$8*MIDTERM!AD32)</f>
@@ -14713,15 +14713,15 @@
       </c>
       <c r="M32" s="86">
         <f t="shared" si="2"/>
-        <v>25.6</v>
+        <v>30.880000000000003</v>
       </c>
       <c r="N32" s="87">
         <f>IF(M32="","",('INITIAL INPUT'!$J$25*CRS!H32+'INITIAL INPUT'!$K$25*CRS!M32))</f>
-        <v>40.873307692307691</v>
+        <v>43.513307692307691</v>
       </c>
       <c r="O32" s="85">
         <f>IF(N32="","",VLOOKUP(N32,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P32" s="83" t="str">
         <f>IF(FINAL!P32="","",CRS!$P$8*FINAL!P32)</f>
@@ -14798,9 +14798,9 @@
         <f>IF(MIDTERM!P33="","",$J$8*MIDTERM!P33)</f>
         <v/>
       </c>
-      <c r="K33" s="83" t="str">
+      <c r="K33" s="83">
         <f>IF(MIDTERM!AB33="","",$K$8*MIDTERM!AB33)</f>
-        <v/>
+        <v>5.94</v>
       </c>
       <c r="L33" s="83">
         <f>IF(MIDTERM!AD33="","",$L$8*MIDTERM!AD33)</f>
@@ -14808,11 +14808,11 @@
       </c>
       <c r="M33" s="86">
         <f t="shared" si="2"/>
-        <v>18.8</v>
+        <v>24.740000000000002</v>
       </c>
       <c r="N33" s="87">
         <f>IF(M33="","",('INITIAL INPUT'!$J$25*CRS!H33+'INITIAL INPUT'!$K$25*CRS!M33))</f>
-        <v>34.644153846153849</v>
+        <v>37.614153846153847</v>
       </c>
       <c r="O33" s="85">
         <f>IF(N33="","",VLOOKUP(N33,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -15083,9 +15083,9 @@
         <f>IF(MIDTERM!P36="","",$J$8*MIDTERM!P36)</f>
         <v/>
       </c>
-      <c r="K36" s="83" t="str">
+      <c r="K36" s="83">
         <f>IF(MIDTERM!AB36="","",$K$8*MIDTERM!AB36)</f>
-        <v/>
+        <v>7.2600000000000007</v>
       </c>
       <c r="L36" s="83">
         <f>IF(MIDTERM!AD36="","",$L$8*MIDTERM!AD36)</f>
@@ -15093,11 +15093,11 @@
       </c>
       <c r="M36" s="86">
         <f t="shared" si="2"/>
-        <v>12.4</v>
+        <v>19.66</v>
       </c>
       <c r="N36" s="87">
         <f>IF(M36="","",('INITIAL INPUT'!$J$25*CRS!H36+'INITIAL INPUT'!$K$25*CRS!M36))</f>
-        <v>22.299461538461539</v>
+        <v>25.929461538461538</v>
       </c>
       <c r="O36" s="85">
         <f>IF(N36="","",VLOOKUP(N36,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -15178,9 +15178,9 @@
         <f>IF(MIDTERM!P37="","",$J$8*MIDTERM!P37)</f>
         <v/>
       </c>
-      <c r="K37" s="83" t="str">
+      <c r="K37" s="83">
         <f>IF(MIDTERM!AB37="","",$K$8*MIDTERM!AB37)</f>
-        <v/>
+        <v>3.96</v>
       </c>
       <c r="L37" s="83">
         <f>IF(MIDTERM!AD37="","",$L$8*MIDTERM!AD37)</f>
@@ -15188,11 +15188,11 @@
       </c>
       <c r="M37" s="86">
         <f t="shared" si="2"/>
-        <v>27.200000000000003</v>
+        <v>31.160000000000004</v>
       </c>
       <c r="N37" s="87">
         <f>IF(M37="","",('INITIAL INPUT'!$J$25*CRS!H37+'INITIAL INPUT'!$K$25*CRS!M37))</f>
-        <v>43.165769230769236</v>
+        <v>45.145769230769233</v>
       </c>
       <c r="O37" s="85">
         <f>IF(N37="","",VLOOKUP(N37,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -15273,9 +15273,9 @@
         <f>IF(MIDTERM!P38="","",$J$8*MIDTERM!P38)</f>
         <v/>
       </c>
-      <c r="K38" s="83" t="str">
+      <c r="K38" s="83">
         <f>IF(MIDTERM!AB38="","",$K$8*MIDTERM!AB38)</f>
-        <v/>
+        <v>3.96</v>
       </c>
       <c r="L38" s="83">
         <f>IF(MIDTERM!AD38="","",$L$8*MIDTERM!AD38)</f>
@@ -15283,15 +15283,15 @@
       </c>
       <c r="M38" s="86">
         <f t="shared" si="2"/>
-        <v>30.000000000000004</v>
+        <v>33.96</v>
       </c>
       <c r="N38" s="87">
         <f>IF(M38="","",('INITIAL INPUT'!$J$25*CRS!H38+'INITIAL INPUT'!$K$25*CRS!M38))</f>
-        <v>57.526692307692308</v>
+        <v>59.506692307692305</v>
       </c>
       <c r="O38" s="85">
         <f>IF(N38="","",VLOOKUP(N38,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P38" s="83" t="str">
         <f>IF(FINAL!P38="","",CRS!$P$8*FINAL!P38)</f>
@@ -15463,9 +15463,9 @@
         <f>IF(MIDTERM!P40="","",$J$8*MIDTERM!P40)</f>
         <v/>
       </c>
-      <c r="K40" s="83" t="str">
+      <c r="K40" s="83">
         <f>IF(MIDTERM!AB40="","",$K$8*MIDTERM!AB40)</f>
-        <v/>
+        <v>8.3160000000000007</v>
       </c>
       <c r="L40" s="83">
         <f>IF(MIDTERM!AD40="","",$L$8*MIDTERM!AD40)</f>
@@ -15473,15 +15473,15 @@
       </c>
       <c r="M40" s="86">
         <f t="shared" si="2"/>
-        <v>25.200000000000003</v>
+        <v>33.516000000000005</v>
       </c>
       <c r="N40" s="87">
         <f>IF(M40="","",('INITIAL INPUT'!$J$25*CRS!H40+'INITIAL INPUT'!$K$25*CRS!M40))</f>
-        <v>46.585384615384619</v>
+        <v>50.74338461538462</v>
       </c>
       <c r="O40" s="85">
         <f>IF(N40="","",VLOOKUP(N40,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P40" s="83" t="str">
         <f>IF(FINAL!P40="","",CRS!$P$8*FINAL!P40)</f>
@@ -16244,9 +16244,9 @@
         <f>IF(MIDTERM!P54="","",$J$8*MIDTERM!P54)</f>
         <v/>
       </c>
-      <c r="K54" s="83" t="str">
+      <c r="K54" s="83">
         <f>IF(MIDTERM!AB54="","",$K$8*MIDTERM!AB54)</f>
-        <v/>
+        <v>3.96</v>
       </c>
       <c r="L54" s="83">
         <f>IF(MIDTERM!AD54="","",$L$8*MIDTERM!AD54)</f>
@@ -16254,11 +16254,11 @@
       </c>
       <c r="M54" s="86">
         <f t="shared" si="7"/>
-        <v>14.800000000000002</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="N54" s="87">
         <f>IF(M54="","",('INITIAL INPUT'!$J$25*CRS!H54+'INITIAL INPUT'!$K$25*CRS!M54))</f>
-        <v>32.698230769230769</v>
+        <v>34.678230769230773</v>
       </c>
       <c r="O54" s="85">
         <f>IF(N54="","",VLOOKUP(N54,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -16338,9 +16338,9 @@
         <f>IF(MIDTERM!P55="","",$J$8*MIDTERM!P55)</f>
         <v/>
       </c>
-      <c r="K55" s="83" t="str">
+      <c r="K55" s="83">
         <f>IF(MIDTERM!AB55="","",$K$8*MIDTERM!AB55)</f>
-        <v/>
+        <v>5.94</v>
       </c>
       <c r="L55" s="83">
         <f>IF(MIDTERM!AD55="","",$L$8*MIDTERM!AD55)</f>
@@ -16348,11 +16348,11 @@
       </c>
       <c r="M55" s="86">
         <f t="shared" si="7"/>
-        <v>18.400000000000002</v>
+        <v>24.340000000000003</v>
       </c>
       <c r="N55" s="87">
         <f>IF(M55="","",('INITIAL INPUT'!$J$25*CRS!H55+'INITIAL INPUT'!$K$25*CRS!M55))</f>
-        <v>34.149538461538462</v>
+        <v>37.119538461538468</v>
       </c>
       <c r="O55" s="85">
         <f>IF(N55="","",VLOOKUP(N55,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -26147,8 +26147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC56" sqref="AC56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26721,8 +26721,12 @@
         <f t="shared" ref="P10:P40" si="1">IF(O10="","",O10/$O$6*100)</f>
         <v/>
       </c>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
+      <c r="Q10" s="109">
+        <v>25</v>
+      </c>
+      <c r="R10" s="109">
+        <v>20</v>
+      </c>
       <c r="S10" s="109"/>
       <c r="T10" s="109"/>
       <c r="U10" s="109"/>
@@ -26731,13 +26735,13 @@
       <c r="X10" s="109"/>
       <c r="Y10" s="109"/>
       <c r="Z10" s="109"/>
-      <c r="AA10" s="60" t="str">
+      <c r="AA10" s="60">
         <f t="shared" ref="AA10:AA40" si="2">IF(SUM(Q10:Z10)=0,"",SUM(Q10:Z10))</f>
-        <v/>
-      </c>
-      <c r="AB10" s="67" t="str">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="67">
         <f t="shared" ref="AB10:AB40" si="3">IF(AA10="","",AA10/$AA$6*100)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AC10" s="111">
         <v>47</v>
@@ -26748,11 +26752,11 @@
       </c>
       <c r="AE10" s="112">
         <f>CRS!M10</f>
-        <v>18.8</v>
+        <v>24.740000000000002</v>
       </c>
       <c r="AF10" s="66">
         <f>CRS!N10</f>
-        <v>43.005538461538457</v>
+        <v>45.975538461538463</v>
       </c>
       <c r="AG10" s="64">
         <f>CRS!O10</f>
@@ -26875,8 +26879,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
+      <c r="Q12" s="109">
+        <v>20</v>
+      </c>
+      <c r="R12" s="109">
+        <v>25</v>
+      </c>
       <c r="S12" s="109"/>
       <c r="T12" s="109"/>
       <c r="U12" s="109"/>
@@ -26885,13 +26893,13 @@
       <c r="X12" s="109"/>
       <c r="Y12" s="109"/>
       <c r="Z12" s="109"/>
-      <c r="AA12" s="60" t="str">
+      <c r="AA12" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB12" s="67" t="str">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AC12" s="111">
         <v>33</v>
@@ -26902,11 +26910,11 @@
       </c>
       <c r="AE12" s="112">
         <f>CRS!M12</f>
-        <v>13.200000000000003</v>
+        <v>19.140000000000004</v>
       </c>
       <c r="AF12" s="66">
         <f>CRS!N12</f>
-        <v>26.854923076923079</v>
+        <v>29.824923076923078</v>
       </c>
       <c r="AG12" s="64">
         <f>CRS!O12</f>
@@ -26953,7 +26961,9 @@
         <v/>
       </c>
       <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
+      <c r="R13" s="109">
+        <v>40</v>
+      </c>
       <c r="S13" s="109"/>
       <c r="T13" s="109"/>
       <c r="U13" s="109"/>
@@ -26962,13 +26972,13 @@
       <c r="X13" s="109"/>
       <c r="Y13" s="109"/>
       <c r="Z13" s="109"/>
-      <c r="AA13" s="60" t="str">
+      <c r="AA13" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB13" s="67" t="str">
+        <v>40</v>
+      </c>
+      <c r="AB13" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="AC13" s="111">
         <v>53</v>
@@ -26979,11 +26989,11 @@
       </c>
       <c r="AE13" s="112">
         <f>CRS!M13</f>
-        <v>21.200000000000003</v>
+        <v>26.480000000000004</v>
       </c>
       <c r="AF13" s="66">
         <f>CRS!N13</f>
-        <v>36.417538461538463</v>
+        <v>39.057538461538464</v>
       </c>
       <c r="AG13" s="64">
         <f>CRS!O13</f>
@@ -27106,8 +27116,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
+      <c r="Q15" s="109">
+        <v>32</v>
+      </c>
+      <c r="R15" s="109">
+        <v>20</v>
+      </c>
       <c r="S15" s="109"/>
       <c r="T15" s="109"/>
       <c r="U15" s="109"/>
@@ -27116,13 +27130,13 @@
       <c r="X15" s="109"/>
       <c r="Y15" s="109"/>
       <c r="Z15" s="109"/>
-      <c r="AA15" s="60" t="str">
+      <c r="AA15" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB15" s="67" t="str">
+        <v>52</v>
+      </c>
+      <c r="AB15" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>20.8</v>
       </c>
       <c r="AC15" s="111">
         <v>43</v>
@@ -27133,11 +27147,11 @@
       </c>
       <c r="AE15" s="112">
         <f>CRS!M15</f>
-        <v>17.2</v>
+        <v>24.064</v>
       </c>
       <c r="AF15" s="66">
         <f>CRS!N15</f>
-        <v>39.20269230769231</v>
+        <v>42.634692307692305</v>
       </c>
       <c r="AG15" s="64">
         <f>CRS!O15</f>
@@ -27408,8 +27422,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
+      <c r="Q19" s="109">
+        <v>30</v>
+      </c>
+      <c r="R19" s="109">
+        <v>30</v>
+      </c>
       <c r="S19" s="109"/>
       <c r="T19" s="109"/>
       <c r="U19" s="109"/>
@@ -27418,13 +27436,13 @@
       <c r="X19" s="109"/>
       <c r="Y19" s="109"/>
       <c r="Z19" s="109"/>
-      <c r="AA19" s="60" t="str">
+      <c r="AA19" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB19" s="67" t="str">
+        <v>60</v>
+      </c>
+      <c r="AB19" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AC19" s="111">
         <v>53</v>
@@ -27435,15 +27453,15 @@
       </c>
       <c r="AE19" s="112">
         <f>CRS!M19</f>
-        <v>21.200000000000003</v>
+        <v>29.120000000000005</v>
       </c>
       <c r="AF19" s="66">
         <f>CRS!N19</f>
-        <v>42.84284615384616</v>
+        <v>46.802846153846161</v>
       </c>
       <c r="AG19" s="64">
         <f>CRS!O19</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH19" s="55"/>
       <c r="AI19" s="55"/>
@@ -27483,7 +27501,9 @@
         <v/>
       </c>
       <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
+      <c r="R20" s="109">
+        <v>40</v>
+      </c>
       <c r="S20" s="109"/>
       <c r="T20" s="109"/>
       <c r="U20" s="109"/>
@@ -27492,13 +27512,13 @@
       <c r="X20" s="109"/>
       <c r="Y20" s="109"/>
       <c r="Z20" s="109"/>
-      <c r="AA20" s="60" t="str">
+      <c r="AA20" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB20" s="67" t="str">
+        <v>40</v>
+      </c>
+      <c r="AB20" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="AC20" s="111">
         <v>62</v>
@@ -27509,11 +27529,11 @@
       </c>
       <c r="AE20" s="112">
         <f>CRS!M20</f>
-        <v>24.8</v>
+        <v>30.080000000000002</v>
       </c>
       <c r="AF20" s="66">
         <f>CRS!N20</f>
-        <v>43.512</v>
+        <v>46.152000000000001</v>
       </c>
       <c r="AG20" s="64">
         <f>CRS!O20</f>
@@ -27704,8 +27724,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
+      <c r="Q23" s="109">
+        <v>30</v>
+      </c>
+      <c r="R23" s="109">
+        <v>30</v>
+      </c>
       <c r="S23" s="109"/>
       <c r="T23" s="109"/>
       <c r="U23" s="109"/>
@@ -27714,13 +27738,13 @@
       <c r="X23" s="109"/>
       <c r="Y23" s="109"/>
       <c r="Z23" s="109"/>
-      <c r="AA23" s="60" t="str">
+      <c r="AA23" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB23" s="67" t="str">
+        <v>60</v>
+      </c>
+      <c r="AB23" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AC23" s="111">
         <v>51</v>
@@ -27731,11 +27755,11 @@
       </c>
       <c r="AE23" s="112">
         <f>CRS!M23</f>
-        <v>20.400000000000002</v>
+        <v>28.32</v>
       </c>
       <c r="AF23" s="66">
         <f>CRS!N23</f>
-        <v>36.975000000000001</v>
+        <v>40.935000000000002</v>
       </c>
       <c r="AG23" s="64">
         <f>CRS!O23</f>
@@ -27778,8 +27802,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
+      <c r="Q24" s="109">
+        <v>30</v>
+      </c>
+      <c r="R24" s="109">
+        <v>33</v>
+      </c>
       <c r="S24" s="109"/>
       <c r="T24" s="109"/>
       <c r="U24" s="109"/>
@@ -27788,13 +27816,13 @@
       <c r="X24" s="109"/>
       <c r="Y24" s="109"/>
       <c r="Z24" s="109"/>
-      <c r="AA24" s="60" t="str">
+      <c r="AA24" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB24" s="67" t="str">
+        <v>63</v>
+      </c>
+      <c r="AB24" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>25.2</v>
       </c>
       <c r="AC24" s="111">
         <v>55</v>
@@ -27805,15 +27833,15 @@
       </c>
       <c r="AE24" s="112">
         <f>CRS!M24</f>
-        <v>22</v>
+        <v>30.316000000000003</v>
       </c>
       <c r="AF24" s="66">
         <f>CRS!N24</f>
-        <v>30.181692307692305</v>
+        <v>34.339692307692303</v>
       </c>
       <c r="AG24" s="64">
         <f>CRS!O24</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH24" s="55"/>
       <c r="AI24" s="55"/>
@@ -27852,8 +27880,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
+      <c r="Q25" s="109">
+        <v>20</v>
+      </c>
+      <c r="R25" s="109">
+        <v>25</v>
+      </c>
       <c r="S25" s="109"/>
       <c r="T25" s="109"/>
       <c r="U25" s="109"/>
@@ -27862,30 +27894,30 @@
       <c r="X25" s="109"/>
       <c r="Y25" s="109"/>
       <c r="Z25" s="109"/>
-      <c r="AA25" s="60" t="str">
+      <c r="AA25" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB25" s="67" t="str">
+        <v>45</v>
+      </c>
+      <c r="AB25" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AC25" s="111"/>
       <c r="AD25" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE25" s="112" t="str">
+      <c r="AE25" s="112">
         <f>CRS!M25</f>
-        <v/>
-      </c>
-      <c r="AF25" s="66" t="str">
+        <v>5.94</v>
+      </c>
+      <c r="AF25" s="66">
         <f>CRS!N25</f>
-        <v/>
-      </c>
-      <c r="AG25" s="64" t="str">
+        <v>27.975692307692306</v>
+      </c>
+      <c r="AG25" s="64">
         <f>CRS!O25</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="AH25" s="55"/>
       <c r="AI25" s="55"/>
@@ -27924,7 +27956,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q26" s="109"/>
+      <c r="Q26" s="109">
+        <v>18</v>
+      </c>
       <c r="R26" s="109"/>
       <c r="S26" s="109"/>
       <c r="T26" s="109"/>
@@ -27934,30 +27968,30 @@
       <c r="X26" s="109"/>
       <c r="Y26" s="109"/>
       <c r="Z26" s="109"/>
-      <c r="AA26" s="60" t="str">
+      <c r="AA26" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB26" s="67" t="str">
+        <v>18</v>
+      </c>
+      <c r="AB26" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7.1999999999999993</v>
       </c>
       <c r="AC26" s="111"/>
       <c r="AD26" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE26" s="112" t="str">
+      <c r="AE26" s="112">
         <f>CRS!M26</f>
-        <v/>
-      </c>
-      <c r="AF26" s="66" t="str">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="AF26" s="66">
         <f>CRS!N26</f>
-        <v/>
-      </c>
-      <c r="AG26" s="64" t="str">
+        <v>27.87876923076923</v>
+      </c>
+      <c r="AG26" s="64">
         <f>CRS!O26</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="AH26" s="300"/>
       <c r="AI26" s="298" t="s">
@@ -27998,8 +28032,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
+      <c r="Q27" s="109">
+        <v>30</v>
+      </c>
+      <c r="R27" s="109">
+        <v>25</v>
+      </c>
       <c r="S27" s="109"/>
       <c r="T27" s="109"/>
       <c r="U27" s="109"/>
@@ -28008,13 +28046,13 @@
       <c r="X27" s="109"/>
       <c r="Y27" s="109"/>
       <c r="Z27" s="109"/>
-      <c r="AA27" s="60" t="str">
+      <c r="AA27" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB27" s="67" t="str">
+        <v>55</v>
+      </c>
+      <c r="AB27" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC27" s="111">
         <v>66</v>
@@ -28025,11 +28063,11 @@
       </c>
       <c r="AE27" s="112">
         <f>CRS!M27</f>
-        <v>26.400000000000006</v>
+        <v>33.660000000000004</v>
       </c>
       <c r="AF27" s="66">
         <f>CRS!N27</f>
-        <v>45.961384615384617</v>
+        <v>49.591384615384612</v>
       </c>
       <c r="AG27" s="64">
         <f>CRS!O27</f>
@@ -28072,8 +28110,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
+      <c r="Q28" s="109">
+        <v>30</v>
+      </c>
+      <c r="R28" s="109">
+        <v>25</v>
+      </c>
       <c r="S28" s="109"/>
       <c r="T28" s="109"/>
       <c r="U28" s="109"/>
@@ -28082,13 +28124,13 @@
       <c r="X28" s="109"/>
       <c r="Y28" s="109"/>
       <c r="Z28" s="109"/>
-      <c r="AA28" s="60" t="str">
+      <c r="AA28" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB28" s="67" t="str">
+        <v>55</v>
+      </c>
+      <c r="AB28" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC28" s="111">
         <v>59</v>
@@ -28099,15 +28141,15 @@
       </c>
       <c r="AE28" s="112">
         <f>CRS!M28</f>
-        <v>23.6</v>
+        <v>30.860000000000003</v>
       </c>
       <c r="AF28" s="66">
         <f>CRS!N28</f>
-        <v>51.257384615384623</v>
+        <v>54.887384615384619</v>
       </c>
       <c r="AG28" s="64">
         <f>CRS!O28</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH28" s="301"/>
       <c r="AI28" s="299"/>
@@ -28292,8 +28334,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
+      <c r="Q31" s="109">
+        <v>25</v>
+      </c>
+      <c r="R31" s="109">
+        <v>20</v>
+      </c>
       <c r="S31" s="109"/>
       <c r="T31" s="109"/>
       <c r="U31" s="109"/>
@@ -28302,13 +28348,13 @@
       <c r="X31" s="109"/>
       <c r="Y31" s="109"/>
       <c r="Z31" s="109"/>
-      <c r="AA31" s="60" t="str">
+      <c r="AA31" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB31" s="67" t="str">
+        <v>45</v>
+      </c>
+      <c r="AB31" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AC31" s="111">
         <v>55</v>
@@ -28319,11 +28365,11 @@
       </c>
       <c r="AE31" s="112">
         <f>CRS!M31</f>
-        <v>22</v>
+        <v>27.94</v>
       </c>
       <c r="AF31" s="66">
         <f>CRS!N31</f>
-        <v>39.752307692307696</v>
+        <v>42.722307692307695</v>
       </c>
       <c r="AG31" s="64">
         <f>CRS!O31</f>
@@ -28367,7 +28413,9 @@
         <v/>
       </c>
       <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
+      <c r="R32" s="109">
+        <v>40</v>
+      </c>
       <c r="S32" s="109"/>
       <c r="T32" s="109"/>
       <c r="U32" s="109"/>
@@ -28376,13 +28424,13 @@
       <c r="X32" s="109"/>
       <c r="Y32" s="109"/>
       <c r="Z32" s="109"/>
-      <c r="AA32" s="60" t="str">
+      <c r="AA32" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB32" s="67" t="str">
+        <v>40</v>
+      </c>
+      <c r="AB32" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="AC32" s="111">
         <v>64</v>
@@ -28393,15 +28441,15 @@
       </c>
       <c r="AE32" s="112">
         <f>CRS!M32</f>
-        <v>25.6</v>
+        <v>30.880000000000003</v>
       </c>
       <c r="AF32" s="66">
         <f>CRS!N32</f>
-        <v>40.873307692307691</v>
+        <v>43.513307692307691</v>
       </c>
       <c r="AG32" s="64">
         <f>CRS!O32</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH32" s="301"/>
       <c r="AI32" s="299"/>
@@ -28440,8 +28488,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
+      <c r="Q33" s="109">
+        <v>20</v>
+      </c>
+      <c r="R33" s="109">
+        <v>25</v>
+      </c>
       <c r="S33" s="109"/>
       <c r="T33" s="109"/>
       <c r="U33" s="109"/>
@@ -28450,13 +28502,13 @@
       <c r="X33" s="109"/>
       <c r="Y33" s="109"/>
       <c r="Z33" s="109"/>
-      <c r="AA33" s="60" t="str">
+      <c r="AA33" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB33" s="67" t="str">
+        <v>45</v>
+      </c>
+      <c r="AB33" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AC33" s="111">
         <v>47</v>
@@ -28467,11 +28519,11 @@
       </c>
       <c r="AE33" s="112">
         <f>CRS!M33</f>
-        <v>18.8</v>
+        <v>24.740000000000002</v>
       </c>
       <c r="AF33" s="66">
         <f>CRS!N33</f>
-        <v>34.644153846153849</v>
+        <v>37.614153846153847</v>
       </c>
       <c r="AG33" s="64">
         <f>CRS!O33</f>
@@ -28671,8 +28723,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
+      <c r="Q36" s="109">
+        <v>35</v>
+      </c>
+      <c r="R36" s="109">
+        <v>20</v>
+      </c>
       <c r="S36" s="109"/>
       <c r="T36" s="109"/>
       <c r="U36" s="109"/>
@@ -28681,13 +28737,13 @@
       <c r="X36" s="109"/>
       <c r="Y36" s="109"/>
       <c r="Z36" s="109"/>
-      <c r="AA36" s="60" t="str">
+      <c r="AA36" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB36" s="67" t="str">
+        <v>55</v>
+      </c>
+      <c r="AB36" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC36" s="111">
         <v>31</v>
@@ -28698,11 +28754,11 @@
       </c>
       <c r="AE36" s="112">
         <f>CRS!M36</f>
-        <v>12.4</v>
+        <v>19.66</v>
       </c>
       <c r="AF36" s="66">
         <f>CRS!N36</f>
-        <v>22.299461538461539</v>
+        <v>25.929461538461538</v>
       </c>
       <c r="AG36" s="64">
         <f>CRS!O36</f>
@@ -28749,7 +28805,9 @@
         <v/>
       </c>
       <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
+      <c r="R37" s="109">
+        <v>30</v>
+      </c>
       <c r="S37" s="109"/>
       <c r="T37" s="109"/>
       <c r="U37" s="109"/>
@@ -28758,13 +28816,13 @@
       <c r="X37" s="109"/>
       <c r="Y37" s="109"/>
       <c r="Z37" s="109"/>
-      <c r="AA37" s="60" t="str">
+      <c r="AA37" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB37" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="AB37" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="AC37" s="111">
         <v>68</v>
@@ -28775,11 +28833,11 @@
       </c>
       <c r="AE37" s="112">
         <f>CRS!M37</f>
-        <v>27.200000000000003</v>
+        <v>31.160000000000004</v>
       </c>
       <c r="AF37" s="66">
         <f>CRS!N37</f>
-        <v>43.165769230769236</v>
+        <v>45.145769230769233</v>
       </c>
       <c r="AG37" s="64">
         <f>CRS!O37</f>
@@ -28826,7 +28884,9 @@
         <v/>
       </c>
       <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
+      <c r="R38" s="109">
+        <v>30</v>
+      </c>
       <c r="S38" s="109"/>
       <c r="T38" s="109"/>
       <c r="U38" s="109"/>
@@ -28835,13 +28895,13 @@
       <c r="X38" s="109"/>
       <c r="Y38" s="109"/>
       <c r="Z38" s="109"/>
-      <c r="AA38" s="60" t="str">
+      <c r="AA38" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB38" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="AB38" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="AC38" s="111">
         <v>75</v>
@@ -28852,15 +28912,15 @@
       </c>
       <c r="AE38" s="112">
         <f>CRS!M38</f>
-        <v>30.000000000000004</v>
+        <v>33.96</v>
       </c>
       <c r="AF38" s="66">
         <f>CRS!N38</f>
-        <v>57.526692307692308</v>
+        <v>59.506692307692305</v>
       </c>
       <c r="AG38" s="64">
         <f>CRS!O38</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" s="301"/>
       <c r="AI38" s="299"/>
@@ -28979,8 +29039,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
+      <c r="Q40" s="109">
+        <v>30</v>
+      </c>
+      <c r="R40" s="109">
+        <v>33</v>
+      </c>
       <c r="S40" s="109"/>
       <c r="T40" s="109"/>
       <c r="U40" s="109"/>
@@ -28989,13 +29053,13 @@
       <c r="X40" s="109"/>
       <c r="Y40" s="109"/>
       <c r="Z40" s="109"/>
-      <c r="AA40" s="60" t="str">
+      <c r="AA40" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB40" s="67" t="str">
+        <v>63</v>
+      </c>
+      <c r="AB40" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>25.2</v>
       </c>
       <c r="AC40" s="111">
         <v>63</v>
@@ -29006,15 +29070,15 @@
       </c>
       <c r="AE40" s="112">
         <f>CRS!M40</f>
-        <v>25.200000000000003</v>
+        <v>33.516000000000005</v>
       </c>
       <c r="AF40" s="66">
         <f>CRS!N40</f>
-        <v>46.585384615384619</v>
+        <v>50.74338461538462</v>
       </c>
       <c r="AG40" s="64">
         <f>CRS!O40</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH40" s="301"/>
       <c r="AI40" s="299"/>
@@ -29925,7 +29989,9 @@
         <v/>
       </c>
       <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
+      <c r="R54" s="109">
+        <v>30</v>
+      </c>
       <c r="S54" s="109"/>
       <c r="T54" s="109"/>
       <c r="U54" s="109"/>
@@ -29934,13 +30000,13 @@
       <c r="X54" s="109"/>
       <c r="Y54" s="109"/>
       <c r="Z54" s="109"/>
-      <c r="AA54" s="60" t="str">
+      <c r="AA54" s="60">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB54" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="AB54" s="67">
         <f t="shared" si="11"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="AC54" s="111">
         <v>37</v>
@@ -29951,11 +30017,11 @@
       </c>
       <c r="AE54" s="112">
         <f>CRS!M54</f>
-        <v>14.800000000000002</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="AF54" s="66">
         <f>CRS!N54</f>
-        <v>32.698230769230769</v>
+        <v>34.678230769230773</v>
       </c>
       <c r="AG54" s="64">
         <f>CRS!O54</f>
@@ -29996,8 +30062,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="109"/>
+      <c r="Q55" s="109">
+        <v>25</v>
+      </c>
+      <c r="R55" s="109">
+        <v>20</v>
+      </c>
       <c r="S55" s="109"/>
       <c r="T55" s="109"/>
       <c r="U55" s="109"/>
@@ -30006,13 +30076,13 @@
       <c r="X55" s="109"/>
       <c r="Y55" s="109"/>
       <c r="Z55" s="109"/>
-      <c r="AA55" s="60" t="str">
+      <c r="AA55" s="60">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB55" s="67" t="str">
+        <v>45</v>
+      </c>
+      <c r="AB55" s="67">
         <f t="shared" si="11"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AC55" s="111">
         <v>46</v>
@@ -30023,11 +30093,11 @@
       </c>
       <c r="AE55" s="112">
         <f>CRS!M55</f>
-        <v>18.400000000000002</v>
+        <v>24.340000000000003</v>
       </c>
       <c r="AF55" s="66">
         <f>CRS!N55</f>
-        <v>34.149538461538462</v>
+        <v>37.119538461538468</v>
       </c>
       <c r="AG55" s="64">
         <f>CRS!O55</f>
@@ -39220,7 +39290,7 @@
       <c r="J25" s="145"/>
       <c r="K25" s="144">
         <f>IF(CRS!O19="","",CRS!O19)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L25" s="146"/>
       <c r="M25" s="144" t="str">
@@ -39515,7 +39585,7 @@
       <c r="J30" s="145"/>
       <c r="K30" s="144">
         <f>IF(CRS!O24="","",CRS!O24)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L30" s="146"/>
       <c r="M30" s="144" t="str">
@@ -39572,9 +39642,9 @@
         <v>75</v>
       </c>
       <c r="J31" s="145"/>
-      <c r="K31" s="144" t="str">
+      <c r="K31" s="144">
         <f>IF(CRS!O25="","",CRS!O25)</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="L31" s="146"/>
       <c r="M31" s="144" t="str">
@@ -39631,9 +39701,9 @@
         <v>77</v>
       </c>
       <c r="J32" s="145"/>
-      <c r="K32" s="144" t="str">
+      <c r="K32" s="144">
         <f>IF(CRS!O26="","",CRS!O26)</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="L32" s="146"/>
       <c r="M32" s="144" t="str">
@@ -39751,7 +39821,7 @@
       <c r="J34" s="145"/>
       <c r="K34" s="144">
         <f>IF(CRS!O28="","",CRS!O28)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L34" s="146"/>
       <c r="M34" s="144" t="str">
@@ -39987,7 +40057,7 @@
       <c r="J38" s="145"/>
       <c r="K38" s="144">
         <f>IF(CRS!O32="","",CRS!O32)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L38" s="146"/>
       <c r="M38" s="144" t="str">
@@ -40341,7 +40411,7 @@
       <c r="J44" s="145"/>
       <c r="K44" s="144">
         <f>IF(CRS!O38="","",CRS!O38)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L44" s="146"/>
       <c r="M44" s="144" t="str">
@@ -40459,7 +40529,7 @@
       <c r="J46" s="145"/>
       <c r="K46" s="144">
         <f>IF(CRS!O40="","",CRS!O40)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L46" s="146"/>
       <c r="M46" s="144" t="str">
